--- a/CODE/Anomaly_detect/dataset/class1/25/Simulink_Data2.xlsx
+++ b/CODE/Anomaly_detect/dataset/class1/25/Simulink_Data2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PS!\CO2_Anomaly_detection\CODE\Anomaly_detect\dataset\class1\25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PS!\dg models\Data_generation\Model3\CX_2102\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -391,18 +391,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M243" sqref="M243"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,22 +490,22 @@
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="B3">
-        <v>442.66571097535632</v>
+        <v>443.37842833828245</v>
       </c>
       <c r="C3">
-        <v>443.20841015514986</v>
+        <v>445.0145328911043</v>
       </c>
       <c r="D3">
-        <v>443.37865801924085</v>
+        <v>445.63546191213334</v>
       </c>
       <c r="E3">
-        <v>444.56337802303557</v>
+        <v>444.75635600046451</v>
       </c>
       <c r="F3">
-        <v>444.51116949724712</v>
+        <v>446.09447106542711</v>
       </c>
       <c r="G3">
-        <v>444.28759583842395</v>
+        <v>446.35852665772211</v>
       </c>
       <c r="H3" t="s">
         <v>8</v>
@@ -534,22 +531,22 @@
         <v>2.0833333333333333E-3</v>
       </c>
       <c r="B4">
-        <v>538.11609015474755</v>
+        <v>539.86777327724087</v>
       </c>
       <c r="C4">
-        <v>538.55218569143142</v>
+        <v>541.39613249286697</v>
       </c>
       <c r="D4">
-        <v>538.61594270669673</v>
+        <v>541.90941915334645</v>
       </c>
       <c r="E4">
-        <v>539.69430783560313</v>
+        <v>540.92276565041141</v>
       </c>
       <c r="F4">
-        <v>539.53584241638725</v>
+        <v>542.15349092443785</v>
       </c>
       <c r="G4">
-        <v>539.20612771954575</v>
+        <v>542.31025839867425</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -575,22 +572,22 @@
         <v>2.7777777777777779E-3</v>
       </c>
       <c r="B5">
-        <v>601.10023935001698</v>
+        <v>603.53751946591979</v>
       </c>
       <c r="C5">
-        <v>601.46599129086269</v>
+        <v>604.99478171212775</v>
       </c>
       <c r="D5">
-        <v>601.45947913424732</v>
+        <v>605.43703934236828</v>
       </c>
       <c r="E5">
-        <v>602.46766482408543</v>
+        <v>604.37941932829904</v>
       </c>
       <c r="F5">
-        <v>602.23908460699727</v>
+        <v>605.53928223810931</v>
       </c>
       <c r="G5">
-        <v>601.83933155830687</v>
+        <v>605.62525442677031</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -616,22 +613,22 @@
         <v>3.472222222222222E-3</v>
       </c>
       <c r="B6">
-        <v>642.66115279454209</v>
+        <v>645.55084768617064</v>
       </c>
       <c r="C6">
-        <v>642.98048761164182</v>
+        <v>646.96119566964308</v>
       </c>
       <c r="D6">
-        <v>642.92760744057045</v>
+        <v>647.35658386703597</v>
       </c>
       <c r="E6">
-        <v>643.88948432771792</v>
+        <v>646.2521356732658</v>
       </c>
       <c r="F6">
-        <v>643.61463796149849</v>
+        <v>647.3652391271288</v>
       </c>
       <c r="G6">
-        <v>643.16866920737118</v>
+        <v>647.40449612188274</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -657,22 +654,22 @@
         <v>4.1666666666666666E-3</v>
       </c>
       <c r="B7">
-        <v>670.08566597761683</v>
+        <v>673.27390234982715</v>
       </c>
       <c r="C7">
-        <v>670.37437184870441</v>
+        <v>674.65329333286491</v>
       </c>
       <c r="D7">
-        <v>670.29089513700887</v>
+        <v>675.01775411138317</v>
       </c>
       <c r="E7">
-        <v>671.2222145552106</v>
+        <v>673.88240572012501</v>
       </c>
       <c r="F7">
-        <v>670.91683886550959</v>
+        <v>674.96465432483762</v>
       </c>
       <c r="G7">
-        <v>670.44037407382029</v>
+        <v>674.97308567729829</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
@@ -698,22 +695,22 @@
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="B8">
-        <v>688.18209037085467</v>
+        <v>691.56732962816488</v>
       </c>
       <c r="C8">
-        <v>688.45058533062695</v>
+        <v>692.92629322175969</v>
       </c>
       <c r="D8">
-        <v>688.34691909073535</v>
+        <v>693.27034613061983</v>
       </c>
       <c r="E8">
-        <v>689.25807476270006</v>
+        <v>692.11460783209509</v>
       </c>
       <c r="F8">
-        <v>688.93255389891453</v>
+        <v>693.17649645324946</v>
       </c>
       <c r="G8">
-        <v>688.43596589728907</v>
+        <v>693.16458709468418</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -739,22 +736,22 @@
         <v>5.5555555555555558E-3</v>
       </c>
       <c r="B9">
-        <v>700.12325314794009</v>
+        <v>703.63849154856746</v>
       </c>
       <c r="C9">
-        <v>700.37841167303543</v>
+        <v>704.983975856857</v>
       </c>
       <c r="D9">
-        <v>700.26142310839782</v>
+        <v>705.31456236080135</v>
       </c>
       <c r="E9">
-        <v>701.15927346818046</v>
+        <v>704.14536951008506</v>
       </c>
       <c r="F9">
-        <v>700.82045954729028</v>
+        <v>705.193823324606</v>
       </c>
       <c r="G9">
-        <v>700.31059298189132</v>
+        <v>705.16849187664411</v>
       </c>
       <c r="H9" t="s">
         <v>8</v>
@@ -780,22 +777,22 @@
         <v>6.2499999999999995E-3</v>
       </c>
       <c r="B10">
-        <v>708.00278588751598</v>
+        <v>711.60380870311428</v>
       </c>
       <c r="C10">
-        <v>708.24914419142453</v>
+        <v>712.94039852525736</v>
       </c>
       <c r="D10">
-        <v>708.12336471622314</v>
+        <v>713.2620990423527</v>
       </c>
       <c r="E10">
-        <v>709.01243539140523</v>
+        <v>712.08402802596493</v>
       </c>
       <c r="F10">
-        <v>708.66484987258809</v>
+        <v>713.1236167041842</v>
       </c>
       <c r="G10">
-        <v>708.1462212728768</v>
+        <v>713.08942851155928</v>
       </c>
       <c r="H10" t="s">
         <v>8</v>
@@ -821,22 +818,22 @@
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="B11">
-        <v>713.20219882186245</v>
+        <v>716.85982944007105</v>
       </c>
       <c r="C11">
-        <v>713.44275018450003</v>
+        <v>718.19055011692797</v>
       </c>
       <c r="D11">
-        <v>713.31116991176384</v>
+        <v>718.50638709711143</v>
       </c>
       <c r="E11">
-        <v>714.1944471970105</v>
+        <v>717.32245770472093</v>
       </c>
       <c r="F11">
-        <v>713.84107362435498</v>
+        <v>718.35619660454063</v>
       </c>
       <c r="G11">
-        <v>713.31666328148174</v>
+        <v>718.31616417085013</v>
       </c>
       <c r="H11" t="s">
         <v>8</v>
@@ -862,22 +859,22 @@
         <v>7.6388888888888886E-3</v>
       </c>
       <c r="B12">
-        <v>754.18779917794734</v>
+        <v>721.17896335930106</v>
       </c>
       <c r="C12">
-        <v>722.90263067245655</v>
+        <v>722.64278793513506</v>
       </c>
       <c r="D12">
-        <v>723.73632655569543</v>
+        <v>723.11378082101794</v>
       </c>
       <c r="E12">
-        <v>725.74056243979726</v>
+        <v>722.11060762321836</v>
       </c>
       <c r="F12">
-        <v>726.68883268303932</v>
+        <v>723.35482664924007</v>
       </c>
       <c r="G12">
-        <v>727.67577802851588</v>
+        <v>723.55977891240957</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -903,34 +900,34 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="B13">
-        <v>1266.4627600912386</v>
+        <v>802.41319882141408</v>
       </c>
       <c r="C13">
-        <v>1230.2600700757869</v>
+        <v>803.92945898147843</v>
       </c>
       <c r="D13">
-        <v>1231.2195562697509</v>
+        <v>804.43072311534218</v>
       </c>
       <c r="E13">
-        <v>1233.1927798439692</v>
+        <v>803.43210095569339</v>
       </c>
       <c r="F13">
-        <v>1233.9280140643682</v>
+        <v>804.65108357484462</v>
       </c>
       <c r="G13">
-        <v>1234.4909783081321</v>
+        <v>804.79618160778534</v>
       </c>
       <c r="H13" t="s">
         <v>8</v>
       </c>
       <c r="I13">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J13">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K13">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -944,34 +941,34 @@
         <v>9.0277777777777787E-3</v>
       </c>
       <c r="B14">
-        <v>1602.4973449374404</v>
+        <v>868.57546474306582</v>
       </c>
       <c r="C14">
-        <v>1565.9317803059482</v>
+        <v>870.05480984211169</v>
       </c>
       <c r="D14">
-        <v>1566.516106491084</v>
+        <v>870.51916767018349</v>
       </c>
       <c r="E14">
-        <v>1568.1146495461203</v>
+        <v>869.4836423602984</v>
       </c>
       <c r="F14">
-        <v>1568.4755481579041</v>
+        <v>870.66576824918093</v>
       </c>
       <c r="G14">
-        <v>1568.6645850256932</v>
+        <v>870.77401762081502</v>
       </c>
       <c r="H14" t="s">
         <v>8</v>
       </c>
       <c r="I14">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J14">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K14">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -985,34 +982,34 @@
         <v>9.7222222222222224E-3</v>
       </c>
       <c r="B15">
-        <v>1824.1711454253823</v>
+        <v>922.32909000505106</v>
       </c>
       <c r="C15">
-        <v>1787.3661854895367</v>
+        <v>923.77844441081788</v>
       </c>
       <c r="D15">
-        <v>1787.7030050503279</v>
+        <v>924.21281863887248</v>
       </c>
       <c r="E15">
-        <v>1789.0543577739711</v>
+        <v>923.14731226552328</v>
       </c>
       <c r="F15">
-        <v>1789.168293987871</v>
+        <v>924.2994948354999</v>
       </c>
       <c r="G15">
-        <v>1789.1106379604373</v>
+        <v>924.37780742331506</v>
       </c>
       <c r="H15" t="s">
         <v>8</v>
       </c>
       <c r="I15">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J15">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K15">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L15" t="s">
         <v>13</v>
@@ -1026,34 +1023,34 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="B16">
-        <v>1970.4015830820342</v>
+        <v>966.00147874855054</v>
       </c>
       <c r="C16">
-        <v>1933.4387011134008</v>
+        <v>967.42646734304037</v>
       </c>
       <c r="D16">
-        <v>1933.6122475172069</v>
+        <v>967.83648151794148</v>
       </c>
       <c r="E16">
-        <v>1934.8005357352774</v>
+        <v>966.74661714575382</v>
       </c>
       <c r="F16">
-        <v>1934.7515578300047</v>
+        <v>967.87447238957827</v>
       </c>
       <c r="G16">
-        <v>1934.5311654804989</v>
+        <v>967.92846295573042</v>
       </c>
       <c r="H16" t="s">
         <v>8</v>
       </c>
       <c r="I16">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J16">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K16">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L16" t="s">
         <v>13</v>
@@ -1067,34 +1064,34 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="B17">
-        <v>2066.8645122385383</v>
+        <v>1001.4833670002751</v>
       </c>
       <c r="C17">
-        <v>2029.797454728636</v>
+        <v>1002.8885595185881</v>
       </c>
       <c r="D17">
-        <v>2029.8632956282761</v>
+        <v>1003.2787822943721</v>
       </c>
       <c r="E17">
-        <v>2030.9440159823594</v>
+        <v>1002.1691281905544</v>
       </c>
       <c r="F17">
-        <v>2030.787569419178</v>
+        <v>1003.2772186245337</v>
       </c>
       <c r="G17">
-        <v>2030.4598256990935</v>
+        <v>1003.3114486893103</v>
       </c>
       <c r="H17" t="s">
         <v>8</v>
       </c>
       <c r="I17">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J17">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K17">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L17" t="s">
         <v>13</v>
@@ -1108,34 +1105,34 @@
         <v>1.1805555555555555E-2</v>
       </c>
       <c r="B18">
-        <v>2130.4976062476135</v>
+        <v>1030.3108474498993</v>
       </c>
       <c r="C18">
-        <v>2093.3618279078851</v>
+        <v>1031.6999565408444</v>
       </c>
       <c r="D18">
-        <v>2093.3566193882011</v>
+        <v>1032.0740996888892</v>
       </c>
       <c r="E18">
-        <v>2094.3663811192177</v>
+        <v>1030.9483673117227</v>
       </c>
       <c r="F18">
-        <v>2094.1390413757135</v>
+        <v>1032.0403997205749</v>
       </c>
       <c r="G18">
-        <v>2093.7404818455625</v>
+        <v>1032.0585752603831</v>
       </c>
       <c r="H18" t="s">
         <v>8</v>
       </c>
       <c r="I18">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J18">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K18">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L18" t="s">
         <v>13</v>
@@ -1149,34 +1146,34 @@
         <v>1.2499999999999999E-2</v>
       </c>
       <c r="B19">
-        <v>2154.811277206717</v>
+        <v>1031.2254603079082</v>
       </c>
       <c r="C19">
-        <v>2117.4818498874347</v>
+        <v>1032.4370853642949</v>
       </c>
       <c r="D19">
-        <v>2117.3911980239882</v>
+        <v>1032.6337825088426</v>
       </c>
       <c r="E19">
-        <v>2118.5336807548315</v>
+        <v>1031.6576742748573</v>
       </c>
       <c r="F19">
-        <v>2118.1120550509941</v>
+        <v>1032.4633264523757</v>
       </c>
       <c r="G19">
-        <v>2117.7555408594576</v>
+        <v>1032.3768443262325</v>
       </c>
       <c r="H19" t="s">
         <v>8</v>
       </c>
       <c r="I19">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J19">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K19">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L19" t="s">
         <v>13</v>
@@ -1190,34 +1187,34 @@
         <v>1.3194444444444444E-2</v>
       </c>
       <c r="B20">
-        <v>2170.7428803396583</v>
+        <v>1031.639064975006</v>
       </c>
       <c r="C20">
-        <v>2133.3962476547572</v>
+        <v>1032.8504600557603</v>
       </c>
       <c r="D20">
-        <v>2133.2878078045946</v>
+        <v>1033.0469272677242</v>
       </c>
       <c r="E20">
-        <v>2134.4125258901022</v>
+        <v>1032.0705891318639</v>
       </c>
       <c r="F20">
-        <v>2133.9731509985681</v>
+        <v>1032.8760116765764</v>
       </c>
       <c r="G20">
-        <v>2133.5989076487622</v>
+        <v>1032.7892999707483</v>
       </c>
       <c r="H20" t="s">
         <v>8</v>
       </c>
       <c r="I20">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J20">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K20">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L20" t="s">
         <v>13</v>
@@ -1231,34 +1228,34 @@
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="B21">
-        <v>2181.2524062198027</v>
+        <v>1031.9752355882031</v>
       </c>
       <c r="C21">
-        <v>2143.8944234958817</v>
+        <v>1033.1864432890575</v>
       </c>
       <c r="D21">
-        <v>2143.7742492282719</v>
+        <v>1033.382723162777</v>
       </c>
       <c r="E21">
-        <v>2144.8872482950146</v>
+        <v>1032.4061977209262</v>
       </c>
       <c r="F21">
-        <v>2144.4361645861231</v>
+        <v>1033.2114331723346</v>
       </c>
       <c r="G21">
-        <v>2144.0502256342124</v>
+        <v>1033.1245344223967</v>
       </c>
       <c r="H21" t="s">
         <v>8</v>
       </c>
       <c r="I21">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J21">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K21">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L21" t="s">
         <v>13</v>
@@ -1272,34 +1269,34 @@
         <v>1.4583333333333332E-2</v>
       </c>
       <c r="B22">
-        <v>2188.1851483922742</v>
+        <v>1032.2483905338065</v>
       </c>
       <c r="C22">
-        <v>2150.8196784570141</v>
+        <v>1033.4594458722772</v>
       </c>
       <c r="D22">
-        <v>2150.6917634156061</v>
+        <v>1033.6555734190122</v>
       </c>
       <c r="E22">
-        <v>2151.7970318665516</v>
+        <v>1032.6788956780822</v>
       </c>
       <c r="F22">
-        <v>2151.338224271597</v>
+        <v>1033.4839790018318</v>
       </c>
       <c r="G22">
-        <v>2150.9445701513705</v>
+        <v>1033.3969281656086</v>
       </c>
       <c r="H22" t="s">
         <v>8</v>
       </c>
       <c r="I22">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J22">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K22">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L22" t="s">
         <v>13</v>
@@ -1313,34 +1310,34 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="B23">
-        <v>2192.7584182861428</v>
+        <v>1032.4703238706468</v>
       </c>
       <c r="C23">
-        <v>2155.3880093177213</v>
+        <v>1033.6812553925388</v>
       </c>
       <c r="D23">
-        <v>2155.2549879773837</v>
+        <v>1033.877259151818</v>
       </c>
       <c r="E23">
-        <v>2156.3551568302546</v>
+        <v>1032.9004576465004</v>
       </c>
       <c r="F23">
-        <v>2155.8912540765941</v>
+        <v>1033.7054173448123</v>
       </c>
       <c r="G23">
-        <v>2155.4925105484394</v>
+        <v>1033.6182429170938</v>
       </c>
       <c r="H23" t="s">
         <v>8</v>
       </c>
       <c r="I23">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J23">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K23">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L23" t="s">
         <v>13</v>
@@ -1354,34 +1351,34 @@
         <v>1.5972222222222224E-2</v>
       </c>
       <c r="B24">
-        <v>2195.7752327641788</v>
+        <v>1032.6506363296637</v>
       </c>
       <c r="C24">
-        <v>2158.40156570094</v>
+        <v>1033.8614672494418</v>
       </c>
       <c r="D24">
-        <v>2158.2651759268292</v>
+        <v>1034.0573704303526</v>
       </c>
       <c r="E24">
-        <v>2159.3619807662326</v>
+        <v>1033.0804683655012</v>
       </c>
       <c r="F24">
-        <v>2158.8947169275862</v>
+        <v>1033.8853276170958</v>
       </c>
       <c r="G24">
-        <v>2158.4926161080216</v>
+        <v>1033.7980527703119</v>
       </c>
       <c r="H24" t="s">
         <v>8</v>
       </c>
       <c r="I24">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J24">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K24">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L24" t="s">
         <v>13</v>
@@ -1395,34 +1392,34 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="B25">
-        <v>2197.7653120260475</v>
+        <v>1032.7971324017219</v>
       </c>
       <c r="C25">
-        <v>2160.3894957199627</v>
+        <v>1034.0078815852796</v>
       </c>
       <c r="D25">
-        <v>2160.2508839165384</v>
+        <v>1034.203703049282</v>
       </c>
       <c r="E25">
-        <v>2161.3454696425356</v>
+        <v>1033.2267192828451</v>
       </c>
       <c r="F25">
-        <v>2160.8759886222952</v>
+        <v>1034.0314969244953</v>
       </c>
       <c r="G25">
-        <v>2160.471673123614</v>
+        <v>1033.9441404902504</v>
       </c>
       <c r="H25" t="s">
         <v>8</v>
       </c>
       <c r="I25">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J25">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K25">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L25" t="s">
         <v>13</v>
@@ -1436,34 +1433,34 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="B26">
-        <v>2199.0780926085595</v>
+        <v>1032.9161538905903</v>
       </c>
       <c r="C26">
-        <v>2161.7008585276503</v>
+        <v>1034.1268366668178</v>
       </c>
       <c r="D26">
-        <v>2161.5607809349012</v>
+        <v>1034.3225917391853</v>
       </c>
       <c r="E26">
-        <v>2162.6539027950894</v>
+        <v>1033.3455415935689</v>
       </c>
       <c r="F26">
-        <v>2162.1829591833834</v>
+        <v>1034.1502529304883</v>
       </c>
       <c r="G26">
-        <v>2161.7771827440274</v>
+        <v>1034.0628302097846</v>
       </c>
       <c r="H26" t="s">
         <v>8</v>
       </c>
       <c r="I26">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J26">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K26">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L26" t="s">
         <v>13</v>
@@ -1477,34 +1474,34 @@
         <v>1.8055555555555557E-2</v>
       </c>
       <c r="B27">
-        <v>2201.5583177415751</v>
+        <v>1034.1273180869102</v>
       </c>
       <c r="C27">
-        <v>2164.1687268545179</v>
+        <v>1035.3632281743573</v>
       </c>
       <c r="D27">
-        <v>2164.0312350051195</v>
+        <v>1035.5466189287288</v>
       </c>
       <c r="E27">
-        <v>2165.1645379000151</v>
+        <v>1034.5722386890402</v>
       </c>
       <c r="F27">
-        <v>2164.6961740516253</v>
+        <v>1035.3721008454668</v>
       </c>
       <c r="G27">
-        <v>2164.2804419772347</v>
+        <v>1035.2798272629932</v>
       </c>
       <c r="H27" t="s">
         <v>8</v>
       </c>
       <c r="I27">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J27">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K27">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L27" t="s">
         <v>13</v>
@@ -1518,34 +1515,34 @@
         <v>1.8749999999999999E-2</v>
       </c>
       <c r="B28">
-        <v>2203.2125282977136</v>
+        <v>1035.1221908704965</v>
       </c>
       <c r="C28">
-        <v>2165.8211508557888</v>
+        <v>1036.3575458367905</v>
       </c>
       <c r="D28">
-        <v>2165.6818119472691</v>
+        <v>1036.5403815952138</v>
       </c>
       <c r="E28">
-        <v>2166.8132702179437</v>
+        <v>1035.5654464669876</v>
       </c>
       <c r="F28">
-        <v>2166.3430633407997</v>
+        <v>1036.3647543553211</v>
       </c>
       <c r="G28">
-        <v>2165.9254903145397</v>
+        <v>1036.2719266580366</v>
       </c>
       <c r="H28" t="s">
         <v>8</v>
       </c>
       <c r="I28">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J28">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K28">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L28" t="s">
         <v>13</v>
@@ -1559,34 +1556,34 @@
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="B29">
-        <v>2204.3037449056665</v>
+        <v>1035.9304728313125</v>
       </c>
       <c r="C29">
-        <v>2166.9111889687515</v>
+        <v>1037.1653768145293</v>
       </c>
       <c r="D29">
-        <v>2166.7706316569252</v>
+        <v>1037.3477616912469</v>
       </c>
       <c r="E29">
-        <v>2167.9008731303893</v>
+        <v>1036.3723757682069</v>
       </c>
       <c r="F29">
-        <v>2167.4294505080802</v>
+        <v>1037.1712333661148</v>
       </c>
       <c r="G29">
-        <v>2167.0106631064555</v>
+        <v>1037.0779555026259</v>
       </c>
       <c r="H29" t="s">
         <v>8</v>
       </c>
       <c r="I29">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J29">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K29">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
@@ -1600,34 +1597,34 @@
         <v>2.013888888888889E-2</v>
       </c>
       <c r="B30">
-        <v>2205.023579439599</v>
+        <v>1036.5871635965007</v>
       </c>
       <c r="C30">
-        <v>2167.6302460951765</v>
+        <v>1037.8217011828929</v>
       </c>
       <c r="D30">
-        <v>2167.4888850500415</v>
+        <v>1038.0037197450631</v>
       </c>
       <c r="E30">
-        <v>2168.6183238496724</v>
+        <v>1037.027967577985</v>
       </c>
       <c r="F30">
-        <v>2168.1460992475013</v>
+        <v>1037.8264593417161</v>
       </c>
       <c r="G30">
-        <v>2167.7265107696076</v>
+        <v>1037.7328157449044</v>
       </c>
       <c r="H30" t="s">
         <v>8</v>
       </c>
       <c r="I30">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J30">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K30">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L30" t="s">
         <v>13</v>
@@ -1641,34 +1638,34 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="B31">
-        <v>2205.4984273317305</v>
+        <v>1037.1206946511538</v>
       </c>
       <c r="C31">
-        <v>2168.104581160751</v>
+        <v>1038.3549345582639</v>
       </c>
       <c r="D31">
-        <v>2167.9626899229247</v>
+        <v>1038.5366555079784</v>
       </c>
       <c r="E31">
-        <v>2169.091599228761</v>
+        <v>1037.5606057857105</v>
       </c>
       <c r="F31">
-        <v>2168.6188455905794</v>
+        <v>1038.3588003272625</v>
       </c>
       <c r="G31">
-        <v>2168.1987286727413</v>
+        <v>1038.2648595901928</v>
       </c>
       <c r="H31" t="s">
         <v>8</v>
       </c>
       <c r="I31">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J31">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K31">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L31" t="s">
         <v>13</v>
@@ -1682,34 +1679,34 @@
         <v>2.1527777777777781E-2</v>
       </c>
       <c r="B32">
-        <v>2205.8116667157501</v>
+        <v>1037.5541643243857</v>
       </c>
       <c r="C32">
-        <v>2168.4174822522864</v>
+        <v>1038.7881623809428</v>
       </c>
       <c r="D32">
-        <v>2168.2752412661875</v>
+        <v>1038.9696415343944</v>
       </c>
       <c r="E32">
-        <v>2169.4038012847868</v>
+        <v>1037.9933500623838</v>
       </c>
       <c r="F32">
-        <v>2168.9306986613524</v>
+        <v>1038.7913031247533</v>
       </c>
       <c r="G32">
-        <v>2168.5102331514631</v>
+        <v>1038.6971209750552</v>
       </c>
       <c r="H32" t="s">
         <v>8</v>
       </c>
       <c r="I32">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J32">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K32">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L32" t="s">
         <v>13</v>
@@ -1723,34 +1720,34 @@
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="B33">
-        <v>2206.0182990153226</v>
+        <v>1037.9063387357255</v>
       </c>
       <c r="C33">
-        <v>2168.6238913929665</v>
+        <v>1039.1401402997692</v>
       </c>
       <c r="D33">
-        <v>2168.4814196910211</v>
+        <v>1039.3214230048141</v>
       </c>
       <c r="E33">
-        <v>2169.6097492979011</v>
+        <v>1038.3449351221921</v>
       </c>
       <c r="F33">
-        <v>2169.1364164619554</v>
+        <v>1039.142691993768</v>
       </c>
       <c r="G33">
-        <v>2168.7157209989364</v>
+        <v>1039.048313707347</v>
       </c>
       <c r="H33" t="s">
         <v>8</v>
       </c>
       <c r="I33">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J33">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K33">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L33" t="s">
         <v>13</v>
@@ -1764,34 +1761,34 @@
         <v>2.2916666666666669E-2</v>
       </c>
       <c r="B34">
-        <v>2206.1546066107553</v>
+        <v>1038.1924644530866</v>
       </c>
       <c r="C34">
-        <v>2168.7600517788292</v>
+        <v>1039.4261063759022</v>
       </c>
       <c r="D34">
-        <v>2168.6174278822732</v>
+        <v>1039.6072294755531</v>
       </c>
       <c r="E34">
-        <v>2169.7456054951649</v>
+        <v>1038.6305820182433</v>
       </c>
       <c r="F34">
-        <v>2169.2721207966401</v>
+        <v>1039.4281794937251</v>
       </c>
       <c r="G34">
-        <v>2168.8512736421453</v>
+        <v>1039.3336418551394</v>
       </c>
       <c r="H34" t="s">
         <v>8</v>
       </c>
       <c r="I34">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J34">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K34">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L34" t="s">
         <v>13</v>
@@ -1805,34 +1802,34 @@
         <v>2.361111111111111E-2</v>
       </c>
       <c r="B35">
-        <v>2206.2445236305653</v>
+        <v>1038.4249286085903</v>
       </c>
       <c r="C35">
-        <v>2168.8498716899949</v>
+        <v>1039.6584408301592</v>
       </c>
       <c r="D35">
-        <v>2168.7071473963501</v>
+        <v>1039.8394342576773</v>
       </c>
       <c r="E35">
-        <v>2169.835224744495</v>
+        <v>1038.8626571531829</v>
       </c>
       <c r="F35">
-        <v>2169.3616398679101</v>
+        <v>1039.6601251265774</v>
       </c>
       <c r="G35">
-        <v>2168.9406926482266</v>
+        <v>1039.5654580215958</v>
       </c>
       <c r="H35" t="s">
         <v>8</v>
       </c>
       <c r="I35">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J35">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K35">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L35" t="s">
         <v>13</v>
@@ -1846,34 +1843,34 @@
         <v>2.4305555555555556E-2</v>
       </c>
       <c r="B36">
-        <v>2206.30383852366</v>
+        <v>1038.6137951819255</v>
       </c>
       <c r="C36">
-        <v>2168.9091225241509</v>
+        <v>1039.8472020271206</v>
       </c>
       <c r="D36">
-        <v>2168.7663320023034</v>
+        <v>1040.028090101918</v>
       </c>
       <c r="E36">
-        <v>2169.8943432095475</v>
+        <v>1039.0512076649716</v>
       </c>
       <c r="F36">
-        <v>2169.4206922492458</v>
+        <v>1039.848570423801</v>
       </c>
       <c r="G36">
-        <v>2168.9996790202999</v>
+        <v>1039.7537981332505</v>
       </c>
       <c r="H36" t="s">
         <v>8</v>
       </c>
       <c r="I36">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J36">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K36">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L36" t="s">
         <v>13</v>
@@ -1887,34 +1884,34 @@
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="B37">
-        <v>2206.3429663389547</v>
+        <v>1038.7672406990673</v>
       </c>
       <c r="C37">
-        <v>2168.9482080821608</v>
+        <v>1040.0005619307426</v>
       </c>
       <c r="D37">
-        <v>2168.8053738720464</v>
+        <v>1040.1813644112376</v>
       </c>
       <c r="E37">
-        <v>2169.9333414486127</v>
+        <v>1039.2043963964559</v>
       </c>
       <c r="F37">
-        <v>2169.4596468953555</v>
+        <v>1040.0016736732268</v>
       </c>
       <c r="G37">
-        <v>2169.0385901225718</v>
+        <v>1039.9068159241781</v>
       </c>
       <c r="H37" t="s">
         <v>8</v>
       </c>
       <c r="I37">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J37">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K37">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L37" t="s">
         <v>13</v>
@@ -1928,34 +1925,34 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="B38">
-        <v>2206.3687774944619</v>
+        <v>1038.8919082160464</v>
       </c>
       <c r="C38">
-        <v>2168.9739913621188</v>
+        <v>1040.1251598906231</v>
       </c>
       <c r="D38">
-        <v>2168.8311283324897</v>
+        <v>1040.305892829633</v>
       </c>
       <c r="E38">
-        <v>2169.9590671275319</v>
+        <v>1039.3288552867452</v>
       </c>
       <c r="F38">
-        <v>2169.4853438176324</v>
+        <v>1040.1260631132243</v>
       </c>
       <c r="G38">
-        <v>2169.0642583206077</v>
+        <v>1040.0311359330242</v>
       </c>
       <c r="H38" t="s">
         <v>8</v>
       </c>
       <c r="I38">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J38">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K38">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L38" t="s">
         <v>13</v>
@@ -1969,34 +1966,34 @@
         <v>2.6388888888888889E-2</v>
       </c>
       <c r="B39">
-        <v>2206.3858041478466</v>
+        <v>1038.9931949142854</v>
       </c>
       <c r="C39">
-        <v>2168.9909996270467</v>
+        <v>1040.2263900768769</v>
       </c>
       <c r="D39">
-        <v>2168.8481175862617</v>
+        <v>1040.4070665165871</v>
       </c>
       <c r="E39">
-        <v>2169.9760373952081</v>
+        <v>1039.429972485269</v>
       </c>
       <c r="F39">
-        <v>2169.5022951156293</v>
+        <v>1040.2271238865389</v>
       </c>
       <c r="G39">
-        <v>2169.0811906702975</v>
+        <v>1040.1321402966803</v>
       </c>
       <c r="H39" t="s">
         <v>8</v>
       </c>
       <c r="I39">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J39">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K39">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L39" t="s">
         <v>13</v>
@@ -2010,34 +2007,34 @@
         <v>2.7083333333333334E-2</v>
       </c>
       <c r="B40">
-        <v>2206.3970359939131</v>
+        <v>1039.0754857586796</v>
       </c>
       <c r="C40">
-        <v>2169.0022193429359</v>
+        <v>1040.308635007849</v>
       </c>
       <c r="D40">
-        <v>2168.8593247612034</v>
+        <v>1040.4892655444428</v>
       </c>
       <c r="E40">
-        <v>2169.9872320457343</v>
+        <v>1039.5121256188393</v>
       </c>
       <c r="F40">
-        <v>2169.5134772525671</v>
+        <v>1040.3092311771884</v>
       </c>
       <c r="G40">
-        <v>2169.0923603077454</v>
+        <v>1040.2142017570429</v>
       </c>
       <c r="H40" t="s">
         <v>8</v>
       </c>
       <c r="I40">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J40">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K40">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L40" t="s">
         <v>13</v>
@@ -2051,34 +2048,34 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="B41">
-        <v>2206.4044452224462</v>
+        <v>1039.1423433341445</v>
       </c>
       <c r="C41">
-        <v>2169.0096205696454</v>
+        <v>1040.375455280742</v>
       </c>
       <c r="D41">
-        <v>2168.8667177151192</v>
+        <v>1040.5560485231374</v>
       </c>
       <c r="E41">
-        <v>2169.9946167377607</v>
+        <v>1039.5788713105114</v>
       </c>
       <c r="F41">
-        <v>2169.5208536898476</v>
+        <v>1040.3759396235673</v>
       </c>
       <c r="G41">
-        <v>2169.0997284995819</v>
+        <v>1040.2808729683945</v>
       </c>
       <c r="H41" t="s">
         <v>8</v>
       </c>
       <c r="I41">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J41">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K41">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L41" t="s">
         <v>13</v>
@@ -2092,34 +2089,34 @@
         <v>2.8472222222222222E-2</v>
       </c>
       <c r="B42">
-        <v>2206.4093328132412</v>
+        <v>1039.1966620791954</v>
       </c>
       <c r="C42">
-        <v>2169.014502881937</v>
+        <v>1040.4297437191474</v>
       </c>
       <c r="D42">
-        <v>2168.8715945701579</v>
+        <v>1040.6103066616995</v>
       </c>
       <c r="E42">
-        <v>2169.999488142741</v>
+        <v>1039.6330991550597</v>
       </c>
       <c r="F42">
-        <v>2169.5257196494808</v>
+        <v>1040.4301372080067</v>
       </c>
       <c r="G42">
-        <v>2169.1045890200021</v>
+        <v>1040.3350403010643</v>
       </c>
       <c r="H42" t="s">
         <v>8</v>
       </c>
       <c r="I42">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J42">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K42">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L42" t="s">
         <v>13</v>
@@ -2133,34 +2130,34 @@
         <v>2.9166666666666664E-2</v>
       </c>
       <c r="B43">
-        <v>2206.4125569739849</v>
+        <v>1039.2407935937406</v>
       </c>
       <c r="C43">
-        <v>2169.0177235606493</v>
+        <v>1040.4738506109181</v>
       </c>
       <c r="D43">
-        <v>2168.8748116489251</v>
+        <v>1040.6543889362233</v>
       </c>
       <c r="E43">
-        <v>2170.002701626308</v>
+        <v>1039.6771568170725</v>
       </c>
       <c r="F43">
-        <v>2169.5289295409571</v>
+        <v>1040.4741702850545</v>
       </c>
       <c r="G43">
-        <v>2169.1077953234344</v>
+        <v>1040.3790487999227</v>
       </c>
       <c r="H43" t="s">
         <v>8</v>
       </c>
       <c r="I43">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J43">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K43">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L43" t="s">
         <v>13</v>
@@ -2174,34 +2171,34 @@
         <v>2.9861111111111113E-2</v>
       </c>
       <c r="B44">
-        <v>2206.4146838321749</v>
+        <v>1039.276648445951</v>
       </c>
       <c r="C44">
-        <v>2169.0198481218736</v>
+        <v>1040.5096854582421</v>
       </c>
       <c r="D44">
-        <v>2168.8769338354</v>
+        <v>1040.6902037831519</v>
       </c>
       <c r="E44">
-        <v>2170.004821441164</v>
+        <v>1039.7129516674529</v>
       </c>
       <c r="F44">
-        <v>2169.5310469862438</v>
+        <v>1040.5099451612668</v>
       </c>
       <c r="G44">
-        <v>2169.1099104018226</v>
+        <v>1040.4148037074717</v>
       </c>
       <c r="H44" t="s">
         <v>8</v>
       </c>
       <c r="I44">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J44">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K44">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L44" t="s">
         <v>13</v>
@@ -2215,34 +2212,34 @@
         <v>3.0555555555555555E-2</v>
       </c>
       <c r="B45">
-        <v>2206.4160868409308</v>
+        <v>1039.3057788857348</v>
       </c>
       <c r="C45">
-        <v>2169.0212496154077</v>
+        <v>1040.5387996449642</v>
       </c>
       <c r="D45">
-        <v>2168.8783337624004</v>
+        <v>1040.7193017204602</v>
       </c>
       <c r="E45">
-        <v>2170.0062198036962</v>
+        <v>1039.7420333584741</v>
       </c>
       <c r="F45">
-        <v>2169.5324437856611</v>
+        <v>1040.5390106241832</v>
       </c>
       <c r="G45">
-        <v>2169.1113056398854</v>
+        <v>1040.4438529467559</v>
       </c>
       <c r="H45" t="s">
         <v>8</v>
       </c>
       <c r="I45">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J45">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K45">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L45" t="s">
         <v>13</v>
@@ -2256,34 +2253,34 @@
         <v>3.125E-2</v>
       </c>
       <c r="B46">
-        <v>2206.4170123533054</v>
+        <v>1039.3294460456789</v>
       </c>
       <c r="C46">
-        <v>2169.0221741282467</v>
+        <v>1040.5624536000332</v>
       </c>
       <c r="D46">
-        <v>2168.8792572418565</v>
+        <v>1040.7429424736181</v>
       </c>
       <c r="E46">
-        <v>2170.0071422511314</v>
+        <v>1039.7656609122614</v>
       </c>
       <c r="F46">
-        <v>2169.5333652019667</v>
+        <v>1040.5626249933716</v>
       </c>
       <c r="G46">
-        <v>2169.112226026225</v>
+        <v>1040.4674541349793</v>
       </c>
       <c r="H46" t="s">
         <v>8</v>
       </c>
       <c r="I46">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J46">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K46">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L46" t="s">
         <v>13</v>
@@ -2297,34 +2294,34 @@
         <v>3.1944444444444449E-2</v>
       </c>
       <c r="B47">
-        <v>2206.4176228791835</v>
+        <v>1039.3486745387593</v>
       </c>
       <c r="C47">
-        <v>2169.0227839947684</v>
+        <v>1040.5816713647519</v>
       </c>
       <c r="D47">
-        <v>2168.8798664266942</v>
+        <v>1040.7621495123838</v>
       </c>
       <c r="E47">
-        <v>2170.0077507551828</v>
+        <v>1039.7848572271366</v>
       </c>
       <c r="F47">
-        <v>2169.5339730258224</v>
+        <v>1040.5818105963597</v>
       </c>
       <c r="G47">
-        <v>2169.1128331706486</v>
+        <v>1040.4866290290315</v>
       </c>
       <c r="H47" t="s">
         <v>8</v>
       </c>
       <c r="I47">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J47">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K47">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L47" t="s">
         <v>13</v>
@@ -2338,34 +2335,34 @@
         <v>3.2638888888888891E-2</v>
       </c>
       <c r="B48">
-        <v>2206.4180256202549</v>
+        <v>1039.3642968165038</v>
       </c>
       <c r="C48">
-        <v>2169.0231863008867</v>
+        <v>1040.5972849261905</v>
       </c>
       <c r="D48">
-        <v>2168.880268283131</v>
+        <v>1040.7777543594714</v>
       </c>
       <c r="E48">
-        <v>2170.0081521625311</v>
+        <v>1039.800453361551</v>
       </c>
       <c r="F48">
-        <v>2169.5343739844698</v>
+        <v>1040.5973980278511</v>
       </c>
       <c r="G48">
-        <v>2169.1132336811011</v>
+        <v>1040.502207759999</v>
       </c>
       <c r="H48" t="s">
         <v>8</v>
       </c>
       <c r="I48">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J48">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K48">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L48" t="s">
         <v>13</v>
@@ -2379,34 +2376,34 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="B49">
-        <v>2206.4182912934707</v>
+        <v>1039.3769892079965</v>
       </c>
       <c r="C49">
-        <v>2169.0234516871801</v>
+        <v>1040.6099702360793</v>
       </c>
       <c r="D49">
-        <v>2168.8805333727869</v>
+        <v>1040.7904325893469</v>
       </c>
       <c r="E49">
-        <v>2170.00841695594</v>
+        <v>1039.8131245127745</v>
       </c>
       <c r="F49">
-        <v>2169.5346384818868</v>
+        <v>1040.6100621083453</v>
       </c>
       <c r="G49">
-        <v>2169.1134978828609</v>
+        <v>1040.5148647717128</v>
       </c>
       <c r="H49" t="s">
         <v>8</v>
       </c>
       <c r="I49">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J49">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K49">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L49" t="s">
         <v>13</v>
@@ -2420,34 +2417,34 @@
         <v>3.4027777777777775E-2</v>
       </c>
       <c r="B50">
-        <v>2206.4184665481462</v>
+        <v>1039.3873011999119</v>
       </c>
       <c r="C50">
-        <v>2169.0236267525847</v>
+        <v>1040.6202764745133</v>
       </c>
       <c r="D50">
-        <v>2168.8807082425092</v>
+        <v>1040.8007330755911</v>
       </c>
       <c r="E50">
-        <v>2170.0085916302387</v>
+        <v>1039.8234192479351</v>
       </c>
       <c r="F50">
-        <v>2169.5348129609324</v>
+        <v>1040.6203510988589</v>
       </c>
       <c r="G50">
-        <v>2169.1136721668722</v>
+        <v>1040.525148019163</v>
       </c>
       <c r="H50" t="s">
         <v>8</v>
       </c>
       <c r="I50">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J50">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K50">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L50" t="s">
         <v>13</v>
@@ -2461,34 +2458,34 @@
         <v>3.4722222222222224E-2</v>
       </c>
       <c r="B51">
-        <v>2206.4185821571004</v>
+        <v>1039.3956792252263</v>
       </c>
       <c r="C51">
-        <v>2169.0237422366827</v>
+        <v>1040.6286498253851</v>
       </c>
       <c r="D51">
-        <v>2168.8808235975243</v>
+        <v>1040.8091017530696</v>
       </c>
       <c r="E51">
-        <v>2170.0087068563407</v>
+        <v>1039.8317832529201</v>
       </c>
       <c r="F51">
-        <v>2169.5349280582318</v>
+        <v>1040.628710436579</v>
       </c>
       <c r="G51">
-        <v>2169.1137871355149</v>
+        <v>1040.5335026909045</v>
       </c>
       <c r="H51" t="s">
         <v>8</v>
       </c>
       <c r="I51">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J51">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K51">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L51" t="s">
         <v>13</v>
@@ -2502,34 +2499,34 @@
         <v>3.5416666666666666E-2</v>
       </c>
       <c r="B52">
-        <v>2206.4186584200029</v>
+        <v>1039.4024859904739</v>
       </c>
       <c r="C52">
-        <v>2169.0238184172231</v>
+        <v>1040.6354527928604</v>
       </c>
       <c r="D52">
-        <v>2168.8808996929133</v>
+        <v>1040.8159009236256</v>
       </c>
       <c r="E52">
-        <v>2170.0087828666906</v>
+        <v>1039.8385786272863</v>
       </c>
       <c r="F52">
-        <v>2169.5350039836158</v>
+        <v>1040.6355020190042</v>
       </c>
       <c r="G52">
-        <v>2169.1138629760289</v>
+        <v>1040.5402904824341</v>
       </c>
       <c r="H52" t="s">
         <v>8</v>
       </c>
       <c r="I52">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J52">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K52">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L52" t="s">
         <v>13</v>
@@ -2543,22 +2540,22 @@
         <v>3.6111111111111115E-2</v>
       </c>
       <c r="B53">
-        <v>1666.0962170286409</v>
+        <v>914.43671525917966</v>
       </c>
       <c r="C53">
-        <v>1665.0955392566932</v>
+        <v>915.39578573053984</v>
       </c>
       <c r="D53">
-        <v>1663.8479749693809</v>
+        <v>915.30266634221073</v>
       </c>
       <c r="E53">
-        <v>1663.8723244824614</v>
+        <v>914.05210772387341</v>
       </c>
       <c r="F53">
-        <v>1662.2963960911882</v>
+        <v>914.57606081762435</v>
       </c>
       <c r="G53">
-        <v>1660.774330776095</v>
+        <v>914.20820348635948</v>
       </c>
       <c r="H53" t="s">
         <v>8</v>
@@ -2584,22 +2581,22 @@
         <v>3.6805555555555557E-2</v>
       </c>
       <c r="B54">
-        <v>1329.2785132673184</v>
+        <v>831.03783257809346</v>
       </c>
       <c r="C54">
-        <v>1328.6539564439674</v>
+        <v>832.09003352426407</v>
       </c>
       <c r="D54">
-        <v>1327.7821083782537</v>
+        <v>832.08995613632987</v>
       </c>
       <c r="E54">
-        <v>1328.1816792877719</v>
+        <v>830.93235257068443</v>
       </c>
       <c r="F54">
-        <v>1326.9806494056672</v>
+        <v>831.54913083033057</v>
       </c>
       <c r="G54">
-        <v>1325.8330610855826</v>
+        <v>831.27400809528001</v>
       </c>
       <c r="H54" t="s">
         <v>8</v>
@@ -2625,22 +2622,22 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="B55">
-        <v>1107.0202367693821</v>
+        <v>776.00618845412544</v>
       </c>
       <c r="C55">
-        <v>1106.643911500501</v>
+        <v>777.11984180854313</v>
       </c>
       <c r="D55">
-        <v>1106.0200275008133</v>
+        <v>777.18115846389583</v>
       </c>
       <c r="E55">
-        <v>1106.667235834617</v>
+        <v>776.08489158452551</v>
       </c>
       <c r="F55">
-        <v>1105.7136296336748</v>
+        <v>776.76292081505937</v>
       </c>
       <c r="G55">
-        <v>1104.8131864999543</v>
+        <v>776.54898930156617</v>
       </c>
       <c r="H55" t="s">
         <v>8</v>
@@ -2666,22 +2663,22 @@
         <v>3.8194444444444441E-2</v>
       </c>
       <c r="B56">
-        <v>960.36024185372639</v>
+        <v>739.69290775544357</v>
       </c>
       <c r="C56">
-        <v>960.14771692070565</v>
+        <v>740.84711117360973</v>
       </c>
       <c r="D56">
-        <v>959.68745673371836</v>
+        <v>740.94893938070186</v>
       </c>
       <c r="E56">
-        <v>960.49807334015361</v>
+        <v>739.89314620619791</v>
       </c>
       <c r="F56">
-        <v>959.70773433917213</v>
+        <v>740.61159258079158</v>
       </c>
       <c r="G56">
-        <v>958.97037462326659</v>
+        <v>740.43803878576171</v>
       </c>
       <c r="H56" t="s">
         <v>8</v>
@@ -2707,22 +2704,22 @@
         <v>3.888888888888889E-2</v>
       </c>
       <c r="B57">
-        <v>863.58487836070833</v>
+        <v>715.73115744312986</v>
       </c>
       <c r="C57">
-        <v>863.48043911632908</v>
+        <v>716.91211830166799</v>
       </c>
       <c r="D57">
-        <v>863.12814813629132</v>
+        <v>717.04067853656625</v>
       </c>
       <c r="E57">
-        <v>864.0465917230772</v>
+        <v>716.01159241620121</v>
       </c>
       <c r="F57">
-        <v>863.36398661242458</v>
+        <v>716.75670852258395</v>
       </c>
       <c r="G57">
-        <v>862.73423951542145</v>
+        <v>716.60979844393057</v>
       </c>
       <c r="H57" t="s">
         <v>8</v>
@@ -2748,22 +2745,22 @@
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="B58">
-        <v>799.72649503433388</v>
+        <v>699.9197112685265</v>
       </c>
       <c r="C58">
-        <v>799.69337742971845</v>
+        <v>701.1183283425222</v>
       </c>
       <c r="D58">
-        <v>799.41233122757012</v>
+        <v>701.2645280240954</v>
       </c>
       <c r="E58">
-        <v>800.40192574233185</v>
+        <v>700.25306487123657</v>
       </c>
       <c r="F58">
-        <v>799.79041013301321</v>
+        <v>701.01577931752718</v>
       </c>
       <c r="G58">
-        <v>799.23167251491554</v>
+        <v>700.88645041220354</v>
       </c>
       <c r="H58" t="s">
         <v>8</v>
@@ -2789,22 +2786,22 @@
         <v>4.027777777777778E-2</v>
       </c>
       <c r="B59">
-        <v>757.58877578208921</v>
+        <v>689.4863402900088</v>
       </c>
       <c r="C59">
-        <v>757.60272061602575</v>
+        <v>690.69660802795045</v>
       </c>
       <c r="D59">
-        <v>757.36868613419892</v>
+        <v>690.85444730838935</v>
       </c>
       <c r="E59">
-        <v>758.4052304412935</v>
+        <v>689.85461288042006</v>
       </c>
       <c r="F59">
-        <v>757.84062409119815</v>
+        <v>690.6289398007865</v>
       </c>
       <c r="G59">
-        <v>757.32874292856479</v>
+        <v>690.51121204196772</v>
       </c>
       <c r="H59" t="s">
         <v>8</v>
@@ -2830,22 +2827,22 @@
         <v>4.0972222222222222E-2</v>
       </c>
       <c r="B60">
-        <v>729.78369694096261</v>
+        <v>682.60175625012539</v>
       </c>
       <c r="C60">
-        <v>729.82869648877249</v>
+        <v>683.81971181736174</v>
       </c>
       <c r="D60">
-        <v>729.62568325378697</v>
+        <v>683.98523162567062</v>
       </c>
       <c r="E60">
-        <v>730.69320794379769</v>
+        <v>682.99307055024894</v>
       </c>
       <c r="F60">
-        <v>730.15955523036052</v>
+        <v>683.77506009986973</v>
       </c>
       <c r="G60">
-        <v>729.67859286119233</v>
+        <v>683.66498749567302</v>
       </c>
       <c r="H60" t="s">
         <v>8</v>
@@ -2871,22 +2868,22 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="B61">
-        <v>711.43618257479295</v>
+        <v>678.05888151673207</v>
       </c>
       <c r="C61">
-        <v>711.50167394757443</v>
+        <v>679.28190998964521</v>
       </c>
       <c r="D61">
-        <v>711.31913045393867</v>
+        <v>679.45249788569822</v>
       </c>
       <c r="E61">
-        <v>712.40709792074858</v>
+        <v>678.46540016329948</v>
       </c>
       <c r="F61">
-        <v>711.89387033527191</v>
+        <v>679.25244599005055</v>
       </c>
       <c r="G61">
-        <v>711.43331010236568</v>
+        <v>679.14742473075853</v>
       </c>
       <c r="H61" t="s">
         <v>8</v>
@@ -2912,22 +2909,22 @@
         <v>4.2361111111111106E-2</v>
       </c>
       <c r="B62">
-        <v>699.32935542499433</v>
+        <v>675.82050885826482</v>
       </c>
       <c r="C62">
-        <v>699.40836857396664</v>
+        <v>677.16909172063004</v>
       </c>
       <c r="D62">
-        <v>736.79468529359326</v>
+        <v>677.48490174115818</v>
       </c>
       <c r="E62">
-        <v>706.37370404783678</v>
+        <v>676.66586000116456</v>
       </c>
       <c r="F62">
-        <v>706.84307435266294</v>
+        <v>677.64747089553077</v>
       </c>
       <c r="G62">
-        <v>707.5207752262362</v>
+        <v>677.76779231259593</v>
       </c>
       <c r="H62" t="s">
         <v>8</v>
@@ -2953,34 +2950,34 @@
         <v>4.3055555555555562E-2</v>
       </c>
       <c r="B63">
-        <v>1199.1764531312949</v>
+        <v>743.86890131460586</v>
       </c>
       <c r="C63">
-        <v>1200.3655345744457</v>
+        <v>745.26676027193764</v>
       </c>
       <c r="D63">
-        <v>1238.8420053047744</v>
+        <v>745.61206350504438</v>
       </c>
       <c r="E63">
-        <v>1203.5145416726984</v>
+        <v>744.79956455246122</v>
       </c>
       <c r="F63">
-        <v>1204.1210875974907</v>
+        <v>745.76112686912359</v>
       </c>
       <c r="G63">
-        <v>1204.7790544515535</v>
+        <v>745.83050884866623</v>
       </c>
       <c r="H63" t="s">
         <v>8</v>
       </c>
       <c r="I63">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J63">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K63">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L63" t="s">
         <v>13</v>
@@ -2994,34 +2991,34 @@
         <v>4.3750000000000004E-2</v>
       </c>
       <c r="B64">
-        <v>1529.2119203022783</v>
+        <v>799.30073321424584</v>
       </c>
       <c r="C64">
-        <v>1530.0321547546259</v>
+        <v>800.66766308540764</v>
       </c>
       <c r="D64">
-        <v>1568.1278121929242</v>
+        <v>800.98204420503419</v>
       </c>
       <c r="E64">
-        <v>1532.4448122518859</v>
+        <v>800.13862912021568</v>
       </c>
       <c r="F64">
-        <v>1532.6837114242169</v>
+        <v>801.06930986819191</v>
       </c>
       <c r="G64">
-        <v>1532.9744455260172</v>
+        <v>801.10781881593095</v>
       </c>
       <c r="H64" t="s">
         <v>8</v>
       </c>
       <c r="I64">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J64">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K64">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L64" t="s">
         <v>13</v>
@@ -3035,34 +3032,34 @@
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="B65">
-        <v>1746.9279351439156</v>
+        <v>844.3363290037953</v>
       </c>
       <c r="C65">
-        <v>1747.5048280335393</v>
+        <v>845.67813130650359</v>
       </c>
       <c r="D65">
-        <v>1785.3492431343723</v>
+        <v>845.96739050523411</v>
       </c>
       <c r="E65">
-        <v>1749.4316896898777</v>
+        <v>845.0988583404046</v>
       </c>
       <c r="F65">
-        <v>1749.4280396902423</v>
+        <v>846.00445011041427</v>
       </c>
       <c r="G65">
-        <v>1749.4764978823052</v>
+        <v>846.01787700098339</v>
       </c>
       <c r="H65" t="s">
         <v>8</v>
       </c>
       <c r="I65">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J65">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K65">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L65" t="s">
         <v>13</v>
@@ -3076,34 +3073,34 @@
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="B66">
-        <v>1890.547341591244</v>
+        <v>880.92564069321691</v>
       </c>
       <c r="C66">
-        <v>1890.9637091185416</v>
+        <v>882.2470282302462</v>
       </c>
       <c r="D66">
-        <v>1928.6423866322148</v>
+        <v>882.51587724748276</v>
       </c>
       <c r="E66">
-        <v>1892.5701053977587</v>
+        <v>881.62693882968802</v>
       </c>
       <c r="F66">
-        <v>1892.4064527956095</v>
+        <v>882.512147183058</v>
       </c>
       <c r="G66">
-        <v>1892.2950886596093</v>
+        <v>882.5051962761828</v>
       </c>
       <c r="H66" t="s">
         <v>8</v>
       </c>
       <c r="I66">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J66">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K66">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L66" t="s">
         <v>13</v>
@@ -3117,34 +3114,34 @@
         <v>4.5833333333333337E-2</v>
       </c>
       <c r="B67">
-        <v>1985.2877224043941</v>
+        <v>910.65277889098797</v>
       </c>
       <c r="C67">
-        <v>1985.5981972110255</v>
+        <v>911.9575804201171</v>
       </c>
       <c r="D67">
-        <v>2023.1675436734208</v>
+        <v>912.20984715289228</v>
       </c>
       <c r="E67">
-        <v>1986.9931941834802</v>
+        <v>911.30432964132035</v>
       </c>
       <c r="F67">
-        <v>1986.7239937089923</v>
+        <v>912.1729774554567</v>
       </c>
       <c r="G67">
-        <v>1986.5072006218866</v>
+        <v>912.14947057381642</v>
       </c>
       <c r="H67" t="s">
         <v>8</v>
       </c>
       <c r="I67">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J67">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K67">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L67" t="s">
         <v>13</v>
@@ -3158,34 +3155,34 @@
         <v>4.6527777777777779E-2</v>
       </c>
       <c r="B68">
-        <v>2047.7844176934318</v>
+        <v>934.80472509876347</v>
       </c>
       <c r="C68">
-        <v>2048.0250390156289</v>
+        <v>936.09605126506517</v>
       </c>
       <c r="D68">
-        <v>2085.5222638540772</v>
+        <v>936.33484565989886</v>
       </c>
       <c r="E68">
-        <v>2049.2805837379447</v>
+        <v>935.41585840241748</v>
       </c>
       <c r="F68">
-        <v>2048.9417572627867</v>
+        <v>936.27105154561229</v>
       </c>
       <c r="G68">
-        <v>2048.6554166229685</v>
+        <v>936.2340937012458</v>
       </c>
       <c r="H68" t="s">
         <v>8</v>
       </c>
       <c r="I68">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J68">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K68">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L68" t="s">
         <v>13</v>
@@ -3199,34 +3196,34 @@
         <v>4.7222222222222221E-2</v>
       </c>
       <c r="B69">
-        <v>2089.0111557670834</v>
+        <v>954.42708400643949</v>
       </c>
       <c r="C69">
-        <v>2089.2056973515205</v>
+        <v>955.70746205602018</v>
       </c>
       <c r="D69">
-        <v>2126.6553462451416</v>
+        <v>955.93531079165825</v>
       </c>
       <c r="E69">
-        <v>2090.3692506267666</v>
+        <v>955.00537998083018</v>
       </c>
       <c r="F69">
-        <v>2089.9844944764122</v>
+        <v>955.84964181846135</v>
       </c>
       <c r="G69">
-        <v>2089.6522759105892</v>
+        <v>955.80175568123821</v>
       </c>
       <c r="H69" t="s">
         <v>8</v>
       </c>
       <c r="I69">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J69">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K69">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L69" t="s">
         <v>13</v>
@@ -3240,34 +3237,34 @@
         <v>4.7916666666666663E-2</v>
       </c>
       <c r="B70">
-        <v>2116.2068966327442</v>
+        <v>970.3693596156802</v>
       </c>
       <c r="C70">
-        <v>2116.371041133476</v>
+        <v>971.64084281835528</v>
       </c>
       <c r="D70">
-        <v>2153.7893059514122</v>
+        <v>971.85979870370306</v>
       </c>
       <c r="E70">
-        <v>2117.4739110834107</v>
+        <v>970.92097675347668</v>
       </c>
       <c r="F70">
-        <v>2117.0588568400249</v>
+        <v>971.75635740249027</v>
       </c>
       <c r="G70">
-        <v>2116.6963743181823</v>
+        <v>971.69959252432488</v>
       </c>
       <c r="H70" t="s">
         <v>8</v>
       </c>
       <c r="I70">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J70">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K70">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L70" t="s">
         <v>13</v>
@@ -3281,34 +3278,34 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="B71">
-        <v>2134.1469121593468</v>
+        <v>983.32173478757966</v>
       </c>
       <c r="C71">
-        <v>2134.2910048381264</v>
+        <v>984.58599133115354</v>
       </c>
       <c r="D71">
-        <v>2171.6885667523284</v>
+        <v>984.79772217955588</v>
       </c>
       <c r="E71">
-        <v>2135.3538442625563</v>
+        <v>983.85167658240312</v>
       </c>
       <c r="F71">
-        <v>2134.9188034976728</v>
+        <v>984.67984166905023</v>
       </c>
       <c r="G71">
-        <v>2134.5363569732458</v>
+        <v>984.61586321714151</v>
       </c>
       <c r="H71" t="s">
         <v>8</v>
       </c>
       <c r="I71">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J71">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K71">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L71" t="s">
         <v>13</v>
@@ -3322,34 +3319,34 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="B72">
-        <v>2145.9812710275842</v>
+        <v>993.84495162555379</v>
       </c>
       <c r="C72">
-        <v>2146.1121362675926</v>
+        <v>995.10333683671763</v>
       </c>
       <c r="D72">
-        <v>2183.4960412486639</v>
+        <v>995.30919767063699</v>
       </c>
       <c r="E72">
-        <v>2147.1485690479576</v>
+        <v>994.35728318832753</v>
       </c>
       <c r="F72">
-        <v>2146.700343920576</v>
+        <v>995.17958595815708</v>
       </c>
       <c r="G72">
-        <v>2146.3047278885379</v>
+        <v>995.10974680509617</v>
       </c>
       <c r="H72" t="s">
         <v>8</v>
       </c>
       <c r="I72">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J72">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K72">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L72" t="s">
         <v>13</v>
@@ -3363,34 +3360,34 @@
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="B73">
-        <v>2153.7879560114707</v>
+        <v>1002.394587599873</v>
       </c>
       <c r="C73">
-        <v>2153.9100956036627</v>
+        <v>1003.6482026199963</v>
       </c>
       <c r="D73">
-        <v>2191.2849916155133</v>
+        <v>1003.8492943336313</v>
       </c>
       <c r="E73">
-        <v>2154.9291089062181</v>
+        <v>1002.8926116485641</v>
       </c>
       <c r="F73">
-        <v>2154.47218654683</v>
+        <v>1003.710151552113</v>
       </c>
       <c r="G73">
-        <v>2154.0678830819979</v>
+        <v>1003.6355508454258</v>
       </c>
       <c r="H73" t="s">
         <v>8</v>
       </c>
       <c r="I73">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J73">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K73">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L73" t="s">
         <v>13</v>
@@ -3404,34 +3401,34 @@
         <v>5.0694444444444452E-2</v>
       </c>
       <c r="B74">
-        <v>2158.9377348136995</v>
+        <v>1009.3407787160305</v>
       </c>
       <c r="C74">
-        <v>2159.0541184215954</v>
+        <v>1010.5905181724809</v>
       </c>
       <c r="D74">
-        <v>2196.4230715525923</v>
+        <v>1010.7877351923825</v>
       </c>
       <c r="E74">
-        <v>2160.0616407445937</v>
+        <v>1009.8271785590307</v>
       </c>
       <c r="F74">
-        <v>2159.5989811457584</v>
+        <v>1010.6408488499405</v>
       </c>
       <c r="G74">
-        <v>2159.1889469056573</v>
+        <v>1010.5623795970866</v>
       </c>
       <c r="H74" t="s">
         <v>8</v>
       </c>
       <c r="I74">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J74">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K74">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L74" t="s">
         <v>13</v>
@@ -3445,34 +3442,34 @@
         <v>5.1388888888888894E-2</v>
       </c>
       <c r="B75">
-        <v>2162.3348517419054</v>
+        <v>1014.984243674185</v>
       </c>
       <c r="C75">
-        <v>2162.4474383417273</v>
+        <v>1016.2308344110822</v>
       </c>
       <c r="D75">
-        <v>2199.8124711759642</v>
+        <v>1016.4249034182195</v>
       </c>
       <c r="E75">
-        <v>2163.4473804942604</v>
+        <v>1015.4611993777455</v>
       </c>
       <c r="F75">
-        <v>2162.9809362526298</v>
+        <v>1016.271725784049</v>
       </c>
       <c r="G75">
-        <v>2162.5671216339088</v>
+        <v>1016.1901135130487</v>
       </c>
       <c r="H75" t="s">
         <v>8</v>
       </c>
       <c r="I75">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J75">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K75">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L75" t="s">
         <v>13</v>
@@ -3486,34 +3483,34 @@
         <v>5.2083333333333336E-2</v>
       </c>
       <c r="B76">
-        <v>2164.575803026818</v>
+        <v>1019.5693027665789</v>
       </c>
       <c r="C76">
-        <v>2164.6858848820871</v>
+        <v>1020.8133353117775</v>
       </c>
       <c r="D76">
-        <v>2202.0483316428254</v>
+        <v>1021.004846701447</v>
       </c>
       <c r="E76">
-        <v>2165.6808266789944</v>
+        <v>1020.038585535564</v>
       </c>
       <c r="F76">
-        <v>2165.2118858497233</v>
+        <v>1020.8465576783416</v>
       </c>
       <c r="G76">
-        <v>2164.7955774562802</v>
+        <v>1020.7623918477755</v>
       </c>
       <c r="H76" t="s">
         <v>8</v>
       </c>
       <c r="I76">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J76">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K76">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L76" t="s">
         <v>13</v>
@@ -3527,34 +3524,34 @@
         <v>5.2777777777777778E-2</v>
       </c>
       <c r="B77">
-        <v>2166.0540749754987</v>
+        <v>1023.294455139591</v>
       </c>
       <c r="C77">
-        <v>2166.1625045442438</v>
+        <v>1024.5364092701634</v>
       </c>
       <c r="D77">
-        <v>2203.523245368785</v>
+        <v>1024.7258427117451</v>
       </c>
       <c r="E77">
-        <v>2167.1541477931169</v>
+        <v>1023.757503997548</v>
       </c>
       <c r="F77">
-        <v>2166.6835600581312</v>
+        <v>1024.5634009171624</v>
       </c>
       <c r="G77">
-        <v>2166.2656066145514</v>
+        <v>1024.477160435368</v>
       </c>
       <c r="H77" t="s">
         <v>8</v>
       </c>
       <c r="I77">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J77">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K77">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L77" t="s">
         <v>13</v>
@@ -3568,34 +3565,34 @@
         <v>5.347222222222222E-2</v>
       </c>
       <c r="B78">
-        <v>2167.0292358230236</v>
+        <v>1026.320972338732</v>
       </c>
       <c r="C78">
-        <v>2167.1365754399972</v>
+        <v>1027.5612378517708</v>
       </c>
       <c r="D78">
-        <v>2204.496190922082</v>
+        <v>1027.7489830548595</v>
       </c>
       <c r="E78">
-        <v>2168.1260427598072</v>
+        <v>1026.7789564269679</v>
       </c>
       <c r="F78">
-        <v>2167.6543686225714</v>
+        <v>1027.5831673219673</v>
       </c>
       <c r="G78">
-        <v>2167.2353300007962</v>
+        <v>1027.495241280229</v>
       </c>
       <c r="H78" t="s">
         <v>8</v>
       </c>
       <c r="I78">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J78">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K78">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L78" t="s">
         <v>13</v>
@@ -3609,34 +3606,34 @@
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="B79">
-        <v>2167.67251304911</v>
+        <v>1028.7798801737665</v>
       </c>
       <c r="C79">
-        <v>2167.7791336655687</v>
+        <v>1030.0187737617139</v>
       </c>
       <c r="D79">
-        <v>2205.1380068012231</v>
+        <v>1030.2051473476654</v>
       </c>
       <c r="E79">
-        <v>2168.7671656061639</v>
+        <v>1029.23374936652</v>
       </c>
       <c r="F79">
-        <v>2168.2947748098991</v>
+        <v>1030.0365904430573</v>
       </c>
       <c r="G79">
-        <v>2167.8750203365576</v>
+        <v>1029.9472949603812</v>
       </c>
       <c r="H79" t="s">
         <v>8</v>
       </c>
       <c r="I79">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J79">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K79">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L79" t="s">
         <v>13</v>
@@ -3650,34 +3647,34 @@
         <v>5.486111111111111E-2</v>
       </c>
       <c r="B80">
-        <v>2168.0968590333118</v>
+        <v>1030.7776311671853</v>
       </c>
       <c r="C80">
-        <v>2168.2030053519588</v>
+        <v>1032.0154101282749</v>
       </c>
       <c r="D80">
-        <v>2205.5613887893705</v>
+        <v>1032.2006693375668</v>
       </c>
       <c r="E80">
-        <v>2169.1900904264412</v>
+        <v>1031.2281571941562</v>
       </c>
       <c r="F80">
-        <v>2168.7172268769555</v>
+        <v>1032.0298853553759</v>
       </c>
       <c r="G80">
-        <v>2168.2970001830449</v>
+        <v>1031.9394772641037</v>
       </c>
       <c r="H80" t="s">
         <v>8</v>
       </c>
       <c r="I80">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J80">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K80">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L80" t="s">
         <v>13</v>
@@ -3691,34 +3688,34 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="B81">
-        <v>2168.3767842459665</v>
+        <v>1032.4007131610892</v>
       </c>
       <c r="C81">
-        <v>2168.4826176880429</v>
+        <v>1033.6375865384559</v>
       </c>
       <c r="D81">
-        <v>2205.8406780897967</v>
+        <v>1033.8219403672988</v>
       </c>
       <c r="E81">
-        <v>2169.4690781502813</v>
+        <v>1032.848523017625</v>
       </c>
       <c r="F81">
-        <v>2168.9959027431341</v>
+        <v>1033.64934698567</v>
       </c>
       <c r="G81">
-        <v>2168.5753645429349</v>
+        <v>1033.5580349504203</v>
       </c>
       <c r="H81" t="s">
         <v>8</v>
       </c>
       <c r="I81">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J81">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K81">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L81" t="s">
         <v>13</v>
@@ -3732,34 +3729,34 @@
         <v>5.6250000000000001E-2</v>
       </c>
       <c r="B82">
-        <v>2168.5614404642342</v>
+        <v>1033.7193936010503</v>
       </c>
       <c r="C82">
-        <v>2168.6670675133118</v>
+        <v>1034.9555312327511</v>
       </c>
       <c r="D82">
-        <v>2206.0249148204939</v>
+        <v>1035.1391494810796</v>
       </c>
       <c r="E82">
-        <v>2169.6531159421575</v>
+        <v>1034.164996692409</v>
       </c>
       <c r="F82">
-        <v>2169.1797348141477</v>
+        <v>1034.9650860445456</v>
       </c>
       <c r="G82">
-        <v>2168.7589911248715</v>
+        <v>1034.8730395958494</v>
       </c>
       <c r="H82" t="s">
         <v>8</v>
       </c>
       <c r="I82">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J82">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K82">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L82" t="s">
         <v>13</v>
@@ -3773,34 +3770,34 @@
         <v>5.6944444444444443E-2</v>
       </c>
       <c r="B83">
-        <v>2177.3154410706411</v>
+        <v>1046.3153369441452</v>
       </c>
       <c r="C83">
-        <v>2177.4399215354183</v>
+        <v>1047.650822394462</v>
       </c>
       <c r="D83">
-        <v>2214.8877036711583</v>
+        <v>1048.0051915488175</v>
       </c>
       <c r="E83">
-        <v>2178.6064867527484</v>
+        <v>1046.9160874495899</v>
       </c>
       <c r="F83">
-        <v>2177.9375876916051</v>
+        <v>1047.9583189344246</v>
       </c>
       <c r="G83">
-        <v>2177.6546720101919</v>
+        <v>1047.7274850063895</v>
       </c>
       <c r="H83" t="s">
         <v>8</v>
       </c>
       <c r="I83">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J83">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K83">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L83" t="s">
         <v>13</v>
@@ -3814,34 +3811,34 @@
         <v>5.7638888888888885E-2</v>
       </c>
       <c r="B84">
-        <v>2183.1779842420792</v>
+        <v>1056.7693130716325</v>
       </c>
       <c r="C84">
-        <v>2183.295911821298</v>
+        <v>1058.0989655626374</v>
       </c>
       <c r="D84">
-        <v>2220.7369283471653</v>
+        <v>1058.4475032039149</v>
       </c>
       <c r="E84">
-        <v>2184.4493953144415</v>
+        <v>1057.3525681941635</v>
       </c>
       <c r="F84">
-        <v>2183.7739644927096</v>
+        <v>1058.3889759448873</v>
       </c>
       <c r="G84">
-        <v>2183.4845247557896</v>
+        <v>1058.1523191926672</v>
       </c>
       <c r="H84" t="s">
         <v>8</v>
       </c>
       <c r="I84">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J84">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K84">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L84" t="s">
         <v>13</v>
@@ -3855,34 +3852,34 @@
         <v>5.8333333333333327E-2</v>
       </c>
       <c r="B85">
-        <v>2187.0452663316669</v>
+        <v>1065.2626310394749</v>
       </c>
       <c r="C85">
-        <v>2187.1588713886704</v>
+        <v>1066.5875447950914</v>
       </c>
       <c r="D85">
-        <v>2224.5954250871046</v>
+        <v>1066.9313448725504</v>
       </c>
       <c r="E85">
-        <v>2188.303725696474</v>
+        <v>1065.8316727840563</v>
       </c>
       <c r="F85">
-        <v>2187.6239862833504</v>
+        <v>1066.8633492904796</v>
       </c>
       <c r="G85">
-        <v>2187.3302430366875</v>
+        <v>1066.6219620291718</v>
       </c>
       <c r="H85" t="s">
         <v>8</v>
       </c>
       <c r="I85">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J85">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K85">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L85" t="s">
         <v>13</v>
@@ -3896,34 +3893,34 @@
         <v>5.9027777777777783E-2</v>
       </c>
       <c r="B86">
-        <v>2189.5963692248824</v>
+        <v>1072.1630570615978</v>
       </c>
       <c r="C86">
-        <v>2189.7071228821032</v>
+        <v>1073.4841208727523</v>
       </c>
       <c r="D86">
-        <v>2227.1407326277008</v>
+        <v>1073.8240719567943</v>
       </c>
       <c r="E86">
-        <v>2190.8462848518011</v>
+        <v>1072.7205512679391</v>
       </c>
       <c r="F86">
-        <v>2190.1637032283052</v>
+        <v>1073.7483839151366</v>
       </c>
       <c r="G86">
-        <v>2189.867121123385</v>
+        <v>1073.5031533909798</v>
       </c>
       <c r="H86" t="s">
         <v>8</v>
       </c>
       <c r="I86">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J86">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K86">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L86" t="s">
         <v>13</v>
@@ -3937,34 +3934,34 @@
         <v>5.9722222222222225E-2</v>
       </c>
       <c r="B87">
-        <v>2191.2792381456529</v>
+        <v>1077.7693423472531</v>
       </c>
       <c r="C87">
-        <v>2191.3881108395649</v>
+        <v>1079.087278265592</v>
       </c>
       <c r="D87">
-        <v>2228.8197785680582</v>
+        <v>1079.4241022293111</v>
       </c>
       <c r="E87">
-        <v>2192.5235177836712</v>
+        <v>1078.3174547392296</v>
       </c>
       <c r="F87">
-        <v>2191.8390612587659</v>
+        <v>1079.342164437372</v>
       </c>
       <c r="G87">
-        <v>2191.5406064637027</v>
+        <v>1079.0938114484691</v>
       </c>
       <c r="H87" t="s">
         <v>8</v>
       </c>
       <c r="I87">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J87">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K87">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L87" t="s">
         <v>13</v>
@@ -3978,34 +3975,34 @@
         <v>6.0416666666666667E-2</v>
       </c>
       <c r="B88">
-        <v>2192.3893650301488</v>
+        <v>1082.3241989224391</v>
       </c>
       <c r="C88">
-        <v>2192.4969969215986</v>
+        <v>1083.6395935706744</v>
       </c>
       <c r="D88">
-        <v>2229.9273835726872</v>
+        <v>1083.9738768918628</v>
       </c>
       <c r="E88">
-        <v>2193.6299268131365</v>
+        <v>1082.8646890184446</v>
       </c>
       <c r="F88">
-        <v>2192.9442334845844</v>
+        <v>1083.886861463018</v>
       </c>
       <c r="G88">
-        <v>2192.6445433445638</v>
+        <v>1083.6359716139725</v>
       </c>
       <c r="H88" t="s">
         <v>8</v>
       </c>
       <c r="I88">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J88">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K88">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L88" t="s">
         <v>13</v>
@@ -4019,34 +4016,34 @@
         <v>6.1111111111111116E-2</v>
       </c>
       <c r="B89">
-        <v>2193.121675008731</v>
+        <v>1086.0248171474611</v>
       </c>
       <c r="C89">
-        <v>2193.2284883883194</v>
+        <v>1087.3381471276048</v>
       </c>
       <c r="D89">
-        <v>2230.6580299596435</v>
+        <v>1087.6703662905661</v>
       </c>
       <c r="E89">
-        <v>2194.3597842591566</v>
+        <v>1086.5591144694918</v>
       </c>
       <c r="F89">
-        <v>2193.6732750566134</v>
+        <v>1087.5792255092174</v>
       </c>
       <c r="G89">
-        <v>2193.3727700048476</v>
+        <v>1087.3262745749537</v>
       </c>
       <c r="H89" t="s">
         <v>8</v>
       </c>
       <c r="I89">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J89">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K89">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L89" t="s">
         <v>13</v>
@@ -4060,34 +4057,34 @@
         <v>6.1805555555555558E-2</v>
       </c>
       <c r="B90">
-        <v>2193.6047530355427</v>
+        <v>1089.0314048652274</v>
       </c>
       <c r="C90">
-        <v>2193.7110264728849</v>
+        <v>1090.3430573945529</v>
       </c>
       <c r="D90">
-        <v>2231.1400105760918</v>
+        <v>1090.6735995209353</v>
       </c>
       <c r="E90">
-        <v>2194.8412444402129</v>
+        <v>1089.5606708343585</v>
       </c>
       <c r="F90">
-        <v>2194.1541970355297</v>
+        <v>1090.579107074502</v>
       </c>
       <c r="G90">
-        <v>2193.8531544163807</v>
+        <v>1090.3244816003389</v>
       </c>
       <c r="H90" t="s">
         <v>8</v>
       </c>
       <c r="I90">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J90">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K90">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L90" t="s">
         <v>13</v>
@@ -4101,34 +4098,34 @@
         <v>6.25E-2</v>
       </c>
       <c r="B91">
-        <v>2193.9234218872807</v>
+        <v>1091.4741236940422</v>
       </c>
       <c r="C91">
-        <v>2194.0293391445316</v>
+        <v>1092.784413369209</v>
       </c>
       <c r="D91">
-        <v>2231.4579555064729</v>
+        <v>1093.113592977983</v>
       </c>
       <c r="E91">
-        <v>2195.1588460584589</v>
+        <v>1091.9993019127892</v>
       </c>
       <c r="F91">
-        <v>2194.4714436215691</v>
+        <v>1093.0163774527859</v>
       </c>
       <c r="G91">
-        <v>2194.1700463889401</v>
+        <v>1092.7603914894553</v>
       </c>
       <c r="H91" t="s">
         <v>8</v>
       </c>
       <c r="I91">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J91">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K91">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L91" t="s">
         <v>13</v>
@@ -4142,34 +4139,34 @@
         <v>6.3194444444444442E-2</v>
       </c>
       <c r="B92">
-        <v>2194.1336360378555</v>
+        <v>1093.458724130837</v>
       </c>
       <c r="C92">
-        <v>2194.2393183361669</v>
+        <v>1094.7679065476063</v>
       </c>
       <c r="D92">
-        <v>2231.6676921126873</v>
+        <v>1095.095979171416</v>
       </c>
       <c r="E92">
-        <v>2195.3683561942521</v>
+        <v>1093.9805812341808</v>
       </c>
       <c r="F92">
-        <v>2194.6807195556403</v>
+        <v>1094.9965512658193</v>
       </c>
       <c r="G92">
-        <v>2194.3790883975084</v>
+        <v>1094.7394599655415</v>
       </c>
       <c r="H92" t="s">
         <v>8</v>
       </c>
       <c r="I92">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J92">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K92">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L92" t="s">
         <v>13</v>
@@ -4183,34 +4180,34 @@
         <v>6.3888888888888884E-2</v>
       </c>
       <c r="B93">
-        <v>1693.6733060540803</v>
+        <v>1095.0711237452783</v>
       </c>
       <c r="C93">
-        <v>1692.6704666699757</v>
+        <v>1096.3794065638335</v>
       </c>
       <c r="D93">
-        <v>1691.4921710768431</v>
+        <v>1096.7065798115809</v>
       </c>
       <c r="E93">
-        <v>1691.585797803227</v>
+        <v>1095.5902825900298</v>
       </c>
       <c r="F93">
-        <v>1689.7934245761503</v>
+        <v>1096.6053544452825</v>
       </c>
       <c r="G93">
-        <v>1688.3882532181549</v>
+        <v>1096.3473651078825</v>
       </c>
       <c r="H93" t="s">
         <v>8</v>
       </c>
       <c r="I93">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J93">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K93">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L93" t="s">
         <v>13</v>
@@ -4224,34 +4221,34 @@
         <v>6.458333333333334E-2</v>
       </c>
       <c r="B94">
-        <v>1356.1964724541181</v>
+        <v>1096.3811267409544</v>
       </c>
       <c r="C94">
-        <v>1355.5704870630013</v>
+        <v>1097.6886786759596</v>
       </c>
       <c r="D94">
-        <v>1354.7686357001346</v>
+        <v>1098.0151212206451</v>
       </c>
       <c r="E94">
-        <v>1355.2382109108667</v>
+        <v>1096.8980933705716</v>
       </c>
       <c r="F94">
-        <v>1353.8214797368787</v>
+        <v>1097.9124354974467</v>
       </c>
       <c r="G94">
-        <v>1352.7915081759738</v>
+        <v>1097.6537165448153</v>
       </c>
       <c r="H94" t="s">
         <v>8</v>
       </c>
       <c r="I94">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J94">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K94">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L94" t="s">
         <v>13</v>
@@ -4265,34 +4262,34 @@
         <v>6.5277777777777782E-2</v>
       </c>
       <c r="B95">
-        <v>1133.5028550900583</v>
+        <v>1097.4454459292344</v>
       </c>
       <c r="C95">
-        <v>1133.1255867939547</v>
+        <v>1098.7524040538519</v>
       </c>
       <c r="D95">
-        <v>1132.5721817147983</v>
+        <v>1099.0782529347894</v>
       </c>
       <c r="E95">
-        <v>1133.2898759502937</v>
+        <v>1097.960631481526</v>
       </c>
       <c r="F95">
-        <v>1132.1210608423405</v>
+        <v>1098.9743807365398</v>
       </c>
       <c r="G95">
-        <v>1131.3387132186481</v>
+        <v>1098.7150690039728</v>
       </c>
       <c r="H95" t="s">
         <v>8</v>
       </c>
       <c r="I95">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J95">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K95">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L95" t="s">
         <v>13</v>
@@ -4306,34 +4303,34 @@
         <v>6.5972222222222224E-2</v>
       </c>
       <c r="B96">
-        <v>986.55544671542623</v>
+        <v>1098.3101579476809</v>
       </c>
       <c r="C96">
-        <v>986.34229937588293</v>
+        <v>1099.6166336277613</v>
       </c>
       <c r="D96">
-        <v>985.95283653743979</v>
+        <v>1099.9420001832978</v>
       </c>
       <c r="E96">
-        <v>986.83425706569619</v>
+        <v>1098.8238964538371</v>
       </c>
       <c r="F96">
-        <v>985.82903429001112</v>
+        <v>1099.8371640268235</v>
       </c>
       <c r="G96">
-        <v>985.21008622263844</v>
+        <v>1099.5773706869161</v>
       </c>
       <c r="H96" t="s">
         <v>8</v>
       </c>
       <c r="I96">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J96">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K96">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L96" t="s">
         <v>13</v>
@@ -4347,34 +4344,34 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="B97">
-        <v>889.59033766364769</v>
+        <v>1099.0126980156344</v>
       </c>
       <c r="C97">
-        <v>889.48548768446642</v>
+        <v>1100.3187817309779</v>
       </c>
       <c r="D97">
-        <v>889.20420427772137</v>
+        <v>1100.6437564185726</v>
       </c>
       <c r="E97">
-        <v>890.19366174177583</v>
+        <v>1099.5252608611436</v>
       </c>
       <c r="F97">
-        <v>889.29638750463084</v>
+        <v>1100.5381370889004</v>
       </c>
       <c r="G97">
-        <v>888.78526076974674</v>
+        <v>1100.2779524644418</v>
       </c>
       <c r="H97" t="s">
         <v>8</v>
       </c>
       <c r="I97">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J97">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K97">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L97" t="s">
         <v>13</v>
@@ -4388,34 +4385,34 @@
         <v>6.7361111111111108E-2</v>
       </c>
       <c r="B98">
-        <v>825.60668780283834</v>
+        <v>1099.5834805843392</v>
       </c>
       <c r="C98">
-        <v>825.57329920544407</v>
+        <v>1100.8892458457622</v>
       </c>
       <c r="D98">
-        <v>825.36339936373588</v>
+        <v>1101.2139021580767</v>
       </c>
       <c r="E98">
-        <v>826.42414636512285</v>
+        <v>1100.0950882578454</v>
       </c>
       <c r="F98">
-        <v>825.59810333517851</v>
+        <v>1101.1076465350029</v>
       </c>
       <c r="G98">
-        <v>825.15812386896221</v>
+        <v>1100.847144009243</v>
       </c>
       <c r="H98" t="s">
         <v>8</v>
       </c>
       <c r="I98">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J98">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K98">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L98" t="s">
         <v>13</v>
@@ -4429,34 +4426,34 @@
         <v>6.805555555555555E-2</v>
       </c>
       <c r="B99">
-        <v>770.21113550761891</v>
+        <v>1082.4569452644591</v>
       </c>
       <c r="C99">
-        <v>770.19591229858304</v>
+        <v>1083.6099021692235</v>
       </c>
       <c r="D99">
-        <v>769.89515364944225</v>
+        <v>1083.672765828471</v>
       </c>
       <c r="E99">
-        <v>770.86500913231191</v>
+        <v>1082.7282349375882</v>
       </c>
       <c r="F99">
-        <v>770.38409557856403</v>
+        <v>1083.3700356422332</v>
       </c>
       <c r="G99">
-        <v>769.78052835790345</v>
+        <v>1083.3201995787415</v>
       </c>
       <c r="H99" t="s">
         <v>8</v>
       </c>
       <c r="I99">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J99">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K99">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L99" t="s">
         <v>13</v>
@@ -4470,34 +4467,34 @@
         <v>6.8749999999999992E-2</v>
       </c>
       <c r="B100">
-        <v>733.52317794768589</v>
+        <v>1068.2061606452551</v>
       </c>
       <c r="C100">
-        <v>733.54893063578197</v>
+        <v>1069.3670694455056</v>
       </c>
       <c r="D100">
-        <v>733.28910396641436</v>
+        <v>1069.4378832995774</v>
       </c>
       <c r="E100">
-        <v>734.29983750943381</v>
+        <v>1068.5013006867102</v>
       </c>
       <c r="F100">
-        <v>733.8597657511217</v>
+        <v>1069.1510412534069</v>
       </c>
       <c r="G100">
-        <v>733.29699548480562</v>
+        <v>1069.1091423529276</v>
       </c>
       <c r="H100" t="s">
         <v>8</v>
       </c>
       <c r="I100">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J100">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K100">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L100" t="s">
         <v>13</v>
@@ -4511,34 +4508,34 @@
         <v>6.9444444444444434E-2</v>
       </c>
       <c r="B101">
-        <v>709.31421008336645</v>
+        <v>1056.6281679913191</v>
       </c>
       <c r="C101">
-        <v>709.36700112721064</v>
+        <v>1057.7955368784083</v>
       </c>
       <c r="D101">
-        <v>709.13418383500743</v>
+        <v>1057.8728094433902</v>
       </c>
       <c r="E101">
-        <v>710.17189117511714</v>
+        <v>1056.9426839895325</v>
       </c>
       <c r="F101">
-        <v>709.75876928602304</v>
+        <v>1057.598874873775</v>
       </c>
       <c r="G101">
-        <v>709.22291930063636</v>
+        <v>1057.5634241022742</v>
       </c>
       <c r="H101" t="s">
         <v>8</v>
       </c>
       <c r="I101">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J101">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K101">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L101" t="s">
         <v>13</v>
@@ -4552,34 +4549,34 @@
         <v>7.013888888888889E-2</v>
       </c>
       <c r="B102">
-        <v>693.33964101120853</v>
+        <v>1047.221606757668</v>
       </c>
       <c r="C102">
-        <v>693.41027362575585</v>
+        <v>1048.3942240630831</v>
       </c>
       <c r="D102">
-        <v>693.19527878244105</v>
+        <v>1048.4767439298507</v>
       </c>
       <c r="E102">
-        <v>731.80633268413089</v>
+        <v>1047.5518645181817</v>
       </c>
       <c r="F102">
-        <v>699.88839099810946</v>
+        <v>1048.2132958853247</v>
       </c>
       <c r="G102">
-        <v>700.33942948775598</v>
+        <v>1048.1830838196024</v>
       </c>
       <c r="H102" t="s">
         <v>8</v>
       </c>
       <c r="I102">
-        <v>22</v>
+        <v>22.000299999999999</v>
       </c>
       <c r="J102">
-        <v>80</v>
+        <v>79.999799999999993</v>
       </c>
       <c r="K102">
-        <v>3.943E-2</v>
+        <v>7.9274999999999998E-2</v>
       </c>
       <c r="L102" t="s">
         <v>13</v>
@@ -4593,22 +4590,22 @@
         <v>7.0833333333333331E-2</v>
       </c>
       <c r="B103">
-        <v>1189.5340094083822</v>
+        <v>914.01227179326588</v>
       </c>
       <c r="C103">
-        <v>1190.7187959573107</v>
+        <v>914.91585888095233</v>
       </c>
       <c r="D103">
-        <v>1191.6166833564946</v>
+        <v>914.72968705810558</v>
       </c>
       <c r="E103">
-        <v>1231.3209399642742</v>
+        <v>913.53645256746483</v>
       </c>
       <c r="F103">
-        <v>1194.4990836277948</v>
+        <v>913.92980398390091</v>
       </c>
       <c r="G103">
-        <v>1195.0901236077045</v>
+        <v>913.63184027734746</v>
       </c>
       <c r="H103" t="s">
         <v>8</v>
@@ -4634,22 +4631,22 @@
         <v>7.1527777777777787E-2</v>
       </c>
       <c r="B104">
-        <v>1518.2616417240902</v>
+        <v>825.16391491773265</v>
       </c>
       <c r="C104">
-        <v>1519.0790425183941</v>
+        <v>826.16671844579423</v>
       </c>
       <c r="D104">
-        <v>1519.6099379635389</v>
+        <v>826.07966939336075</v>
       </c>
       <c r="E104">
-        <v>1558.935385500188</v>
+        <v>824.98546269078133</v>
       </c>
       <c r="F104">
-        <v>1521.7597101391261</v>
+        <v>825.47770645896492</v>
       </c>
       <c r="G104">
-        <v>1521.9849685595004</v>
+        <v>825.27853548299856</v>
       </c>
       <c r="H104" t="s">
         <v>8</v>
@@ -4675,22 +4672,22 @@
         <v>7.2222222222222229E-2</v>
       </c>
       <c r="B105">
-        <v>1735.1148292751886</v>
+        <v>766.53640102460429</v>
       </c>
       <c r="C105">
-        <v>1735.6898526046182</v>
+        <v>767.60467285587856</v>
       </c>
       <c r="D105">
-        <v>1735.9786305914679</v>
+        <v>767.58303031300375</v>
       </c>
       <c r="E105">
-        <v>1775.0541580201477</v>
+        <v>766.55416745933792</v>
       </c>
       <c r="F105">
-        <v>1737.6450626093574</v>
+        <v>767.1116657010557</v>
       </c>
       <c r="G105">
-        <v>1737.6290026018676</v>
+        <v>766.97768347441615</v>
       </c>
       <c r="H105" t="s">
         <v>8</v>
@@ -4716,22 +4713,22 @@
         <v>7.2916666666666671E-2</v>
       </c>
       <c r="B106">
-        <v>1878.1650013221363</v>
+        <v>727.85036599390821</v>
       </c>
       <c r="C106">
-        <v>1878.5801353365916</v>
+        <v>728.96183780103377</v>
       </c>
       <c r="D106">
-        <v>1878.7091955424917</v>
+        <v>728.98335445953933</v>
       </c>
       <c r="E106">
-        <v>1917.619857681324</v>
+        <v>727.99760946063589</v>
       </c>
       <c r="F106">
-        <v>1880.0567822726762</v>
+        <v>728.59816658135594</v>
       </c>
       <c r="G106">
-        <v>1879.881531620483</v>
+        <v>728.50719986543527</v>
       </c>
       <c r="H106" t="s">
         <v>8</v>
@@ -4757,22 +4754,22 @@
         <v>7.3611111111111113E-2</v>
       </c>
       <c r="B107">
-        <v>1987.8651435566676</v>
+        <v>711.9252418300764</v>
       </c>
       <c r="C107">
-        <v>1988.0657259087586</v>
+        <v>713.30055351089595</v>
       </c>
       <c r="D107">
-        <v>1988.1231758083125</v>
+        <v>713.22877378119347</v>
       </c>
       <c r="E107">
-        <v>2027.3153772500164</v>
+        <v>712.29251346205979</v>
       </c>
       <c r="F107">
-        <v>1989.6849883136113</v>
+        <v>712.87107881394843</v>
       </c>
       <c r="G107">
-        <v>1989.3193052247148</v>
+        <v>712.75806707495985</v>
       </c>
       <c r="H107" t="s">
         <v>8</v>
@@ -4798,22 +4795,22 @@
         <v>7.4305555555555555E-2</v>
       </c>
       <c r="B108">
-        <v>2060.402361806161</v>
+        <v>701.50081535790991</v>
       </c>
       <c r="C108">
-        <v>2060.5218662417005</v>
+        <v>702.88776731476378</v>
       </c>
       <c r="D108">
-        <v>2060.4983270467965</v>
+        <v>702.82761753443776</v>
       </c>
       <c r="E108">
-        <v>2099.6069336929286</v>
+        <v>701.90297576111595</v>
       </c>
       <c r="F108">
-        <v>2061.8984652112617</v>
+        <v>702.49314389678966</v>
       </c>
       <c r="G108">
-        <v>2061.4520587934621</v>
+        <v>702.39172325588891</v>
       </c>
       <c r="H108" t="s">
         <v>8</v>
@@ -4839,22 +4836,22 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="B109">
-        <v>2108.2524828153805</v>
+        <v>694.62212504855131</v>
       </c>
       <c r="C109">
-        <v>2108.3185033867444</v>
+        <v>696.01675802838133</v>
       </c>
       <c r="D109">
-        <v>2108.2415389180678</v>
+        <v>695.96428245552556</v>
       </c>
       <c r="E109">
-        <v>2147.2950014438475</v>
+        <v>695.04730736397653</v>
       </c>
       <c r="F109">
-        <v>2109.5350269672176</v>
+        <v>695.64513178132245</v>
       </c>
       <c r="G109">
-        <v>2109.0353705847101</v>
+        <v>695.55135971034406</v>
       </c>
       <c r="H109" t="s">
         <v>8</v>
@@ -4880,22 +4877,22 @@
         <v>7.5694444444444439E-2</v>
       </c>
       <c r="B110">
-        <v>2139.817460557404</v>
+        <v>690.08313721752927</v>
       </c>
       <c r="C110">
-        <v>2139.8481997899007</v>
+        <v>691.48283861624577</v>
       </c>
       <c r="D110">
-        <v>2139.7359926321787</v>
+        <v>691.43542696491011</v>
       </c>
       <c r="E110">
-        <v>2178.7530786106363</v>
+        <v>690.52351082890937</v>
       </c>
       <c r="F110">
-        <v>2140.9591275207681</v>
+        <v>691.12638733920642</v>
       </c>
       <c r="G110">
-        <v>2140.424344093828</v>
+        <v>691.03766227244557</v>
       </c>
       <c r="H110" t="s">
         <v>8</v>
@@ -4921,22 +4918,22 @@
         <v>7.6388888888888895E-2</v>
       </c>
       <c r="B111">
-        <v>2160.6397251222197</v>
+        <v>687.08803082800455</v>
       </c>
       <c r="C111">
-        <v>2160.6471905430162</v>
+        <v>688.49107668474721</v>
       </c>
       <c r="D111">
-        <v>2160.5117350694641</v>
+        <v>688.44700652379254</v>
       </c>
       <c r="E111">
-        <v>2199.5048247672516</v>
+        <v>687.53842860131283</v>
       </c>
       <c r="F111">
-        <v>2161.6884605454584</v>
+        <v>688.14463879676521</v>
       </c>
       <c r="G111">
-        <v>2161.1305050891997</v>
+        <v>688.05924405729343</v>
       </c>
       <c r="H111" t="s">
         <v>8</v>
@@ -4962,22 +4959,22 @@
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="B112">
-        <v>2174.3754136855578</v>
+        <v>686.35892411678117</v>
       </c>
       <c r="C112">
-        <v>2174.3675262215925</v>
+        <v>687.96517035843362</v>
       </c>
       <c r="D112">
-        <v>2174.2167346819747</v>
+        <v>688.15669044830349</v>
       </c>
       <c r="E112">
-        <v>2213.193994908575</v>
+        <v>687.52131253364132</v>
       </c>
       <c r="F112">
-        <v>2175.3628455610715</v>
+        <v>688.44439434135654</v>
       </c>
       <c r="G112">
-        <v>2174.7896043621763</v>
+        <v>688.72658129305364</v>
       </c>
       <c r="H112" t="s">
         <v>8</v>
@@ -5003,34 +5000,34 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="B113">
-        <v>2183.4363465058282</v>
+        <v>807.50723191437964</v>
       </c>
       <c r="C113">
-        <v>2183.4183313036897</v>
+        <v>809.22985760304903</v>
       </c>
       <c r="D113">
-        <v>2183.2574231205795</v>
+        <v>809.50525959070535</v>
       </c>
       <c r="E113">
-        <v>2222.2242412223227</v>
+        <v>808.91605808120767</v>
       </c>
       <c r="F113">
-        <v>2184.3833386665879</v>
+        <v>809.84159998679684</v>
       </c>
       <c r="G113">
-        <v>2183.8000140207309</v>
+        <v>810.07544515987547</v>
       </c>
       <c r="H113" t="s">
         <v>8</v>
       </c>
       <c r="I113">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J113">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K113">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L113" t="s">
         <v>13</v>
@@ -5044,34 +5041,34 @@
         <v>7.8472222222222221E-2</v>
       </c>
       <c r="B114">
-        <v>2189.4135134456365</v>
+        <v>919.27432453826498</v>
       </c>
       <c r="C114">
-        <v>2189.3888173439718</v>
+        <v>920.97203150045243</v>
       </c>
       <c r="D114">
-        <v>2189.2212355800921</v>
+        <v>921.22249184111172</v>
       </c>
       <c r="E114">
-        <v>2228.1811653928789</v>
+        <v>920.60833726189048</v>
       </c>
       <c r="F114">
-        <v>2190.333829001363</v>
+        <v>921.50896145648289</v>
       </c>
       <c r="G114">
-        <v>2189.7438526732763</v>
+        <v>921.71788087888319</v>
       </c>
       <c r="H114" t="s">
         <v>8</v>
       </c>
       <c r="I114">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J114">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K114">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L114" t="s">
         <v>13</v>
@@ -5085,34 +5082,34 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="B115">
-        <v>2193.3564324954814</v>
+        <v>1022.1352477313058</v>
       </c>
       <c r="C115">
-        <v>2193.3273292480453</v>
+        <v>1023.8100221226258</v>
       </c>
       <c r="D115">
-        <v>2193.1553451663085</v>
+        <v>1024.0375287704194</v>
       </c>
       <c r="E115">
-        <v>2232.1107310260795</v>
+        <v>1023.4004099693318</v>
       </c>
       <c r="F115">
-        <v>2194.2591504677316</v>
+        <v>1024.278102512639</v>
       </c>
       <c r="G115">
-        <v>2193.6647862674586</v>
+        <v>1024.4640828715333</v>
       </c>
       <c r="H115" t="s">
         <v>8</v>
       </c>
       <c r="I115">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J115">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K115">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L115" t="s">
         <v>13</v>
@@ -5126,34 +5123,34 @@
         <v>7.9861111111111105E-2</v>
       </c>
       <c r="B116">
-        <v>2195.9574323989805</v>
+        <v>1116.7998652513197</v>
       </c>
       <c r="C116">
-        <v>2195.9254219182008</v>
+        <v>1118.4535349041305</v>
       </c>
       <c r="D116">
-        <v>2195.7505337879224</v>
+        <v>1118.659917358483</v>
       </c>
       <c r="E116">
-        <v>2234.7029221676016</v>
+        <v>1118.0016646643101</v>
       </c>
       <c r="F116">
-        <v>2196.8485418871746</v>
+        <v>1118.8582533058063</v>
       </c>
       <c r="G116">
-        <v>2196.2512831676404</v>
+        <v>1119.0231229335227</v>
       </c>
       <c r="H116" t="s">
         <v>8</v>
       </c>
       <c r="I116">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J116">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K116">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L116" t="s">
         <v>13</v>
@@ -5167,34 +5164,34 @@
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="B117">
-        <v>2197.6732171798703</v>
+        <v>1203.9214375709953</v>
       </c>
       <c r="C117">
-        <v>2197.6392889032791</v>
+        <v>1205.5556845265805</v>
       </c>
       <c r="D117">
-        <v>2197.4624850780838</v>
+        <v>1205.7426263698226</v>
       </c>
       <c r="E117">
-        <v>2236.4128961294609</v>
+        <v>1205.0649241321894</v>
       </c>
       <c r="F117">
-        <v>2198.5566689744824</v>
+        <v>1205.9020908404839</v>
       </c>
       <c r="G117">
-        <v>2197.9575008461502</v>
+        <v>1206.0475322452517</v>
       </c>
       <c r="H117" t="s">
         <v>8</v>
       </c>
       <c r="I117">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J117">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K117">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L117" t="s">
         <v>13</v>
@@ -5208,34 +5205,34 @@
         <v>8.1250000000000003E-2</v>
       </c>
       <c r="B118">
-        <v>2198.8050578271414</v>
+        <v>1284.1011198741915</v>
       </c>
       <c r="C118">
-        <v>2198.7698644505922</v>
+        <v>1285.7174920083037</v>
       </c>
       <c r="D118">
-        <v>2198.5917969113239</v>
+        <v>1285.8865425383508</v>
       </c>
       <c r="E118">
-        <v>2237.5409035913312</v>
+        <v>1285.1909407636729</v>
       </c>
       <c r="F118">
-        <v>2199.683458120563</v>
+        <v>1286.0102333499572</v>
       </c>
       <c r="G118">
-        <v>2199.0830304248816</v>
+        <v>1286.1377948414854</v>
       </c>
       <c r="H118" t="s">
         <v>8</v>
       </c>
       <c r="I118">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J118">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K118">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L118" t="s">
         <v>13</v>
@@ -5249,34 +5246,34 @@
         <v>8.1944444444444445E-2</v>
       </c>
       <c r="B119">
-        <v>2199.5516918252365</v>
+        <v>1357.8921220439731</v>
       </c>
       <c r="C119">
-        <v>2199.5156639083816</v>
+        <v>1359.4920437904925</v>
       </c>
       <c r="D119">
-        <v>2199.3367627430262</v>
+        <v>1359.6446287523054</v>
       </c>
       <c r="E119">
-        <v>2238.2850089768094</v>
+        <v>1358.9325538389512</v>
       </c>
       <c r="F119">
-        <v>2200.426759827546</v>
+        <v>1359.7353966791509</v>
       </c>
       <c r="G119">
-        <v>2199.8255012412196</v>
+        <v>1359.8465030932653</v>
       </c>
       <c r="H119" t="s">
         <v>8</v>
       </c>
       <c r="I119">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J119">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K119">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L119" t="s">
         <v>13</v>
@@ -5290,34 +5287,34 @@
         <v>8.2638888888888887E-2</v>
       </c>
       <c r="B120">
-        <v>2200.0442190448989</v>
+        <v>1425.8035412538561</v>
       </c>
       <c r="C120">
-        <v>2200.0076406122394</v>
+        <v>1427.3883234738114</v>
       </c>
       <c r="D120">
-        <v>2199.8281895341547</v>
+        <v>1427.5257549363007</v>
       </c>
       <c r="E120">
-        <v>2238.7758681629434</v>
+        <v>1426.7985195553185</v>
       </c>
       <c r="F120">
-        <v>2200.9170888562858</v>
+        <v>1427.5862234580147</v>
       </c>
       <c r="G120">
-        <v>2200.3152821617023</v>
+        <v>1427.6821860272059</v>
       </c>
       <c r="H120" t="s">
         <v>8</v>
       </c>
       <c r="I120">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J120">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K120">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L120" t="s">
         <v>13</v>
@@ -5331,34 +5328,34 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="B121">
-        <v>2200.3691212898138</v>
+        <v>1488.3038876893459</v>
       </c>
       <c r="C121">
-        <v>2200.3321797019539</v>
+        <v>1489.8747367463502</v>
       </c>
       <c r="D121">
-        <v>2200.1523658664983</v>
+        <v>1489.9982221854953</v>
       </c>
       <c r="E121">
-        <v>2239.0996700669716</v>
+        <v>1489.2570343674752</v>
       </c>
       <c r="F121">
-        <v>2201.2405410348156</v>
+        <v>1490.0308056485587</v>
       </c>
       <c r="G121">
-        <v>2200.6383727732027</v>
+        <v>1490.1128310792203</v>
       </c>
       <c r="H121" t="s">
         <v>8</v>
       </c>
       <c r="I121">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J121">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K121">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L121" t="s">
         <v>13</v>
@@ -5372,34 +5369,34 @@
         <v>8.4027777777777771E-2</v>
       </c>
       <c r="B122">
-        <v>2200.5834474519752</v>
+        <v>1545.8243265746762</v>
       </c>
       <c r="C122">
-        <v>2200.5462663038743</v>
+        <v>1547.3823526795527</v>
       </c>
       <c r="D122">
-        <v>2200.3662131706087</v>
+        <v>1547.4930033303269</v>
       </c>
       <c r="E122">
-        <v>2239.3132703743781</v>
+        <v>1546.7389748209221</v>
       </c>
       <c r="F122">
-        <v>2201.4539106410639</v>
+        <v>1547.4999236476222</v>
       </c>
       <c r="G122">
-        <v>2200.8515038668688</v>
+        <v>1547.5691224665884</v>
       </c>
       <c r="H122" t="s">
         <v>8</v>
       </c>
       <c r="I122">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J122">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K122">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L122" t="s">
         <v>13</v>
@@ -5413,34 +5410,34 @@
         <v>8.4722222222222213E-2</v>
       </c>
       <c r="B123">
-        <v>2181.355310258019</v>
+        <v>1587.2521684871442</v>
       </c>
       <c r="C123">
-        <v>2181.5535040905643</v>
+        <v>1588.4714732605521</v>
       </c>
       <c r="D123">
-        <v>2181.2704941937823</v>
+        <v>1588.7584334681985</v>
       </c>
       <c r="E123">
-        <v>2219.6604410803884</v>
+        <v>1587.9325998757349</v>
       </c>
       <c r="F123">
-        <v>2181.7576398253891</v>
+        <v>1588.760860189773</v>
       </c>
       <c r="G123">
-        <v>2181.259209617449</v>
+        <v>1588.9926118609974</v>
       </c>
       <c r="H123" t="s">
         <v>8</v>
       </c>
       <c r="I123">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J123">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K123">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L123" t="s">
         <v>13</v>
@@ -5454,34 +5451,34 @@
         <v>8.5416666666666655E-2</v>
       </c>
       <c r="B124">
-        <v>2168.4495235794334</v>
+        <v>1625.2869890826248</v>
       </c>
       <c r="C124">
-        <v>2168.6621426868337</v>
+        <v>1626.4978136830659</v>
       </c>
       <c r="D124">
-        <v>2168.3935430294678</v>
+        <v>1626.7762893414156</v>
       </c>
       <c r="E124">
-        <v>2206.7983648580553</v>
+        <v>1625.9419656225882</v>
       </c>
       <c r="F124">
-        <v>2168.9094559534278</v>
+        <v>1626.7617488098681</v>
       </c>
       <c r="G124">
-        <v>2168.4253882094831</v>
+        <v>1626.9850212376214</v>
       </c>
       <c r="H124" t="s">
         <v>8</v>
       </c>
       <c r="I124">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J124">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K124">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L124" t="s">
         <v>13</v>
@@ -5495,34 +5492,34 @@
         <v>8.6111111111111124E-2</v>
       </c>
       <c r="B125">
-        <v>2159.936115575023</v>
+        <v>1660.2915059614677</v>
       </c>
       <c r="C125">
-        <v>2160.1582500941026</v>
+        <v>1661.4945257046083</v>
       </c>
       <c r="D125">
-        <v>2159.8991559338306</v>
+        <v>1661.7651924803297</v>
       </c>
       <c r="E125">
-        <v>2198.3137897573124</v>
+        <v>1660.9230547488119</v>
       </c>
       <c r="F125">
-        <v>2160.4340447751533</v>
+        <v>1661.735035884637</v>
       </c>
       <c r="G125">
-        <v>2159.9594510220654</v>
+        <v>1661.9505043145393</v>
       </c>
       <c r="H125" t="s">
         <v>8</v>
       </c>
       <c r="I125">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J125">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K125">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L125" t="s">
         <v>13</v>
@@ -5536,34 +5533,34 @@
         <v>8.6805555555555566E-2</v>
       </c>
       <c r="B126">
-        <v>2154.3201455715962</v>
+        <v>1692.5070629223242</v>
       </c>
       <c r="C126">
-        <v>2154.5485570260139</v>
+        <v>1693.7028994715054</v>
       </c>
       <c r="D126">
-        <v>2154.2957332610026</v>
+        <v>1693.9663793499726</v>
       </c>
       <c r="E126">
-        <v>2192.7168396620905</v>
+        <v>1693.1170500013757</v>
       </c>
       <c r="F126">
-        <v>2154.8431397544405</v>
+        <v>1693.92185052688</v>
       </c>
       <c r="G126">
-        <v>2154.3747956136481</v>
+        <v>1694.130136556091</v>
       </c>
       <c r="H126" t="s">
         <v>8</v>
       </c>
       <c r="I126">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J126">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K126">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L126" t="s">
         <v>13</v>
@@ -5577,34 +5574,34 @@
         <v>8.7500000000000008E-2</v>
       </c>
       <c r="B127">
-        <v>2150.6155030755103</v>
+        <v>1722.1558184721753</v>
       </c>
       <c r="C127">
-        <v>2150.8480551852167</v>
+        <v>1723.3450440484878</v>
       </c>
       <c r="D127">
-        <v>2150.5993677612651</v>
+        <v>1723.6019095465965</v>
       </c>
       <c r="E127">
-        <v>2189.0247438753004</v>
+        <v>1722.7459614747229</v>
       </c>
       <c r="F127">
-        <v>2151.1550316733119</v>
+        <v>1723.5441534059169</v>
       </c>
       <c r="G127">
-        <v>2150.6908101638692</v>
+        <v>1723.7458291936348</v>
       </c>
       <c r="H127" t="s">
         <v>8</v>
       </c>
       <c r="I127">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J127">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K127">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L127" t="s">
         <v>13</v>
@@ -5618,34 +5615,34 @@
         <v>8.819444444444445E-2</v>
       </c>
       <c r="B128">
-        <v>2148.1716907843679</v>
+        <v>1749.4422558532613</v>
       </c>
       <c r="C128">
-        <v>2148.4069743274308</v>
+        <v>1750.625397136906</v>
       </c>
       <c r="D128">
-        <v>2148.1610154909031</v>
+        <v>1750.8761752067762</v>
       </c>
       <c r="E128">
-        <v>2186.5892081727375</v>
+        <v>1750.0141357102507</v>
       </c>
       <c r="F128">
-        <v>2148.722126509042</v>
+        <v>1750.8062455382624</v>
       </c>
       <c r="G128">
-        <v>2148.2606245432498</v>
+        <v>1751.0018377071628</v>
       </c>
       <c r="H128" t="s">
         <v>8</v>
       </c>
       <c r="I128">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J128">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K128">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L128" t="s">
         <v>13</v>
@@ -5659,34 +5656,34 @@
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="B129">
-        <v>2146.5596004036265</v>
+        <v>1774.5545804611083</v>
       </c>
       <c r="C129">
-        <v>2146.7966857697888</v>
+        <v>1775.7321221977579</v>
       </c>
       <c r="D129">
-        <v>2146.5525268790047</v>
+        <v>1775.9772978351318</v>
       </c>
       <c r="E129">
-        <v>2184.9825775439031</v>
+        <v>1775.1096522283899</v>
       </c>
       <c r="F129">
-        <v>2147.1172311466553</v>
+        <v>1775.8961645246943</v>
       </c>
       <c r="G129">
-        <v>2146.6575231607731</v>
+        <v>1776.0861577671842</v>
       </c>
       <c r="H129" t="s">
         <v>8</v>
       </c>
       <c r="I129">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J129">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K129">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L129" t="s">
         <v>13</v>
@@ -5700,34 +5697,34 @@
         <v>8.9583333333333334E-2</v>
       </c>
       <c r="B130">
-        <v>2145.4961654558178</v>
+        <v>1797.6660104735959</v>
       </c>
       <c r="C130">
-        <v>2145.7344394164129</v>
+        <v>1798.8383988027344</v>
       </c>
       <c r="D130">
-        <v>2145.4914678816426</v>
+        <v>1799.078418377138</v>
       </c>
       <c r="E130">
-        <v>2183.9227441875746</v>
+        <v>1798.2056133228893</v>
       </c>
       <c r="F130">
-        <v>2146.0585424798592</v>
+        <v>1798.9869740665404</v>
       </c>
       <c r="G130">
-        <v>2145.6000179145544</v>
+        <v>1799.1718144728966</v>
       </c>
       <c r="H130" t="s">
         <v>8</v>
       </c>
       <c r="I130">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J130">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K130">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L130" t="s">
         <v>13</v>
@@ -5741,34 +5738,34 @@
         <v>9.0277777777777776E-2</v>
       </c>
       <c r="B131">
-        <v>2144.7946577104876</v>
+        <v>1818.9359673176266</v>
       </c>
       <c r="C131">
-        <v>2145.0337157417985</v>
+        <v>1820.1036128411411</v>
       </c>
       <c r="D131">
-        <v>2144.7915274608054</v>
+        <v>1820.3388871661193</v>
       </c>
       <c r="E131">
-        <v>2183.2236122756931</v>
+        <v>1819.4613337476678</v>
       </c>
       <c r="F131">
-        <v>2145.3601656762935</v>
+        <v>1820.2379533928436</v>
       </c>
       <c r="G131">
-        <v>2144.9024217687102</v>
+        <v>1820.4180515195662</v>
       </c>
       <c r="H131" t="s">
         <v>8</v>
       </c>
       <c r="I131">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J131">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K131">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L131" t="s">
         <v>13</v>
@@ -5782,34 +5779,34 @@
         <v>9.0972222222222218E-2</v>
       </c>
       <c r="B132">
-        <v>2144.3318996285097</v>
+        <v>1838.5111728404888</v>
       </c>
       <c r="C132">
-        <v>2144.5714748815672</v>
+        <v>1839.6744534499392</v>
       </c>
       <c r="D132">
-        <v>2144.3298032834164</v>
+        <v>1839.9053606118111</v>
       </c>
       <c r="E132">
-        <v>2182.7624214410303</v>
+        <v>1839.0234371637025</v>
       </c>
       <c r="F132">
-        <v>2144.899472957979</v>
+        <v>1839.7956934659881</v>
       </c>
       <c r="G132">
-        <v>2144.4422440207163</v>
+        <v>1839.9714271628036</v>
       </c>
       <c r="H132" t="s">
         <v>8</v>
       </c>
       <c r="I132">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J132">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K132">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L132" t="s">
         <v>13</v>
@@ -5823,34 +5820,34 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="B133">
-        <v>2144.0266356540774</v>
+        <v>1856.526659965273</v>
       </c>
       <c r="C133">
-        <v>2144.2665520987234</v>
+        <v>1857.6859234457208</v>
       </c>
       <c r="D133">
-        <v>2144.0252213366689</v>
+        <v>1857.9128114087703</v>
       </c>
       <c r="E133">
-        <v>2182.4581913202728</v>
+        <v>1857.0268661237178</v>
       </c>
       <c r="F133">
-        <v>2144.5955714257043</v>
+        <v>1857.7951067430104</v>
       </c>
       <c r="G133">
-        <v>2144.1386821948527</v>
+        <v>1857.9668237564472</v>
       </c>
       <c r="H133" t="s">
         <v>8</v>
       </c>
       <c r="I133">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J133">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K133">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L133" t="s">
         <v>13</v>
@@ -5864,34 +5861,34 @@
         <v>9.2361111111111116E-2</v>
       </c>
       <c r="B134">
-        <v>2143.8252645755019</v>
+        <v>1873.1067033418958</v>
       </c>
       <c r="C134">
-        <v>2144.0654060913143</v>
+        <v>1874.2622697693205</v>
       </c>
       <c r="D134">
-        <v>2143.8243001659189</v>
+        <v>1874.4854587744605</v>
       </c>
       <c r="E134">
-        <v>2182.2575022357992</v>
+        <v>1873.5958121035931</v>
       </c>
       <c r="F134">
-        <v>2144.3950990986036</v>
+        <v>1874.360357000673</v>
       </c>
       <c r="G134">
-        <v>2143.9384339592007</v>
+        <v>1874.5283773712288</v>
       </c>
       <c r="H134" t="s">
         <v>8</v>
       </c>
       <c r="I134">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J134">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K134">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L134" t="s">
         <v>13</v>
@@ -5905,34 +5902,34 @@
         <v>9.3055555555555558E-2</v>
       </c>
       <c r="B135">
-        <v>2143.6924277041985</v>
+        <v>1888.3656761464454</v>
       </c>
       <c r="C135">
-        <v>2143.9327176909314</v>
+        <v>1889.5178400947511</v>
       </c>
       <c r="D135">
-        <v>2143.6917600817615</v>
+        <v>1889.7376248676721</v>
       </c>
       <c r="E135">
-        <v>2182.1251152501659</v>
+        <v>1888.8445717301402</v>
       </c>
       <c r="F135">
-        <v>2144.2628550995969</v>
+        <v>1889.605715372883</v>
       </c>
       <c r="G135">
-        <v>2143.8063377848325</v>
+        <v>1889.7703336417969</v>
       </c>
       <c r="H135" t="s">
         <v>8</v>
       </c>
       <c r="I135">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J135">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K135">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L135" t="s">
         <v>13</v>
@@ -5946,34 +5943,34 @@
         <v>9.375E-2</v>
       </c>
       <c r="B136">
-        <v>2143.6048002529074</v>
+        <v>1902.4088387849997</v>
       </c>
       <c r="C136">
-        <v>2143.8451881802821</v>
+        <v>1903.5578713575183</v>
       </c>
       <c r="D136">
-        <v>2143.6043284097077</v>
+        <v>1903.77452314124</v>
       </c>
       <c r="E136">
-        <v>2182.037784571407</v>
+        <v>1902.878334958104</v>
       </c>
       <c r="F136">
-        <v>2144.175618743699</v>
+        <v>1903.6363483522589</v>
       </c>
       <c r="G136">
-        <v>2143.7191989432486</v>
+        <v>1903.7978355927933</v>
       </c>
       <c r="H136" t="s">
         <v>8</v>
       </c>
       <c r="I136">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J136">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K136">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L136" t="s">
         <v>13</v>
@@ -5987,34 +5984,34 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="B137">
-        <v>2143.5469957431847</v>
+        <v>1915.3330648537042</v>
       </c>
       <c r="C137">
-        <v>2143.7874482782895</v>
+        <v>1916.4792155530288</v>
       </c>
       <c r="D137">
-        <v>2143.546653048129</v>
+        <v>1916.6929839787019</v>
       </c>
       <c r="E137">
-        <v>2181.9801758312797</v>
+        <v>1915.7939105449664</v>
       </c>
       <c r="F137">
-        <v>2144.1180722247891</v>
+        <v>1916.5490431033159</v>
       </c>
       <c r="G137">
-        <v>2143.6617167508371</v>
+        <v>1916.707648790388</v>
       </c>
       <c r="H137" t="s">
         <v>8</v>
       </c>
       <c r="I137">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J137">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K137">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L137" t="s">
         <v>13</v>
@@ -6028,34 +6025,34 @@
         <v>9.5138888888888884E-2</v>
       </c>
       <c r="B138">
-        <v>2143.5088642981286</v>
+        <v>1927.2275093119983</v>
       </c>
       <c r="C138">
-        <v>2143.7493594525063</v>
+        <v>1928.3710077609483</v>
       </c>
       <c r="D138">
-        <v>2143.5086067972115</v>
+        <v>1928.582122569703</v>
       </c>
       <c r="E138">
-        <v>2181.9421735280098</v>
+        <v>1927.6803937772963</v>
       </c>
       <c r="F138">
-        <v>2144.0801109664985</v>
+        <v>1928.4328750400023</v>
       </c>
       <c r="G138">
-        <v>2143.6237979263005</v>
+        <v>1928.5888287709583</v>
       </c>
       <c r="H138" t="s">
         <v>8</v>
       </c>
       <c r="I138">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J138">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K138">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L138" t="s">
         <v>13</v>
@@ -6069,34 +6066,34 @@
         <v>9.5833333333333326E-2</v>
       </c>
       <c r="B139">
-        <v>2148.356411605871</v>
+        <v>1944.768393007824</v>
       </c>
       <c r="C139">
-        <v>2148.6376664779791</v>
+        <v>1945.9568153707644</v>
       </c>
       <c r="D139">
-        <v>2148.4075831191935</v>
+        <v>1946.2128478920338</v>
       </c>
       <c r="E139">
-        <v>2186.791469758552</v>
+        <v>1945.2657997397598</v>
       </c>
       <c r="F139">
-        <v>2148.9703134356591</v>
+        <v>1946.0932705338523</v>
       </c>
       <c r="G139">
-        <v>2148.4895427752117</v>
+        <v>1946.2740806834972</v>
       </c>
       <c r="H139" t="s">
         <v>8</v>
       </c>
       <c r="I139">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J139">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K139">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L139" t="s">
         <v>13</v>
@@ -6110,34 +6107,34 @@
         <v>9.6527777777777768E-2</v>
       </c>
       <c r="B140">
-        <v>2151.5837286400524</v>
+        <v>1961.0144213765891</v>
       </c>
       <c r="C140">
-        <v>2151.861376241724</v>
+        <v>1962.1992206162363</v>
       </c>
       <c r="D140">
-        <v>2151.6276893551776</v>
+        <v>1962.4516281514809</v>
       </c>
       <c r="E140">
-        <v>2190.0078562252415</v>
+        <v>1961.5009523803171</v>
       </c>
       <c r="F140">
-        <v>2152.1832258994373</v>
+        <v>1962.3248014456933</v>
       </c>
       <c r="G140">
-        <v>2151.6988636385404</v>
+        <v>1962.501988823786</v>
       </c>
       <c r="H140" t="s">
         <v>8</v>
       </c>
       <c r="I140">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J140">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K140">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L140" t="s">
         <v>13</v>
@@ -6151,34 +6148,34 @@
         <v>9.7222222222222224E-2</v>
       </c>
       <c r="B141">
-        <v>2153.7126558104351</v>
+        <v>1975.9658233329706</v>
       </c>
       <c r="C141">
-        <v>2153.9879239304801</v>
+        <v>1977.1472884062619</v>
       </c>
       <c r="D141">
-        <v>2153.7518600302642</v>
+        <v>1977.3963600594559</v>
       </c>
       <c r="E141">
-        <v>2192.1295732189587</v>
+        <v>1976.442345981508</v>
       </c>
       <c r="F141">
-        <v>2154.3026513076156</v>
+        <v>1977.262862162361</v>
       </c>
       <c r="G141">
-        <v>2153.8159198986859</v>
+        <v>1977.4367156951059</v>
       </c>
       <c r="H141" t="s">
         <v>8</v>
       </c>
       <c r="I141">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J141">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K141">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L141" t="s">
         <v>13</v>
@@ -6192,34 +6189,34 @@
         <v>9.7916666666666666E-2</v>
       </c>
       <c r="B142">
-        <v>2155.1170284483319</v>
+        <v>1989.7258294393716</v>
       </c>
       <c r="C142">
-        <v>2155.3907269190581</v>
+        <v>1990.9042261605971</v>
       </c>
       <c r="D142">
-        <v>2155.1530949974917</v>
+        <v>1991.1502278819573</v>
       </c>
       <c r="E142">
-        <v>2193.5291895907058</v>
+        <v>1990.1931416397128</v>
       </c>
       <c r="F142">
-        <v>2155.7007560109569</v>
+        <v>1991.0105906472795</v>
       </c>
       <c r="G142">
-        <v>2155.2124617692143</v>
+        <v>1991.1813761218627</v>
       </c>
       <c r="H142" t="s">
         <v>8</v>
       </c>
       <c r="I142">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J142">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K142">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L142" t="s">
         <v>13</v>
@@ -6233,34 +6230,34 @@
         <v>9.8611111111111108E-2</v>
       </c>
       <c r="B143">
-        <v>2156.0434403147915</v>
+        <v>2002.3894113638637</v>
       </c>
       <c r="C143">
-        <v>2156.3161033470833</v>
+        <v>2003.564984300305</v>
       </c>
       <c r="D143">
-        <v>2156.0774370609902</v>
+        <v>2003.8081607825527</v>
       </c>
       <c r="E143">
-        <v>2194.4524639278588</v>
+        <v>2002.8482472460914</v>
       </c>
       <c r="F143">
-        <v>2156.6230331574611</v>
+        <v>2003.6628735532122</v>
       </c>
       <c r="G143">
-        <v>2156.1337079738669</v>
+        <v>2003.8308355126389</v>
       </c>
       <c r="H143" t="s">
         <v>8</v>
       </c>
       <c r="I143">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J143">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K143">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L143" t="s">
         <v>13</v>
@@ -6274,34 +6271,34 @@
         <v>9.930555555555555E-2</v>
       </c>
       <c r="B144">
-        <v>2156.6545594400527</v>
+        <v>2014.0439545583083</v>
       </c>
       <c r="C144">
-        <v>2156.9265394325007</v>
+        <v>2015.2169287524771</v>
       </c>
       <c r="D144">
-        <v>2156.6871908149783</v>
+        <v>2015.4575051537579</v>
       </c>
       <c r="E144">
-        <v>2195.061513342881</v>
+        <v>2014.4949896446808</v>
       </c>
       <c r="F144">
-        <v>2157.2314247632648</v>
+        <v>2015.3070182071781</v>
       </c>
       <c r="G144">
-        <v>2156.7414195060524</v>
+        <v>2015.4723816719925</v>
       </c>
       <c r="H144" t="s">
         <v>8</v>
       </c>
       <c r="I144">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J144">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K144">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L144" t="s">
         <v>13</v>
@@ -6315,34 +6312,34 @@
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="B145">
-        <v>2157.0576917831377</v>
+        <v>2024.7698710041734</v>
       </c>
       <c r="C145">
-        <v>2157.3292211998446</v>
+        <v>2025.9404535461113</v>
       </c>
       <c r="D145">
-        <v>2157.0894224738963</v>
+        <v>2026.1786370629939</v>
       </c>
       <c r="E145">
-        <v>2195.4632803758277</v>
+        <v>2025.2137269284285</v>
       </c>
       <c r="F145">
-        <v>2157.6327578641663</v>
+        <v>2026.0233647566877</v>
       </c>
       <c r="G145">
-        <v>2157.1423039879214</v>
+        <v>2026.1863367969265</v>
       </c>
       <c r="H145" t="s">
         <v>8</v>
       </c>
       <c r="I145">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J145">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K145">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L145" t="s">
         <v>13</v>
@@ -6356,34 +6353,34 @@
         <v>0.10069444444444443</v>
       </c>
       <c r="B146">
-        <v>2157.3236230547459</v>
+        <v>2034.6411595383975</v>
       </c>
       <c r="C146">
-        <v>2157.5948552435525</v>
+        <v>2035.809541005483</v>
       </c>
       <c r="D146">
-        <v>2157.3547595979744</v>
+        <v>2036.0455223134456</v>
       </c>
       <c r="E146">
-        <v>2195.7283110035969</v>
+        <v>2035.0784083675064</v>
       </c>
       <c r="F146">
-        <v>2157.8975022432578</v>
+        <v>2035.885845965669</v>
       </c>
       <c r="G146">
-        <v>2157.4067524298812</v>
+        <v>2036.0466171404196</v>
       </c>
       <c r="H146" t="s">
         <v>8</v>
       </c>
       <c r="I146">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J146">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K146">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L146" t="s">
         <v>13</v>
@@ -6397,34 +6394,34 @@
         <v>0.1013888888888889</v>
       </c>
       <c r="B147">
-        <v>2158.5084685768979</v>
+        <v>2045.139604287737</v>
       </c>
       <c r="C147">
-        <v>2158.7967640327806</v>
+        <v>2046.3171841440139</v>
       </c>
       <c r="D147">
-        <v>2158.5436511862149</v>
+        <v>2046.5548424129508</v>
       </c>
       <c r="E147">
-        <v>2196.9266969268938</v>
+        <v>2045.5818834985901</v>
       </c>
       <c r="F147">
-        <v>2159.0979506014305</v>
+        <v>2046.3909983697124</v>
       </c>
       <c r="G147">
-        <v>2158.6004430350972</v>
+        <v>2046.5772564380509</v>
       </c>
       <c r="H147" t="s">
         <v>8</v>
       </c>
       <c r="I147">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J147">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K147">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L147" t="s">
         <v>13</v>
@@ -6438,34 +6435,34 @@
         <v>0.10208333333333335</v>
       </c>
       <c r="B148">
-        <v>2159.3002450803829</v>
+        <v>2054.8230336637703</v>
       </c>
       <c r="C148">
-        <v>2159.5876555509526</v>
+        <v>2055.9984542166412</v>
       </c>
       <c r="D148">
-        <v>2159.3336586330288</v>
+        <v>2056.233952057587</v>
       </c>
       <c r="E148">
-        <v>2197.7157917880245</v>
+        <v>2055.2588311313439</v>
       </c>
       <c r="F148">
-        <v>2159.8861931695315</v>
+        <v>2056.0657875158045</v>
       </c>
       <c r="G148">
-        <v>2159.38780445878</v>
+        <v>2056.2498865153843</v>
       </c>
       <c r="H148" t="s">
         <v>8</v>
       </c>
       <c r="I148">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J148">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K148">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L148" t="s">
         <v>13</v>
@@ -6479,34 +6476,34 @@
         <v>0.10277777777777779</v>
       </c>
       <c r="B149">
-        <v>2159.8225477092533</v>
+        <v>2063.7348680956397</v>
       </c>
       <c r="C149">
-        <v>2160.1093744089635</v>
+        <v>2064.9083014578946</v>
       </c>
       <c r="D149">
-        <v>2159.8547943228768</v>
+        <v>2065.1418110729319</v>
       </c>
       <c r="E149">
-        <v>2198.2363255024816</v>
+        <v>2064.1647004627189</v>
       </c>
       <c r="F149">
-        <v>2160.4061646757696</v>
+        <v>2064.9696704078506</v>
       </c>
       <c r="G149">
-        <v>2159.9071947271573</v>
+        <v>2065.1517824321472</v>
       </c>
       <c r="H149" t="s">
         <v>8</v>
       </c>
       <c r="I149">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J149">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K149">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L149" t="s">
         <v>13</v>
@@ -6520,34 +6517,34 @@
         <v>0.10347222222222223</v>
       </c>
       <c r="B150">
-        <v>2160.1670910377525</v>
+        <v>2071.9366046739924</v>
       </c>
       <c r="C150">
-        <v>2160.453532646824</v>
+        <v>2073.108209216673</v>
       </c>
       <c r="D150">
-        <v>2160.1985678676692</v>
+        <v>2073.3398890591598</v>
       </c>
       <c r="E150">
-        <v>2198.5797019479182</v>
+        <v>2072.3609473343013</v>
       </c>
       <c r="F150">
-        <v>2160.7491702544617</v>
+        <v>2073.1640891510729</v>
       </c>
       <c r="G150">
-        <v>2160.2498168860989</v>
+        <v>2073.3443725536222</v>
       </c>
       <c r="H150" t="s">
         <v>8</v>
       </c>
       <c r="I150">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J150">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K150">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L150" t="s">
         <v>13</v>
@@ -6561,34 +6558,34 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="B151">
-        <v>2160.39437335297</v>
+        <v>2079.4848325883036</v>
       </c>
       <c r="C151">
-        <v>2160.6805609322396</v>
+        <v>2080.6547540479392</v>
       </c>
       <c r="D151">
-        <v>2160.425342385543</v>
+        <v>2080.8847499302365</v>
       </c>
       <c r="E151">
-        <v>2198.8062145142944</v>
+        <v>2079.904123009916</v>
       </c>
       <c r="F151">
-        <v>2160.9754381739949</v>
+        <v>2080.70558237966</v>
       </c>
       <c r="G151">
-        <v>2160.4758318780496</v>
+        <v>2080.884182881035</v>
       </c>
       <c r="H151" t="s">
         <v>8</v>
       </c>
       <c r="I151">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J151">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K151">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L151" t="s">
         <v>13</v>
@@ -6602,34 +6599,34 @@
         <v>0.10486111111111111</v>
       </c>
       <c r="B152">
-        <v>2160.5443029791227</v>
+        <v>2086.4316276549898</v>
       </c>
       <c r="C152">
-        <v>2160.8303229844541</v>
+        <v>2087.600000147228</v>
       </c>
       <c r="D152">
-        <v>2160.5749370368221</v>
+        <v>2087.8284462548195</v>
       </c>
       <c r="E152">
-        <v>2198.9556363659922</v>
+        <v>2086.8462684228771</v>
       </c>
       <c r="F152">
-        <v>2161.1246986413398</v>
+        <v>2087.6461794104971</v>
       </c>
       <c r="G152">
-        <v>2160.6249254985496</v>
+        <v>2087.823231111744</v>
       </c>
       <c r="H152" t="s">
         <v>8</v>
       </c>
       <c r="I152">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J152">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K152">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L152" t="s">
         <v>13</v>
@@ -6643,34 +6640,34 @@
         <v>0.10555555555555556</v>
       </c>
       <c r="B153">
-        <v>1661.1437100103637</v>
+        <v>2092.824913891337</v>
       </c>
       <c r="C153">
-        <v>1660.3199817551765</v>
+        <v>2093.9918608407788</v>
       </c>
       <c r="D153">
-        <v>1658.9561371250377</v>
+        <v>2094.2188806625591</v>
       </c>
       <c r="E153">
-        <v>1658.7288706298134</v>
+        <v>2093.2352754984399</v>
       </c>
       <c r="F153">
-        <v>1657.2923100863138</v>
+        <v>2094.0337614818673</v>
       </c>
       <c r="G153">
-        <v>1655.6878113601342</v>
+        <v>2094.2093877941984</v>
       </c>
       <c r="H153" t="s">
         <v>8</v>
       </c>
       <c r="I153">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J153">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K153">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L153" t="s">
         <v>13</v>
@@ -6684,34 +6681,34 @@
         <v>0.10625</v>
       </c>
       <c r="B154">
-        <v>1323.2592871395686</v>
+        <v>2098.7087954237991</v>
       </c>
       <c r="C154">
-        <v>1322.8128594334039</v>
+        <v>2099.8744304180368</v>
       </c>
       <c r="D154">
-        <v>1321.8259269737857</v>
+        <v>2100.1001376007821</v>
       </c>
       <c r="E154">
-        <v>1321.9750842922394</v>
+        <v>2099.1152188346132</v>
       </c>
       <c r="F154">
-        <v>1320.914600233348</v>
+        <v>2099.9123933585024</v>
       </c>
       <c r="G154">
-        <v>1319.68576843608</v>
+        <v>2100.0867078572137</v>
       </c>
       <c r="H154" t="s">
         <v>8</v>
       </c>
       <c r="I154">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J154">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K154">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L154" t="s">
         <v>13</v>
@@ -6725,34 +6722,34 @@
         <v>0.10694444444444444</v>
       </c>
       <c r="B155">
-        <v>1100.2970930179822</v>
+        <v>2104.123861468172</v>
       </c>
       <c r="C155">
-        <v>1100.0996761115732</v>
+        <v>2105.2882890428132</v>
       </c>
       <c r="D155">
-        <v>1099.3614976822066</v>
+        <v>2105.5127881766057</v>
       </c>
       <c r="E155">
-        <v>1099.7590866291819</v>
+        <v>2104.5266604751923</v>
       </c>
       <c r="F155">
-        <v>1098.9468043900199</v>
+        <v>2105.3226280356466</v>
       </c>
       <c r="G155">
-        <v>1097.9659037570893</v>
+        <v>2105.4957352450456</v>
       </c>
       <c r="H155" t="s">
         <v>8</v>
       </c>
       <c r="I155">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J155">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K155">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L155" t="s">
         <v>13</v>
@@ -6766,34 +6763,34 @@
         <v>0.1076388888888889</v>
       </c>
       <c r="B156">
-        <v>953.17265406435513</v>
+        <v>2109.1074667381899</v>
       </c>
       <c r="C156">
-        <v>953.13955166950336</v>
+        <v>2110.2707830987956</v>
       </c>
       <c r="D156">
-        <v>952.56551829803459</v>
+        <v>2110.4941704393386</v>
       </c>
       <c r="E156">
-        <v>953.12703955934751</v>
+        <v>2109.5069301289936</v>
       </c>
       <c r="F156">
-        <v>952.47853796429422</v>
+        <v>2110.3017868952206</v>
       </c>
       <c r="G156">
-        <v>951.66123936366409</v>
+        <v>2110.4737830104773</v>
       </c>
       <c r="H156" t="s">
         <v>8</v>
       </c>
       <c r="I156">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J156">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K156">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L156" t="s">
         <v>13</v>
@@ -6807,34 +6804,34 @@
         <v>0.10833333333333334</v>
       </c>
       <c r="B157">
-        <v>856.09085326792706</v>
+        <v>2113.6939893590743</v>
       </c>
       <c r="C157">
-        <v>856.16617581251808</v>
+        <v>2114.8562830452684</v>
       </c>
       <c r="D157">
-        <v>855.7004555635433</v>
+        <v>2115.0786471783335</v>
       </c>
       <c r="E157">
-        <v>856.37014956603707</v>
+        <v>2114.0903829098143</v>
       </c>
       <c r="F157">
-        <v>855.82972062944532</v>
+        <v>2114.8842173879852</v>
       </c>
       <c r="G157">
-        <v>855.12037682745961</v>
+        <v>2115.0551909391634</v>
       </c>
       <c r="H157" t="s">
         <v>8</v>
       </c>
       <c r="I157">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J157">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K157">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L157" t="s">
         <v>13</v>
@@ -6848,34 +6845,34 @@
         <v>0.10902777777777778</v>
       </c>
       <c r="B158">
-        <v>792.03028459186487</v>
+        <v>2117.9150681452702</v>
       </c>
       <c r="C158">
-        <v>792.17715261154308</v>
+        <v>2119.0764206417625</v>
       </c>
       <c r="D158">
-        <v>791.78290405388168</v>
+        <v>2119.2978430945291</v>
       </c>
       <c r="E158">
-        <v>792.5239771154362</v>
+        <v>2118.3086364548303</v>
       </c>
       <c r="F158">
-        <v>792.05486119708019</v>
+        <v>2119.1015300988679</v>
       </c>
       <c r="G158">
-        <v>791.41675264211187</v>
+        <v>2119.2715625618835</v>
       </c>
       <c r="H158" t="s">
         <v>8</v>
       </c>
       <c r="I158">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J158">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K158">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L158" t="s">
         <v>13</v>
@@ -6889,34 +6886,34 @@
         <v>0.10972222222222222</v>
       </c>
       <c r="B159">
-        <v>749.75916475892961</v>
+        <v>2121.799820924175</v>
       </c>
       <c r="C159">
-        <v>749.95324290211897</v>
+        <v>2122.9603072230025</v>
       </c>
       <c r="D159">
-        <v>749.6061557808755</v>
+        <v>2123.1808630265982</v>
       </c>
       <c r="E159">
-        <v>750.39432915436748</v>
+        <v>2122.1907891018927</v>
       </c>
       <c r="F159">
-        <v>749.9722699701299</v>
+        <v>2122.9828168755025</v>
       </c>
       <c r="G159">
-        <v>749.3811668310251</v>
+        <v>2123.1519832342997</v>
       </c>
       <c r="H159" t="s">
         <v>8</v>
       </c>
       <c r="I159">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J159">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K159">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L159" t="s">
         <v>13</v>
@@ -6930,34 +6927,34 @@
         <v>0.11041666666666666</v>
       </c>
       <c r="B160">
-        <v>721.86606908206204</v>
+        <v>2125.3750454372403</v>
       </c>
       <c r="C160">
-        <v>722.09129938061176</v>
+        <v>2126.534734555159</v>
       </c>
       <c r="D160">
-        <v>721.77533228797722</v>
+        <v>2126.7544927623148</v>
       </c>
       <c r="E160">
-        <v>722.59458535637032</v>
+        <v>2125.7636206559932</v>
       </c>
       <c r="F160">
-        <v>722.20357711169731</v>
+        <v>2126.5548515498563</v>
       </c>
       <c r="G160">
-        <v>721.64349104920325</v>
+        <v>2126.7232208137461</v>
       </c>
       <c r="H160" t="s">
         <v>8</v>
       </c>
       <c r="I160">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J160">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K160">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L160" t="s">
         <v>13</v>
@@ -6971,34 +6968,34 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="B161">
-        <v>703.4604817806013</v>
+        <v>2128.6654042185496</v>
       </c>
       <c r="C161">
-        <v>703.70626819532254</v>
+        <v>2129.8243596731677</v>
       </c>
       <c r="D161">
-        <v>703.41083601964465</v>
+        <v>2130.0433838346012</v>
       </c>
       <c r="E161">
-        <v>704.25059739032281</v>
+        <v>2129.0517771440068</v>
       </c>
       <c r="F161">
-        <v>703.88007847338815</v>
+        <v>2129.842274651739</v>
       </c>
       <c r="G161">
-        <v>703.34045939376392</v>
+        <v>2130.0099103314774</v>
       </c>
       <c r="H161" t="s">
         <v>8</v>
       </c>
       <c r="I161">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J161">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K161">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L161" t="s">
         <v>13</v>
@@ -7012,34 +7009,34 @@
         <v>0.11180555555555556</v>
       </c>
       <c r="B162">
-        <v>691.31533848652577</v>
+        <v>2131.6935947341144</v>
       </c>
       <c r="C162">
-        <v>691.57468909631382</v>
+        <v>2132.8518749820792</v>
       </c>
       <c r="D162">
-        <v>691.29280712715115</v>
+        <v>2133.0702235849039</v>
       </c>
       <c r="E162">
-        <v>692.14610114234085</v>
+        <v>2132.0779408400635</v>
       </c>
       <c r="F162">
-        <v>691.78910234933949</v>
+        <v>2132.8677633962238</v>
       </c>
       <c r="G162">
-        <v>691.26298864912394</v>
+        <v>2133.0347239421476</v>
       </c>
       <c r="H162" t="s">
         <v>8</v>
       </c>
       <c r="I162">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J162">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K162">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L162" t="s">
         <v>13</v>
@@ -7053,22 +7050,22 @@
         <v>0.1125</v>
       </c>
       <c r="B163">
-        <v>684.51935411990644</v>
+        <v>1640.501436309389</v>
       </c>
       <c r="C163">
-        <v>684.79783662036061</v>
+        <v>1640.5829244017061</v>
       </c>
       <c r="D163">
-        <v>684.52755669891417</v>
+        <v>1639.7257652988978</v>
       </c>
       <c r="E163">
-        <v>685.37740341163874</v>
+        <v>1637.6367266075627</v>
       </c>
       <c r="F163">
-        <v>685.03949838303549</v>
+        <v>1637.3609151210103</v>
       </c>
       <c r="G163">
-        <v>684.51617775786531</v>
+        <v>1636.4509639487817</v>
       </c>
       <c r="H163" t="s">
         <v>8</v>
@@ -7094,22 +7091,22 @@
         <v>0.11319444444444444</v>
       </c>
       <c r="B164">
-        <v>680.04238283435507</v>
+        <v>1312.6951278450802</v>
       </c>
       <c r="C164">
-        <v>680.32586538550174</v>
+        <v>1313.1426828221565</v>
       </c>
       <c r="D164">
-        <v>680.06058036436878</v>
+        <v>1312.6512362571546</v>
       </c>
       <c r="E164">
-        <v>680.91541551541104</v>
+        <v>1310.9275726370722</v>
       </c>
       <c r="F164">
-        <v>680.58249429216801</v>
+        <v>1311.0166234593146</v>
       </c>
       <c r="G164">
-        <v>680.06415205012638</v>
+        <v>1310.4711637889272</v>
       </c>
       <c r="H164" t="s">
         <v>8</v>
@@ -7135,22 +7132,22 @@
         <v>0.11388888888888889</v>
       </c>
       <c r="B165">
-        <v>677.08819962856273</v>
+        <v>1096.3890157217181</v>
       </c>
       <c r="C165">
-        <v>677.37498152756655</v>
+        <v>1097.0781169975999</v>
       </c>
       <c r="D165">
-        <v>677.11299245566556</v>
+        <v>1096.827983006749</v>
       </c>
       <c r="E165">
-        <v>677.97111929196819</v>
+        <v>1095.3454093830605</v>
       </c>
       <c r="F165">
-        <v>677.64148669673523</v>
+        <v>1095.675211850714</v>
       </c>
       <c r="G165">
-        <v>677.12642950472605</v>
+        <v>1095.3702592271247</v>
       </c>
       <c r="H165" t="s">
         <v>8</v>
@@ -7176,22 +7173,22 @@
         <v>0.11458333333333333</v>
       </c>
       <c r="B166">
-        <v>675.13884680077047</v>
+        <v>953.65684038909819</v>
       </c>
       <c r="C166">
-        <v>675.42780581382726</v>
+        <v>954.50532861820398</v>
       </c>
       <c r="D166">
-        <v>675.16799161335166</v>
+        <v>954.4144273588156</v>
       </c>
       <c r="E166">
-        <v>676.02829050745015</v>
+        <v>953.09093960069276</v>
       </c>
       <c r="F166">
-        <v>675.70082795264295</v>
+        <v>953.57960466814313</v>
       </c>
       <c r="G166">
-        <v>675.18793844008576</v>
+        <v>953.43335324661666</v>
       </c>
       <c r="H166" t="s">
         <v>8</v>
@@ -7217,22 +7214,22 @@
         <v>0.11527777777777777</v>
       </c>
       <c r="B167">
-        <v>673.85254323734944</v>
+        <v>859.4732855496195</v>
       </c>
       <c r="C167">
-        <v>674.14293884492565</v>
+        <v>860.42694717943709</v>
       </c>
       <c r="D167">
-        <v>673.88455975914474</v>
+        <v>860.44111755586221</v>
       </c>
       <c r="E167">
-        <v>674.74629191133204</v>
+        <v>859.2226045225359</v>
       </c>
       <c r="F167">
-        <v>674.42026128342673</v>
+        <v>859.81609699008504</v>
       </c>
       <c r="G167">
-        <v>673.9088021398552</v>
+        <v>859.77456646857229</v>
       </c>
       <c r="H167" t="s">
         <v>8</v>
@@ -7258,22 +7255,22 @@
         <v>0.11597222222222221</v>
       </c>
       <c r="B168">
-        <v>673.0037605893508</v>
+        <v>797.32512509333117</v>
       </c>
       <c r="C168">
-        <v>673.29510415084371</v>
+        <v>798.34818666614615</v>
       </c>
       <c r="D168">
-        <v>673.03767204249993</v>
+        <v>798.43168983477608</v>
       </c>
       <c r="E168">
-        <v>673.90034994702069</v>
+        <v>797.28244564575562</v>
       </c>
       <c r="F168">
-        <v>673.57526419304929</v>
+        <v>797.94510974361833</v>
       </c>
       <c r="G168">
-        <v>673.06474889540266</v>
+        <v>797.97268057705492</v>
       </c>
       <c r="H168" t="s">
         <v>8</v>
@@ -7299,22 +7296,22 @@
         <v>0.11666666666666665</v>
       </c>
       <c r="B169">
-        <v>672.44368130173109</v>
+        <v>756.31590794716794</v>
       </c>
       <c r="C169">
-        <v>672.73565038184847</v>
+        <v>757.38476391373479</v>
       </c>
       <c r="D169">
-        <v>672.47884314778742</v>
+        <v>757.51401716585303</v>
       </c>
       <c r="E169">
-        <v>673.34214511819152</v>
+        <v>756.41048086352475</v>
       </c>
       <c r="F169">
-        <v>673.01768285048183</v>
+        <v>757.11878870024827</v>
       </c>
       <c r="G169">
-        <v>672.5077903607521</v>
+        <v>757.19195690049423</v>
       </c>
       <c r="H169" t="s">
         <v>8</v>
@@ -7340,22 +7337,22 @@
         <v>0.1173611111111111</v>
       </c>
       <c r="B170">
-        <v>672.0741063473431</v>
+        <v>729.25547882563217</v>
       </c>
       <c r="C170">
-        <v>672.36648818333674</v>
+        <v>730.35455277811752</v>
       </c>
       <c r="D170">
-        <v>672.11009327997544</v>
+        <v>730.51399477748907</v>
       </c>
       <c r="E170">
-        <v>672.97380704764726</v>
+        <v>729.44061937834704</v>
       </c>
       <c r="F170">
-        <v>672.64975619473523</v>
+        <v>730.17904578953244</v>
       </c>
       <c r="G170">
-        <v>672.14027467218921</v>
+        <v>730.28230196508025</v>
       </c>
       <c r="H170" t="s">
         <v>8</v>
@@ -7381,22 +7378,22 @@
         <v>0.11805555555555557</v>
       </c>
       <c r="B171">
-        <v>671.83023793455152</v>
+        <v>711.39932659440092</v>
       </c>
       <c r="C171">
-        <v>672.12289213240092</v>
+        <v>712.51834025125129</v>
       </c>
       <c r="D171">
-        <v>671.8667693103373</v>
+        <v>712.69770266150056</v>
       </c>
       <c r="E171">
-        <v>672.73075480731609</v>
+        <v>711.6442292999908</v>
       </c>
       <c r="F171">
-        <v>672.40697543133285</v>
+        <v>712.40252981768674</v>
       </c>
       <c r="G171">
-        <v>671.89776509035266</v>
+        <v>712.52563990851831</v>
       </c>
       <c r="H171" t="s">
         <v>8</v>
@@ -7422,22 +7419,22 @@
         <v>0.11875000000000001</v>
       </c>
       <c r="B172">
-        <v>671.66931847274168</v>
+        <v>699.61672806009688</v>
       </c>
       <c r="C172">
-        <v>671.96215239178866</v>
+        <v>700.74889917261783</v>
       </c>
       <c r="D172">
-        <v>671.70620910579339</v>
+        <v>700.94140630749587</v>
       </c>
       <c r="E172">
-        <v>672.57037390657479</v>
+        <v>699.90106554680642</v>
       </c>
       <c r="F172">
-        <v>709.80314526148288</v>
+        <v>700.6724802346331</v>
       </c>
       <c r="G172">
-        <v>677.77081521739433</v>
+        <v>700.80869117216901</v>
       </c>
       <c r="H172" t="s">
         <v>8</v>
@@ -7463,22 +7460,22 @@
         <v>0.11944444444444445</v>
       </c>
       <c r="B173">
-        <v>1177.2004423746912</v>
+        <v>691.84183756729954</v>
       </c>
       <c r="C173">
-        <v>1178.5970320353561</v>
+        <v>692.98269078646319</v>
       </c>
       <c r="D173">
-        <v>1179.4435588229135</v>
+        <v>693.18387162725185</v>
       </c>
       <c r="E173">
-        <v>1181.4090688629722</v>
+        <v>692.1521965724304</v>
       </c>
       <c r="F173">
-        <v>1219.7228948478082</v>
+        <v>692.93226480441126</v>
       </c>
       <c r="G173">
-        <v>1182.7752846421108</v>
+        <v>693.07712049447798</v>
       </c>
       <c r="H173" t="s">
         <v>8</v>
@@ -7504,22 +7501,22 @@
         <v>0.12013888888888889</v>
       </c>
       <c r="B174">
-        <v>1513.189605905623</v>
+        <v>686.71148181436126</v>
       </c>
       <c r="C174">
-        <v>1514.2107047023399</v>
+        <v>687.85806402685341</v>
       </c>
       <c r="D174">
-        <v>1514.6821274056308</v>
+        <v>688.06496831764514</v>
       </c>
       <c r="E174">
-        <v>1516.2730190922109</v>
+        <v>687.0390114339026</v>
       </c>
       <c r="F174">
-        <v>1554.2000155043152</v>
+        <v>687.82478981190741</v>
       </c>
       <c r="G174">
-        <v>1516.8911653891635</v>
+        <v>687.97534984673848</v>
       </c>
       <c r="H174" t="s">
         <v>8</v>
@@ -7545,22 +7542,22 @@
         <v>0.12083333333333333</v>
       </c>
       <c r="B175">
-        <v>1734.8330302217109</v>
+        <v>683.326154371347</v>
       </c>
       <c r="C175">
-        <v>1735.6064049625998</v>
+        <v>684.47651692954378</v>
       </c>
       <c r="D175">
-        <v>1735.8303590348639</v>
+        <v>684.68719790821046</v>
       </c>
       <c r="E175">
-        <v>1737.1741024665978</v>
+        <v>683.66501422897989</v>
       </c>
       <c r="F175">
-        <v>1774.8458884646236</v>
+        <v>684.45456051606766</v>
       </c>
       <c r="G175">
-        <v>1737.2987232948587</v>
+        <v>684.60888463194965</v>
       </c>
       <c r="H175" t="s">
         <v>8</v>
@@ -7586,22 +7583,22 @@
         <v>0.12152777777777778</v>
       </c>
       <c r="B176">
-        <v>1881.0431993700768</v>
+        <v>681.09230501502054</v>
       </c>
       <c r="C176">
-        <v>1881.6531577784322</v>
+        <v>682.2451620801628</v>
       </c>
       <c r="D176">
-        <v>1881.713864032653</v>
+        <v>682.4583351521112</v>
       </c>
       <c r="E176">
-        <v>1882.8945709893412</v>
+        <v>681.43864126762378</v>
       </c>
       <c r="F176">
-        <v>1920.3980018380037</v>
+        <v>682.23067385520108</v>
       </c>
       <c r="G176">
-        <v>1882.6936275672258</v>
+        <v>682.38748174559987</v>
       </c>
       <c r="H176" t="s">
         <v>8</v>
@@ -7627,22 +7624,22 @@
         <v>0.12222222222222223</v>
       </c>
       <c r="B177">
-        <v>1977.4926071119296</v>
+        <v>679.61827243449227</v>
       </c>
       <c r="C177">
-        <v>1977.9947657363696</v>
+        <v>680.77277553028534</v>
       </c>
       <c r="D177">
-        <v>1977.9477833706712</v>
+        <v>680.98759304019973</v>
       </c>
       <c r="E177">
-        <v>1979.0209411228595</v>
+        <v>679.96954207695876</v>
       </c>
       <c r="F177">
-        <v>2016.4133142162786</v>
+        <v>680.76321528005769</v>
       </c>
       <c r="G177">
-        <v>1978.6052348664261</v>
+        <v>680.92166211918402</v>
       </c>
       <c r="H177" t="s">
         <v>8</v>
@@ -7668,22 +7665,22 @@
         <v>0.12291666666666667</v>
       </c>
       <c r="B178">
-        <v>2041.1166819238688</v>
+        <v>678.64561416534627</v>
       </c>
       <c r="C178">
-        <v>2041.5477290473168</v>
+        <v>679.80120341442057</v>
       </c>
       <c r="D178">
-        <v>2041.4297085114408</v>
+        <v>680.01710602666333</v>
       </c>
       <c r="E178">
-        <v>2042.4319200606235</v>
+        <v>679.00013916492594</v>
       </c>
       <c r="F178">
-        <v>2079.7510324900177</v>
+        <v>679.79489494806717</v>
       </c>
       <c r="G178">
-        <v>2041.8745427645299</v>
+        <v>679.9544232673818</v>
       </c>
       <c r="H178" t="s">
         <v>8</v>
@@ -7709,22 +7706,22 @@
         <v>0.12361111111111112</v>
       </c>
       <c r="B179">
-        <v>2083.087109026847</v>
+        <v>678.00379381413052</v>
       </c>
       <c r="C179">
-        <v>2083.4712465472617</v>
+        <v>679.16009977461579</v>
       </c>
       <c r="D179">
-        <v>2083.3063647819586</v>
+        <v>679.37671840478549</v>
       </c>
       <c r="E179">
-        <v>2084.2617757690246</v>
+        <v>678.36046690056855</v>
       </c>
       <c r="F179">
-        <v>2121.5325608727098</v>
+        <v>679.15593703727552</v>
       </c>
       <c r="G179">
-        <v>2083.6109433758329</v>
+        <v>679.31617898440413</v>
       </c>
       <c r="H179" t="s">
         <v>8</v>
@@ -7750,22 +7747,22 @@
         <v>0.12430555555555556</v>
       </c>
       <c r="B180">
-        <v>2110.7734330196995</v>
+        <v>677.58028087407502</v>
       </c>
       <c r="C180">
-        <v>2111.12662602612</v>
+        <v>678.7370597652739</v>
       </c>
       <c r="D180">
-        <v>2110.9308316570846</v>
+        <v>678.95415086855405</v>
       </c>
       <c r="E180">
-        <v>2111.8553700603779</v>
+        <v>677.93837140166966</v>
       </c>
       <c r="F180">
-        <v>2149.094275431341</v>
+        <v>678.73431291323789</v>
       </c>
       <c r="G180">
-        <v>2111.1428888282912</v>
+        <v>678.89502575633117</v>
       </c>
       <c r="H180" t="s">
         <v>8</v>
@@ -7791,22 +7788,22 @@
         <v>0.125</v>
       </c>
       <c r="B181">
-        <v>2129.0370674181472</v>
+        <v>677.30082072599066</v>
       </c>
       <c r="C181">
-        <v>2129.3698474838534</v>
+        <v>678.45791168625476</v>
       </c>
       <c r="D181">
-        <v>2129.1536612241111</v>
+        <v>678.67531455664448</v>
       </c>
       <c r="E181">
-        <v>2130.0578341363744</v>
+        <v>677.65984656931698</v>
       </c>
       <c r="F181">
-        <v>2167.27570963774</v>
+        <v>678.45609912330224</v>
       </c>
       <c r="G181">
-        <v>2129.3046854666386</v>
+        <v>678.61712269280702</v>
       </c>
       <c r="H181" t="s">
         <v>8</v>
@@ -7832,22 +7829,22 @@
         <v>0.12569444444444444</v>
       </c>
       <c r="B182">
-        <v>2141.084905243174</v>
+        <v>678.33783746996892</v>
       </c>
       <c r="C182">
-        <v>2141.4042196539126</v>
+        <v>679.69197775792532</v>
       </c>
       <c r="D182">
-        <v>2141.1745816251082</v>
+        <v>680.13815292272591</v>
       </c>
       <c r="E182">
-        <v>2142.0653201831879</v>
+        <v>679.38829223909306</v>
       </c>
       <c r="F182">
-        <v>2179.2693230646319</v>
+        <v>680.49292474947833</v>
       </c>
       <c r="G182">
-        <v>2141.2853447229636</v>
+        <v>681.01199337422076</v>
       </c>
       <c r="H182" t="s">
         <v>8</v>
@@ -7873,34 +7870,34 @@
         <v>0.12638888888888888</v>
       </c>
       <c r="B183">
-        <v>2149.032414106493</v>
+        <v>798.33522690332643</v>
       </c>
       <c r="C183">
-        <v>2149.3428457273276</v>
+        <v>799.80302567497245</v>
       </c>
       <c r="D183">
-        <v>2149.104334068631</v>
+        <v>800.33104660831634</v>
       </c>
       <c r="E183">
-        <v>2149.9862104847657</v>
+        <v>799.62610021349496</v>
       </c>
       <c r="F183">
-        <v>2187.1810621167169</v>
+        <v>800.73284344199476</v>
       </c>
       <c r="G183">
-        <v>2149.1885383923086</v>
+        <v>801.20427432254019</v>
       </c>
       <c r="H183" t="s">
         <v>8</v>
       </c>
       <c r="I183">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J183">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K183">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L183" t="s">
         <v>13</v>
@@ -7914,34 +7911,34 @@
         <v>0.12708333333333333</v>
       </c>
       <c r="B184">
-        <v>2154.2750890204352</v>
+        <v>909.03748993814543</v>
       </c>
       <c r="C184">
-        <v>2154.5796609963677</v>
+        <v>910.480602543852</v>
       </c>
       <c r="D184">
-        <v>2154.3352957352872</v>
+        <v>910.98392449635355</v>
       </c>
       <c r="E184">
-        <v>2155.2113261272066</v>
+        <v>910.2542606278173</v>
       </c>
       <c r="F184">
-        <v>2192.4001410214873</v>
+        <v>911.33632718787044</v>
       </c>
       <c r="G184">
-        <v>2154.4019802270886</v>
+        <v>911.78307452835179</v>
       </c>
       <c r="H184" t="s">
         <v>8</v>
       </c>
       <c r="I184">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J184">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K184">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L184" t="s">
         <v>13</v>
@@ -7955,34 +7952,34 @@
         <v>0.1277777777777778</v>
       </c>
       <c r="B185">
-        <v>2157.7334859503408</v>
+        <v>1010.9184507901197</v>
       </c>
       <c r="C185">
-        <v>2158.0341925372736</v>
+        <v>1012.338844820498</v>
       </c>
       <c r="D185">
-        <v>2157.7859658732182</v>
+        <v>1012.819436386192</v>
       </c>
       <c r="E185">
-        <v>2158.6581398611966</v>
+        <v>1012.067025088407</v>
       </c>
       <c r="F185">
-        <v>2195.8429725449896</v>
+        <v>1013.1263818074356</v>
       </c>
       <c r="G185">
-        <v>2157.8410931859516</v>
+        <v>1013.5504129709639</v>
       </c>
       <c r="H185" t="s">
         <v>8</v>
       </c>
       <c r="I185">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J185">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K185">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L185" t="s">
         <v>13</v>
@@ -7996,34 +7993,34 @@
         <v>0.12847222222222224</v>
       </c>
       <c r="B186">
-        <v>2160.014861301876</v>
+        <v>1104.6812013862652</v>
       </c>
       <c r="C186">
-        <v>2160.3130180359808</v>
+        <v>1106.0806875975184</v>
       </c>
       <c r="D186">
-        <v>2160.0622441485298</v>
+        <v>1106.5403604634748</v>
       </c>
       <c r="E186">
-        <v>2160.9318742107903</v>
+        <v>1105.7670147681615</v>
       </c>
       <c r="F186">
-        <v>2198.114079978981</v>
+        <v>1106.8054717016203</v>
       </c>
       <c r="G186">
-        <v>2160.1097476216655</v>
+        <v>1107.2085972414836</v>
       </c>
       <c r="H186" t="s">
         <v>8</v>
       </c>
       <c r="I186">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J186">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K186">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L186" t="s">
         <v>13</v>
@@ -8037,34 +8034,34 @@
         <v>0.12916666666666668</v>
       </c>
       <c r="B187">
-        <v>2161.519799456772</v>
+        <v>1190.9727727155846</v>
       </c>
       <c r="C187">
-        <v>2161.8162741481542</v>
+        <v>1192.353017441915</v>
       </c>
       <c r="D187">
-        <v>2161.5638199525179</v>
+        <v>1192.793438803355</v>
       </c>
       <c r="E187">
-        <v>2162.4317718819466</v>
+        <v>1192.0008271488982</v>
       </c>
       <c r="F187">
-        <v>2199.612244771979</v>
+        <v>1193.0200499875791</v>
       </c>
       <c r="G187">
-        <v>2161.6062942632711</v>
+        <v>1193.4039360556239</v>
       </c>
       <c r="H187" t="s">
         <v>8</v>
       </c>
       <c r="I187">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J187">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K187">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L187" t="s">
         <v>13</v>
@@ -8078,34 +8075,34 @@
         <v>0.12986111111111112</v>
       </c>
       <c r="B188">
-        <v>2162.5125509777063</v>
+        <v>1270.3885892252022</v>
       </c>
       <c r="C188">
-        <v>2162.8079160882958</v>
+        <v>1271.7511258931013</v>
       </c>
       <c r="D188">
-        <v>2162.5543534560757</v>
+        <v>1272.1738299714441</v>
       </c>
       <c r="E188">
-        <v>2163.4211983839223</v>
+        <v>1271.3634877266256</v>
       </c>
       <c r="F188">
-        <v>2200.6005281589214</v>
+        <v>1272.365009306018</v>
       </c>
       <c r="G188">
-        <v>2162.5935102161457</v>
+        <v>1272.7311891637621</v>
       </c>
       <c r="H188" t="s">
         <v>8</v>
       </c>
       <c r="I188">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J188">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K188">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L188" t="s">
         <v>13</v>
@@ -8119,34 +8116,34 @@
         <v>0.13055555555555556</v>
       </c>
       <c r="B189">
-        <v>2163.167432096317</v>
+        <v>1343.4765884371038</v>
       </c>
       <c r="C189">
-        <v>2163.4620652578778</v>
+        <v>1344.8228281867982</v>
       </c>
       <c r="D189">
-        <v>2163.2077714314223</v>
+        <v>1345.2292268553103</v>
       </c>
       <c r="E189">
-        <v>2164.0738861116488</v>
+        <v>1344.4025669512071</v>
       </c>
       <c r="F189">
-        <v>2201.2524618163338</v>
+        <v>1345.3877978684188</v>
       </c>
       <c r="G189">
-        <v>2163.2447397271517</v>
+        <v>1345.7376825060594</v>
       </c>
       <c r="H189" t="s">
         <v>8</v>
       </c>
       <c r="I189">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J189">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K189">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L189" t="s">
         <v>13</v>
@@ -8160,34 +8157,34 @@
         <v>0.13125000000000001</v>
       </c>
       <c r="B190">
-        <v>2163.5994327233325</v>
+        <v>1410.7410164505759</v>
       </c>
       <c r="C190">
-        <v>2163.8935830454434</v>
+        <v>1412.0722579114481</v>
       </c>
       <c r="D190">
-        <v>2163.6388068774468</v>
+        <v>1412.4636504749828</v>
       </c>
       <c r="E190">
-        <v>2164.5044398405776</v>
+        <v>1411.6219731910444</v>
       </c>
       <c r="F190">
-        <v>2201.6825181132281</v>
+        <v>1412.592211576138</v>
       </c>
       <c r="G190">
-        <v>2163.6743315249469</v>
+        <v>1412.9270994860956</v>
       </c>
       <c r="H190" t="s">
         <v>8</v>
       </c>
       <c r="I190">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J190">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K190">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L190" t="s">
         <v>13</v>
@@ -8201,34 +8198,34 @@
         <v>0.13194444444444445</v>
       </c>
       <c r="B191">
-        <v>2163.8844074102476</v>
+        <v>1472.6459196709698</v>
       </c>
       <c r="C191">
-        <v>2164.1782392211981</v>
+        <v>1473.9633579513277</v>
       </c>
       <c r="D191">
-        <v>2163.9231448704913</v>
+        <v>1474.3409401403253</v>
       </c>
       <c r="E191">
-        <v>2164.7884600628395</v>
+        <v>1473.485442104542</v>
       </c>
       <c r="F191">
-        <v>2201.966210198143</v>
+        <v>1474.4418826066244</v>
       </c>
       <c r="G191">
-        <v>2163.9577171971464</v>
+        <v>1474.7629687718336</v>
       </c>
       <c r="H191" t="s">
         <v>8</v>
       </c>
       <c r="I191">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J191">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K191">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L191" t="s">
         <v>13</v>
@@ -8242,34 +8239,34 @@
         <v>0.13263888888888889</v>
       </c>
       <c r="B192">
-        <v>2164.0723945730042</v>
+        <v>1529.6183556843785</v>
       </c>
       <c r="C192">
-        <v>2164.3660162740321</v>
+        <v>1530.9230906375979</v>
       </c>
       <c r="D192">
-        <v>2164.1107120300708</v>
+        <v>1531.2879628782721</v>
       </c>
       <c r="E192">
-        <v>2164.9758176008941</v>
+        <v>1530.4197453432405</v>
       </c>
       <c r="F192">
-        <v>2202.1533512762412</v>
+        <v>1531.3634873932806</v>
       </c>
       <c r="G192">
-        <v>2164.1446561462153</v>
+        <v>1531.6718715521379</v>
       </c>
       <c r="H192" t="s">
         <v>8</v>
       </c>
       <c r="I192">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J192">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K192">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L192" t="s">
         <v>13</v>
@@ -8283,34 +8280,34 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="B193">
-        <v>2164.1964026866472</v>
+        <v>1582.0513458534106</v>
       </c>
       <c r="C193">
-        <v>2164.4898857860021</v>
+        <v>1583.3443896795172</v>
       </c>
       <c r="D193">
-        <v>2164.2344430832964</v>
+        <v>1583.697564699245</v>
       </c>
       <c r="E193">
-        <v>2165.0994103746248</v>
+        <v>1582.8176411530781</v>
       </c>
       <c r="F193">
-        <v>2202.2768012594188</v>
+        <v>1583.7496965624789</v>
       </c>
       <c r="G193">
-        <v>2164.2679727924174</v>
+        <v>1584.0463908094328</v>
       </c>
       <c r="H193" t="s">
         <v>8</v>
       </c>
       <c r="I193">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J193">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K193">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L193" t="s">
         <v>13</v>
@@ -8324,34 +8321,34 @@
         <v>0.13402777777777777</v>
       </c>
       <c r="B194">
-        <v>2164.2782062099541</v>
+        <v>1630.3065907938385</v>
       </c>
       <c r="C194">
-        <v>2164.5715978789603</v>
+        <v>1631.5888750311569</v>
       </c>
       <c r="D194">
-        <v>2164.3160638401887</v>
+        <v>1631.9312848536879</v>
       </c>
       <c r="E194">
-        <v>2165.1809399136978</v>
+        <v>1631.0405880203712</v>
       </c>
       <c r="F194">
-        <v>2202.3582366048936</v>
+        <v>1631.9618879698771</v>
       </c>
       <c r="G194">
-        <v>2164.3493201804672</v>
+        <v>1632.2478237462301</v>
       </c>
       <c r="H194" t="s">
         <v>8</v>
       </c>
       <c r="I194">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J194">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K194">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L194" t="s">
         <v>13</v>
@@ -8365,34 +8362,34 @@
         <v>0.13472222222222222</v>
       </c>
       <c r="B195">
-        <v>2164.3321689405257</v>
+        <v>1674.7169681915675</v>
       </c>
       <c r="C195">
-        <v>2164.6255002963435</v>
+        <v>1675.9893501484364</v>
       </c>
       <c r="D195">
-        <v>2164.3699060065792</v>
+        <v>1676.3218525289055</v>
       </c>
       <c r="E195">
-        <v>2165.2347219070971</v>
+        <v>1675.421240808078</v>
       </c>
       <c r="F195">
-        <v>2202.4119564622929</v>
+        <v>1676.332642276981</v>
       </c>
       <c r="G195">
-        <v>2164.402982015637</v>
+        <v>1676.6086768018622</v>
       </c>
       <c r="H195" t="s">
         <v>8</v>
       </c>
       <c r="I195">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J195">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K195">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L195" t="s">
         <v>13</v>
@@ -8406,34 +8403,34 @@
         <v>0.13541666666666666</v>
       </c>
       <c r="B196">
-        <v>2164.3677661394377</v>
+        <v>1715.5888307432942</v>
       </c>
       <c r="C196">
-        <v>2164.6610577088964</v>
+        <v>1716.8520994154619</v>
       </c>
       <c r="D196">
-        <v>2164.4054236738007</v>
+        <v>1717.1754837608451</v>
       </c>
       <c r="E196">
-        <v>2165.2701998804428</v>
+        <v>1716.2657471526725</v>
       </c>
       <c r="F196">
-        <v>2202.4473934468397</v>
+        <v>1717.1680388339221</v>
       </c>
       <c r="G196">
-        <v>2164.4383807250847</v>
+        <v>1717.4349610210281</v>
       </c>
       <c r="H196" t="s">
         <v>8</v>
       </c>
       <c r="I196">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J196">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K196">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L196" t="s">
         <v>13</v>
@@ -8447,34 +8444,34 @@
         <v>0.1361111111111111</v>
       </c>
       <c r="B197">
-        <v>2164.3912482827022</v>
+        <v>1753.2041204567217</v>
       </c>
       <c r="C197">
-        <v>2164.6845136065858</v>
+        <v>1754.4590019721074</v>
       </c>
       <c r="D197">
-        <v>2164.4288533529793</v>
+        <v>1754.7739947888006</v>
       </c>
       <c r="E197">
-        <v>2165.293603375053</v>
+        <v>1753.8558603456229</v>
       </c>
       <c r="F197">
-        <v>2202.470769902669</v>
+        <v>1754.7497680884785</v>
       </c>
       <c r="G197">
-        <v>2164.4617319322601</v>
+        <v>1755.0083039902411</v>
       </c>
       <c r="H197" t="s">
         <v>8</v>
       </c>
       <c r="I197">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J197">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K197">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L197" t="s">
         <v>13</v>
@@ -8488,34 +8485,34 @@
         <v>0.13680555555555554</v>
       </c>
       <c r="B198">
-        <v>2164.4067385760172</v>
+        <v>1787.8223141486033</v>
       </c>
       <c r="C198">
-        <v>2164.6999865866737</v>
+        <v>1789.0694767775094</v>
       </c>
       <c r="D198">
-        <v>2164.4443090376944</v>
+        <v>1789.3767466841477</v>
       </c>
       <c r="E198">
-        <v>2165.309041786787</v>
+        <v>1788.4508835270578</v>
       </c>
       <c r="F198">
-        <v>2202.4861904779277</v>
+        <v>1789.3370753453771</v>
       </c>
       <c r="G198">
-        <v>2164.4771358519247</v>
+        <v>1789.5878931626437</v>
       </c>
       <c r="H198" t="s">
         <v>8</v>
       </c>
       <c r="I198">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J198">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K198">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L198" t="s">
         <v>13</v>
@@ -8529,34 +8526,34 @@
         <v>0.13749999999999998</v>
       </c>
       <c r="B199">
-        <v>2164.4169569442647</v>
+        <v>1819.6822137224065</v>
       </c>
       <c r="C199">
-        <v>2164.7101935340329</v>
+        <v>1820.922272488106</v>
       </c>
       <c r="D199">
-        <v>2164.4545045759414</v>
+        <v>1821.2224348285433</v>
       </c>
       <c r="E199">
-        <v>2165.319225930692</v>
+        <v>1820.2894587638227</v>
       </c>
       <c r="F199">
-        <v>2202.4963628557771</v>
+        <v>1821.1685494448709</v>
       </c>
       <c r="G199">
-        <v>2164.4872972426983</v>
+        <v>1821.412264137002</v>
       </c>
       <c r="H199" t="s">
         <v>8</v>
       </c>
       <c r="I199">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J199">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K199">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L199" t="s">
         <v>13</v>
@@ -8570,34 +8567,34 @@
         <v>0.13819444444444443</v>
       </c>
       <c r="B200">
-        <v>2164.4236976203433</v>
+        <v>1849.0035936757267</v>
       </c>
       <c r="C200">
-        <v>2164.7169266761771</v>
+        <v>1850.2371145974237</v>
       </c>
       <c r="D200">
-        <v>2164.4612301919201</v>
+        <v>1850.5307356859059</v>
       </c>
       <c r="E200">
-        <v>2165.325944030249</v>
+        <v>1849.5912134533896</v>
       </c>
       <c r="F200">
-        <v>2202.5030731937054</v>
+        <v>1850.4637687991703</v>
       </c>
       <c r="G200">
-        <v>2164.4940003328661</v>
+        <v>1850.7009463265549</v>
       </c>
       <c r="H200" t="s">
         <v>8</v>
       </c>
       <c r="I200">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J200">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K200">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L200" t="s">
         <v>13</v>
@@ -8611,34 +8608,34 @@
         <v>0.1388888888888889</v>
       </c>
       <c r="B201">
-        <v>2164.4281441927178</v>
+        <v>1875.988717263592</v>
       </c>
       <c r="C201">
-        <v>2164.7213682786964</v>
+        <v>1877.2162212611634</v>
       </c>
       <c r="D201">
-        <v>2164.4656668297093</v>
+        <v>1877.5038222891028</v>
       </c>
       <c r="E201">
-        <v>2165.3303757097356</v>
+        <v>1876.5582754718819</v>
       </c>
       <c r="F201">
-        <v>2202.5074997531356</v>
+        <v>1877.424816202381</v>
       </c>
       <c r="G201">
-        <v>2164.4984221112168</v>
+        <v>1877.6559774307709</v>
       </c>
       <c r="H201" t="s">
         <v>8</v>
       </c>
       <c r="I201">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J201">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K201">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L201" t="s">
         <v>13</v>
@@ -8652,34 +8649,34 @@
         <v>0.13958333333333334</v>
       </c>
       <c r="B202">
-        <v>2164.43107743052</v>
+        <v>1900.8237318133743</v>
       </c>
       <c r="C202">
-        <v>2164.7242982380708</v>
+        <v>1902.0456983009008</v>
       </c>
       <c r="D202">
-        <v>2164.468593514036</v>
+        <v>1902.3277589322788</v>
       </c>
       <c r="E202">
-        <v>2165.3332991232551</v>
+        <v>1901.3766675548077</v>
       </c>
       <c r="F202">
-        <v>2202.5104197891455</v>
+        <v>1902.2376729001396</v>
       </c>
       <c r="G202">
-        <v>2164.5013389933279</v>
+        <v>1902.4632971938042</v>
       </c>
       <c r="H202" t="s">
         <v>8</v>
       </c>
       <c r="I202">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J202">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K202">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L202" t="s">
         <v>13</v>
@@ -8693,34 +8690,34 @@
         <v>0.14027777777777778</v>
       </c>
       <c r="B203">
-        <v>1666.0453248722681</v>
+        <v>1923.6799528384697</v>
       </c>
       <c r="C203">
-        <v>1665.2276665548538</v>
+        <v>1924.8968230313883</v>
       </c>
       <c r="D203">
-        <v>1663.8623741717347</v>
+        <v>1925.1737847116312</v>
       </c>
       <c r="E203">
-        <v>1663.6186248828867</v>
+        <v>1924.2175905510865</v>
       </c>
       <c r="F203">
-        <v>1662.1881385762297</v>
+        <v>1925.0735015573839</v>
       </c>
       <c r="G203">
-        <v>1660.5734247699716</v>
+        <v>1925.2940300859173</v>
       </c>
       <c r="H203" t="s">
         <v>8</v>
       </c>
       <c r="I203">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J203">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K203">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L203" t="s">
         <v>13</v>
@@ -8734,34 +8731,34 @@
         <v>0.14097222222222222</v>
       </c>
       <c r="B204">
-        <v>1327.7193938619607</v>
+        <v>1944.7150458217959</v>
       </c>
       <c r="C204">
-        <v>1327.2795278833928</v>
+        <v>1945.9272257805155</v>
       </c>
       <c r="D204">
-        <v>1326.2916394145295</v>
+        <v>1946.1994947816984</v>
       </c>
       <c r="E204">
-        <v>1326.424805948363</v>
+        <v>1945.238604415475</v>
       </c>
       <c r="F204">
-        <v>1325.3708863361305</v>
+        <v>1946.0898269873303</v>
       </c>
       <c r="G204">
-        <v>1324.1323301157627</v>
+        <v>1946.3056657689549</v>
       </c>
       <c r="H204" t="s">
         <v>8</v>
       </c>
       <c r="I204">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J204">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K204">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L204" t="s">
         <v>13</v>
@@ -8775,34 +8772,34 @@
         <v>0.14166666666666666</v>
       </c>
       <c r="B205">
-        <v>1104.4657744073006</v>
+        <v>1964.074113828887</v>
       </c>
       <c r="C205">
-        <v>1104.2752442988101</v>
+        <v>1965.2819772598812</v>
       </c>
       <c r="D205">
-        <v>1103.5364348932092</v>
+        <v>1965.5499274832773</v>
       </c>
       <c r="E205">
-        <v>1103.918358258022</v>
+        <v>1964.584715093642</v>
       </c>
       <c r="F205">
-        <v>1103.1129644789676</v>
+        <v>1965.4316227941281</v>
       </c>
       <c r="G205">
-        <v>1102.1226637236077</v>
+        <v>1965.6431454964907</v>
       </c>
       <c r="H205" t="s">
         <v>8</v>
       </c>
       <c r="I205">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J205">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K205">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L205" t="s">
         <v>13</v>
@@ -8816,34 +8813,34 @@
         <v>0.1423611111111111</v>
       </c>
       <c r="B206">
-        <v>957.14901318284865</v>
+        <v>1981.890698457519</v>
       </c>
       <c r="C206">
-        <v>957.12301213138403</v>
+        <v>1983.0945892912221</v>
       </c>
       <c r="D206">
-        <v>956.5485623041875</v>
+        <v>1983.3585648465451</v>
       </c>
       <c r="E206">
-        <v>957.09463261538008</v>
+        <v>1982.389374801814</v>
       </c>
       <c r="F206">
-        <v>956.4532333278288</v>
+        <v>1983.2323114293911</v>
       </c>
       <c r="G206">
-        <v>955.62674864129531</v>
+        <v>1983.4398619471929</v>
       </c>
       <c r="H206" t="s">
         <v>8</v>
       </c>
       <c r="I206">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J206">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K206">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L206" t="s">
         <v>13</v>
@@ -8857,34 +8854,34 @@
         <v>0.14305555555555557</v>
       </c>
       <c r="B207">
-        <v>859.94029352840209</v>
+        <v>1998.2877010312045</v>
       </c>
       <c r="C207">
-        <v>860.022859001847</v>
+        <v>1999.4879357945013</v>
       </c>
       <c r="D207">
-        <v>859.55686386610932</v>
+        <v>1999.748253373632</v>
       </c>
       <c r="E207">
-        <v>860.21124856101585</v>
+        <v>1998.7754026036826</v>
       </c>
       <c r="F207">
-        <v>859.67806305668648</v>
+        <v>1999.614684563777</v>
       </c>
       <c r="G207">
-        <v>858.95967441832533</v>
+        <v>1999.8185793910175</v>
       </c>
       <c r="H207" t="s">
         <v>8</v>
       </c>
       <c r="I207">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J207">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K207">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L207" t="s">
         <v>13</v>
@@ -8898,34 +8895,34 @@
         <v>0.14375000000000002</v>
       </c>
       <c r="B208">
-        <v>795.7959676163963</v>
+        <v>2013.3782303925655</v>
       </c>
       <c r="C208">
-        <v>795.9501720011134</v>
+        <v>2014.5751003922442</v>
       </c>
       <c r="D208">
-        <v>795.5557419819753</v>
+        <v>2014.8320514538184</v>
       </c>
       <c r="E208">
-        <v>796.28159920976088</v>
+        <v>2013.8558316363246</v>
       </c>
       <c r="F208">
-        <v>795.81981985581876</v>
+        <v>2014.6917501239416</v>
       </c>
       <c r="G208">
-        <v>795.17275967894375</v>
+        <v>2014.8922805371446</v>
       </c>
       <c r="H208" t="s">
         <v>8</v>
       </c>
       <c r="I208">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J208">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K208">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L208" t="s">
         <v>13</v>
@@ -8939,34 +8936,34 @@
         <v>0.14444444444444446</v>
       </c>
       <c r="B209">
-        <v>753.4695740900255</v>
+        <v>2027.2663831455914</v>
       </c>
       <c r="C209">
-        <v>753.6710502593603</v>
+        <v>2028.4601564778227</v>
       </c>
       <c r="D209">
-        <v>753.32384333054824</v>
+        <v>2028.714009257759</v>
       </c>
       <c r="E209">
-        <v>754.09686255619511</v>
+        <v>2027.7346888302227</v>
       </c>
       <c r="F209">
-        <v>753.68220139683694</v>
+        <v>2028.5675118386575</v>
       </c>
       <c r="G209">
-        <v>753.08220815060338</v>
+        <v>2028.7649459061392</v>
       </c>
       <c r="H209" t="s">
         <v>8</v>
       </c>
       <c r="I209">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J209">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K209">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L209" t="s">
         <v>13</v>
@@ -8980,34 +8977,34 @@
         <v>0.1451388888888889</v>
       </c>
       <c r="B210">
-        <v>725.54000178989179</v>
+        <v>2040.0479617295985</v>
       </c>
       <c r="C210">
-        <v>725.77267080644287</v>
+        <v>2041.2388851293001</v>
       </c>
       <c r="D210">
-        <v>725.45662459334233</v>
+        <v>2041.4898864911327</v>
       </c>
       <c r="E210">
-        <v>726.26076422211372</v>
+        <v>2040.5077125026089</v>
       </c>
       <c r="F210">
-        <v>725.87719456176876</v>
+        <v>2041.3376866721028</v>
       </c>
       <c r="G210">
-        <v>725.3082589874283</v>
+        <v>2041.5322711031461</v>
       </c>
       <c r="H210" t="s">
         <v>8</v>
       </c>
       <c r="I210">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J210">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K210">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L210" t="s">
         <v>13</v>
@@ -9021,34 +9018,34 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="B211">
-        <v>707.11034256653852</v>
+        <v>2051.8111352784763</v>
       </c>
       <c r="C211">
-        <v>707.36359455293393</v>
+        <v>2052.9994358213285</v>
       </c>
       <c r="D211">
-        <v>707.06811010732281</v>
+        <v>2053.2478129591054</v>
       </c>
       <c r="E211">
-        <v>707.89278490284676</v>
+        <v>2052.2630127743801</v>
       </c>
       <c r="F211">
-        <v>707.52973133653302</v>
+        <v>2053.0903650934779</v>
       </c>
       <c r="G211">
-        <v>706.98128953499759</v>
+        <v>2053.2823269401724</v>
       </c>
       <c r="H211" t="s">
         <v>8</v>
       </c>
       <c r="I211">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J211">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K211">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L211" t="s">
         <v>13</v>
@@ -9062,34 +9059,34 @@
         <v>0.14652777777777778</v>
       </c>
       <c r="B212">
-        <v>694.94931355262247</v>
+        <v>2062.6370478240747</v>
       </c>
       <c r="C212">
-        <v>695.21614745555985</v>
+        <v>2063.8229344929205</v>
       </c>
       <c r="D212">
-        <v>694.93423093586591</v>
+        <v>2064.0688964984188</v>
       </c>
       <c r="E212">
-        <v>695.77245610449484</v>
+        <v>2063.0816793664076</v>
       </c>
       <c r="F212">
-        <v>695.42294032592565</v>
+        <v>2063.9066187377616</v>
       </c>
       <c r="G212">
-        <v>694.8880215832088</v>
+        <v>2064.096166961237</v>
       </c>
       <c r="H212" t="s">
         <v>8</v>
       </c>
       <c r="I212">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J212">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K212">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L212" t="s">
         <v>13</v>
@@ -9103,34 +9100,34 @@
         <v>0.14722222222222223</v>
       </c>
       <c r="B213">
-        <v>686.92471446020454</v>
+        <v>2072.6003780393439</v>
       </c>
       <c r="C213">
-        <v>687.20051055170597</v>
+        <v>2073.7840431657828</v>
       </c>
       <c r="D213">
-        <v>686.92754698869658</v>
+        <v>2074.0277824708583</v>
       </c>
       <c r="E213">
-        <v>687.77471353157887</v>
+        <v>2073.0383409680303</v>
       </c>
       <c r="F213">
-        <v>687.43413082266363</v>
+        <v>2073.8610596494373</v>
       </c>
       <c r="G213">
-        <v>686.90813543054503</v>
+        <v>2074.0483865613105</v>
       </c>
       <c r="H213" t="s">
         <v>8</v>
       </c>
       <c r="I213">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J213">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K213">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L213" t="s">
         <v>13</v>
@@ -9144,34 +9141,34 @@
         <v>0.14791666666666667</v>
       </c>
       <c r="B214">
-        <v>681.62958766457393</v>
+        <v>2081.7698543824704</v>
       </c>
       <c r="C214">
-        <v>681.91129756239354</v>
+        <v>2082.9514749735872</v>
       </c>
       <c r="D214">
-        <v>681.64424171393716</v>
+        <v>2083.1931686775929</v>
       </c>
       <c r="E214">
-        <v>682.49730832856824</v>
+        <v>2082.2016800363963</v>
       </c>
       <c r="F214">
-        <v>682.16262021151329</v>
+        <v>2083.0223549670181</v>
       </c>
       <c r="G214">
-        <v>681.64251299802061</v>
+        <v>2083.207637555985</v>
       </c>
       <c r="H214" t="s">
         <v>8</v>
       </c>
       <c r="I214">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J214">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K214">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L214" t="s">
         <v>13</v>
@@ -9185,34 +9182,34 @@
         <v>0.14861111111111111</v>
       </c>
       <c r="B215">
-        <v>678.13553550584254</v>
+        <v>2090.208729195514</v>
       </c>
       <c r="C215">
-        <v>678.42114769883472</v>
+        <v>2091.3884681549007</v>
       </c>
       <c r="D215">
-        <v>678.15799012582738</v>
+        <v>2091.6282792463458</v>
       </c>
       <c r="E215">
-        <v>679.01494997271254</v>
+        <v>2090.6349065777754</v>
       </c>
       <c r="F215">
-        <v>678.6841514719423</v>
+        <v>2091.4537005986954</v>
       </c>
       <c r="G215">
-        <v>678.16792964288584</v>
+        <v>2091.6371017514234</v>
       </c>
       <c r="H215" t="s">
         <v>8</v>
       </c>
       <c r="I215">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J215">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K215">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L215" t="s">
         <v>13</v>
@@ -9226,34 +9223,34 @@
         <v>0.14930555555555555</v>
       </c>
       <c r="B216">
-        <v>675.8299437874341</v>
+        <v>2097.9752150280406</v>
       </c>
       <c r="C216">
-        <v>676.11813095613456</v>
+        <v>2099.1532222795295</v>
       </c>
       <c r="D216">
-        <v>675.85754570637346</v>
+        <v>2099.3913007603937</v>
       </c>
       <c r="E216">
-        <v>676.71707454869272</v>
+        <v>2098.3961941791608</v>
       </c>
       <c r="F216">
-        <v>676.38884265731679</v>
+        <v>2099.2132571566808</v>
       </c>
       <c r="G216">
-        <v>675.87518464521872</v>
+        <v>2099.3949267814246</v>
       </c>
       <c r="H216" t="s">
         <v>8</v>
       </c>
       <c r="I216">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J216">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K216">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L216" t="s">
         <v>13</v>
@@ -9267,34 +9264,34 @@
         <v>0.15</v>
       </c>
       <c r="B217">
-        <v>674.30857177279199</v>
+        <v>2105.1228861954969</v>
       </c>
       <c r="C217">
-        <v>674.59845806972498</v>
+        <v>2106.2992997173524</v>
       </c>
       <c r="D217">
-        <v>674.33957019793752</v>
+        <v>2106.5357836378262</v>
       </c>
       <c r="E217">
-        <v>675.20079422233448</v>
+        <v>2105.5390812978658</v>
       </c>
       <c r="F217">
-        <v>674.87425593857927</v>
+        <v>2106.3545511573057</v>
       </c>
       <c r="G217">
-        <v>674.36228969148056</v>
+        <v>2106.5346272179954</v>
       </c>
       <c r="H217" t="s">
         <v>8</v>
       </c>
       <c r="I217">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J217">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K217">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L217" t="s">
         <v>13</v>
@@ -9308,34 +9305,34 @@
         <v>0.15069444444444444</v>
       </c>
       <c r="B218">
-        <v>673.30467642199949</v>
+        <v>2111.701048342426</v>
       </c>
       <c r="C218">
-        <v>673.59568390882964</v>
+        <v>2112.8759951191419</v>
       </c>
       <c r="D218">
-        <v>673.33791607201078</v>
+        <v>2113.1110115299107</v>
       </c>
       <c r="E218">
-        <v>674.20025868238804</v>
+        <v>2112.1128405773893</v>
       </c>
       <c r="F218">
-        <v>673.87483794568925</v>
+        <v>2112.9268442545153</v>
       </c>
       <c r="G218">
-        <v>673.36398802977112</v>
+        <v>2113.1054537224536</v>
       </c>
       <c r="H218" t="s">
         <v>8</v>
       </c>
       <c r="I218">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J218">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K218">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L218" t="s">
         <v>13</v>
@@ -9349,34 +9346,34 @@
         <v>0.15138888888888888</v>
       </c>
       <c r="B219">
-        <v>676.27671120972548</v>
+        <v>2122.9102736709669</v>
       </c>
       <c r="C219">
-        <v>676.57645563751191</v>
+        <v>2124.1275326756199</v>
       </c>
       <c r="D219">
-        <v>676.35748471997431</v>
+        <v>2124.4349344385842</v>
       </c>
       <c r="E219">
-        <v>677.25861510282778</v>
+        <v>2123.388832791662</v>
       </c>
       <c r="F219">
-        <v>676.85169162834916</v>
+        <v>2124.3052952173985</v>
       </c>
       <c r="G219">
-        <v>676.39965598409003</v>
+        <v>2124.4259449661058</v>
       </c>
       <c r="H219" t="s">
         <v>8</v>
       </c>
       <c r="I219">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J219">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K219">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L219" t="s">
         <v>13</v>
@@ -9390,34 +9387,34 @@
         <v>0.15208333333333332</v>
       </c>
       <c r="B220">
-        <v>678.2749750768545</v>
+        <v>2133.3312921324937</v>
       </c>
       <c r="C220">
-        <v>678.57248774593529</v>
+        <v>2134.5462270237094</v>
       </c>
       <c r="D220">
-        <v>678.35128737956245</v>
+        <v>2134.8513035203855</v>
       </c>
       <c r="E220">
-        <v>679.25019119745616</v>
+        <v>2133.8028746430614</v>
       </c>
       <c r="F220">
-        <v>678.84104318441564</v>
+        <v>2134.7170139611626</v>
       </c>
       <c r="G220">
-        <v>678.38678547143445</v>
+        <v>2134.8353396601051</v>
       </c>
       <c r="H220" t="s">
         <v>8</v>
       </c>
       <c r="I220">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J220">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K220">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L220" t="s">
         <v>13</v>
@@ -9431,34 +9428,34 @@
         <v>0.15277777777777776</v>
       </c>
       <c r="B221">
-        <v>679.5935517979774</v>
+        <v>2142.9218354106997</v>
       </c>
       <c r="C221">
-        <v>679.88959182889187</v>
+        <v>2144.1346316131553</v>
       </c>
       <c r="D221">
-        <v>679.66692034830419</v>
+        <v>2144.4375683589456</v>
       </c>
       <c r="E221">
-        <v>680.56435495510254</v>
+        <v>2143.3869979216338</v>
       </c>
       <c r="F221">
-        <v>680.1537390676765</v>
+        <v>2144.2989994752515</v>
       </c>
       <c r="G221">
-        <v>679.69801510994364</v>
+        <v>2144.4151865416193</v>
       </c>
       <c r="H221" t="s">
         <v>8</v>
       </c>
       <c r="I221">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J221">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K221">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L221" t="s">
         <v>13</v>
@@ -9472,34 +9469,34 @@
         <v>0.15347222222222223</v>
       </c>
       <c r="B222">
-        <v>680.4636305158125</v>
+        <v>2151.7481427654188</v>
       </c>
       <c r="C222">
-        <v>680.75869880940058</v>
+        <v>2152.9589708220815</v>
       </c>
       <c r="D222">
-        <v>680.53505659707196</v>
+        <v>2153.2599384439504</v>
       </c>
       <c r="E222">
-        <v>681.43152172793407</v>
+        <v>2152.2073972169251</v>
       </c>
       <c r="F222">
-        <v>681.0199372465928</v>
+        <v>2153.1174314746058</v>
       </c>
       <c r="G222">
-        <v>680.5632457702709</v>
+        <v>2153.2316504455343</v>
       </c>
       <c r="H222" t="s">
         <v>8</v>
       </c>
       <c r="I222">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J222">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K222">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L222" t="s">
         <v>13</v>
@@ -9513,34 +9510,34 @@
         <v>0.15416666666666667</v>
       </c>
       <c r="B223">
-        <v>681.03776249096393</v>
+        <v>2159.8711453427459</v>
       </c>
       <c r="C223">
-        <v>681.33218957195106</v>
+        <v>2161.0801621476253</v>
       </c>
       <c r="D223">
-        <v>681.10790681056812</v>
+        <v>2161.3793176171635</v>
       </c>
       <c r="E223">
-        <v>682.0037322210344</v>
+        <v>2160.3249627042737</v>
       </c>
       <c r="F223">
-        <v>681.59150860130808</v>
+        <v>2161.2331864918751</v>
       </c>
       <c r="G223">
-        <v>681.13417869616808</v>
+        <v>2161.3455942566029</v>
       </c>
       <c r="H223" t="s">
         <v>8</v>
       </c>
       <c r="I223">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J223">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K223">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L223" t="s">
         <v>13</v>
@@ -9554,34 +9551,34 @@
         <v>0.15486111111111112</v>
       </c>
       <c r="B224">
-        <v>681.41661042858755</v>
+        <v>2167.3469023812027</v>
       </c>
       <c r="C224">
-        <v>681.71061439767539</v>
+        <v>2168.5542522933579</v>
       </c>
       <c r="D224">
-        <v>681.48590896224277</v>
+        <v>2168.8517400411765</v>
       </c>
       <c r="E224">
-        <v>682.38131224545964</v>
+        <v>2167.7957159949638</v>
       </c>
       <c r="F224">
-        <v>681.96866688253067</v>
+        <v>2168.7022736090116</v>
       </c>
       <c r="G224">
-        <v>681.51091570240465</v>
+        <v>2168.8130145225368</v>
       </c>
       <c r="H224" t="s">
         <v>8</v>
       </c>
       <c r="I224">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J224">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K224">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L224" t="s">
         <v>13</v>
@@ -9595,34 +9592,34 @@
         <v>0.15555555555555556</v>
       </c>
       <c r="B225">
-        <v>681.66659782897239</v>
+        <v>2174.2269968675428</v>
       </c>
       <c r="C225">
-        <v>681.96032260254901</v>
+        <v>2175.4328127247454</v>
       </c>
       <c r="D225">
-        <v>681.73533826052483</v>
+        <v>2175.7287656545604</v>
       </c>
       <c r="E225">
-        <v>682.63046299796372</v>
+        <v>2174.6712054910649</v>
       </c>
       <c r="F225">
-        <v>682.21753934267406</v>
+        <v>2175.5762297118963</v>
       </c>
       <c r="G225">
-        <v>681.75951017914599</v>
+        <v>2175.6854366084453</v>
       </c>
       <c r="H225" t="s">
         <v>8</v>
       </c>
       <c r="I225">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J225">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K225">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L225" t="s">
         <v>13</v>
@@ -9636,34 +9633,34 @@
         <v>0.15625</v>
       </c>
       <c r="B226">
-        <v>681.83155504306444</v>
+        <v>2180.5588964003027</v>
       </c>
       <c r="C226">
-        <v>682.125095586101</v>
+        <v>2181.7633004454256</v>
       </c>
       <c r="D226">
-        <v>681.89992720418434</v>
+        <v>2182.0578408608417</v>
       </c>
       <c r="E226">
-        <v>682.79486813981748</v>
+        <v>2180.9988669871109</v>
       </c>
       <c r="F226">
-        <v>682.38176084994302</v>
+        <v>2181.9024800047928</v>
       </c>
       <c r="G226">
-        <v>681.92354825569987</v>
+        <v>2182.0102751240756</v>
       </c>
       <c r="H226" t="s">
         <v>8</v>
       </c>
       <c r="I226">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J226">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K226">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L226" t="s">
         <v>13</v>
@@ -9677,34 +9674,34 @@
         <v>0.15694444444444444</v>
       </c>
       <c r="B227">
-        <v>691.52958121474103</v>
+        <v>2199.8166085462399</v>
       </c>
       <c r="C227">
-        <v>691.98692985058494</v>
+        <v>2201.1263448589248</v>
       </c>
       <c r="D227">
-        <v>691.63987917957513</v>
+        <v>2201.4547713471793</v>
       </c>
       <c r="E227">
-        <v>692.62716592396362</v>
+        <v>2200.3582358138078</v>
       </c>
       <c r="F227">
-        <v>692.23496226963107</v>
+        <v>2201.2957218633351</v>
       </c>
       <c r="G227">
-        <v>691.71431062981731</v>
+        <v>2201.6635922706073</v>
       </c>
       <c r="H227" t="s">
         <v>8</v>
       </c>
       <c r="I227">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J227">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K227">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L227" t="s">
         <v>13</v>
@@ -9718,34 +9715,34 @@
         <v>0.15763888888888888</v>
       </c>
       <c r="B228">
-        <v>698.02601596412148</v>
+        <v>2217.7439520228145</v>
       </c>
       <c r="C228">
-        <v>698.47610925544575</v>
+        <v>2219.049689926579</v>
       </c>
       <c r="D228">
-        <v>698.12181042153054</v>
+        <v>2219.3741157994496</v>
       </c>
       <c r="E228">
-        <v>699.10185862447929</v>
+        <v>2218.2735760497817</v>
       </c>
       <c r="F228">
-        <v>698.70242293416061</v>
+        <v>2219.2070651983472</v>
       </c>
       <c r="G228">
-        <v>698.17454719289037</v>
+        <v>2219.570937799464</v>
       </c>
       <c r="H228" t="s">
         <v>8</v>
       </c>
       <c r="I228">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J228">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K228">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L228" t="s">
         <v>13</v>
@@ -9759,34 +9756,34 @@
         <v>0.15833333333333333</v>
       </c>
       <c r="B229">
-        <v>702.31276621601512</v>
+        <v>2234.2425069926026</v>
       </c>
       <c r="C229">
-        <v>702.75807201705982</v>
+        <v>2235.5445656978086</v>
       </c>
       <c r="D229">
-        <v>702.39899043088917</v>
+        <v>2235.8653103384754</v>
       </c>
       <c r="E229">
-        <v>703.37426223098862</v>
+        <v>2234.7610860387313</v>
       </c>
       <c r="F229">
-        <v>702.97005442930379</v>
+        <v>2235.6908973728814</v>
       </c>
       <c r="G229">
-        <v>702.43741181197981</v>
+        <v>2236.0510913243893</v>
       </c>
       <c r="H229" t="s">
         <v>8</v>
       </c>
       <c r="I229">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J229">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K229">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L229" t="s">
         <v>13</v>
@@ -9800,34 +9797,34 @@
         <v>0.15902777777777777</v>
       </c>
       <c r="B230">
-        <v>705.14143291705238</v>
+        <v>2249.426292526502</v>
       </c>
       <c r="C230">
-        <v>705.58357963367473</v>
+        <v>2250.7249655347132</v>
       </c>
       <c r="D230">
-        <v>705.22134208948057</v>
+        <v>2251.0423226051012</v>
       </c>
       <c r="E230">
-        <v>706.19346212132359</v>
+        <v>2249.9347076793883</v>
       </c>
       <c r="F230">
-        <v>705.78610538310556</v>
+        <v>2250.8611345883369</v>
       </c>
       <c r="G230">
-        <v>705.25031728381521</v>
+        <v>2251.2179433447959</v>
       </c>
       <c r="H230" t="s">
         <v>8</v>
       </c>
       <c r="I230">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J230">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K230">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L230" t="s">
         <v>13</v>
@@ -9841,34 +9838,34 @@
         <v>0.15972222222222224</v>
       </c>
       <c r="B231">
-        <v>707.00796480992096</v>
+        <v>2263.4001652357674</v>
       </c>
       <c r="C231">
-        <v>707.44802696439865</v>
+        <v>2264.6957225076617</v>
       </c>
       <c r="D231">
-        <v>707.08370692105154</v>
+        <v>2265.0099621167642</v>
       </c>
       <c r="E231">
-        <v>708.05374721841463</v>
+        <v>2263.899226916325</v>
       </c>
       <c r="F231">
-        <v>707.64431261426216</v>
+        <v>2264.822539258249</v>
       </c>
       <c r="G231">
-        <v>707.10644892857613</v>
+        <v>2265.1762327385031</v>
       </c>
       <c r="H231" t="s">
         <v>8</v>
       </c>
       <c r="I231">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J231">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K231">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L231" t="s">
         <v>13</v>
@@ -9882,34 +9879,34 @@
         <v>0.16041666666666668</v>
       </c>
       <c r="B232">
-        <v>708.23961975640361</v>
+        <v>2276.2605831251017</v>
       </c>
       <c r="C232">
-        <v>708.67830638588987</v>
+        <v>2277.5532730238679</v>
       </c>
       <c r="D232">
-        <v>708.31261217884287</v>
+        <v>2277.8646436717881</v>
       </c>
       <c r="E232">
-        <v>709.28128013681101</v>
+        <v>2276.7510369202082</v>
       </c>
       <c r="F232">
-        <v>708.87047442624657</v>
+        <v>2277.6714829644757</v>
       </c>
       <c r="G232">
-        <v>708.33124113833196</v>
+        <v>2278.0223094940211</v>
       </c>
       <c r="H232" t="s">
         <v>8</v>
       </c>
       <c r="I232">
-        <v>22</v>
+        <v>21.992000000000001</v>
       </c>
       <c r="J232">
-        <v>80</v>
+        <v>80.001300000000001</v>
       </c>
       <c r="K232">
-        <v>3.943E-2</v>
+        <v>0.28560999999999998</v>
       </c>
       <c r="L232" t="s">
         <v>13</v>
@@ -9923,22 +9920,22 @@
         <v>0.16111111111111112</v>
       </c>
       <c r="B233">
-        <v>709.05234302888869</v>
+        <v>1752.2991176228081</v>
       </c>
       <c r="C233">
-        <v>709.49012200061338</v>
+        <v>1752.4101170197428</v>
       </c>
       <c r="D233">
-        <v>709.12352103407022</v>
+        <v>1751.5411767707396</v>
       </c>
       <c r="E233">
-        <v>710.0912834363329</v>
+        <v>1749.2486801682662</v>
       </c>
       <c r="F233">
-        <v>709.67957298366309</v>
+        <v>1748.991335408271</v>
       </c>
       <c r="G233">
-        <v>709.13943594619718</v>
+        <v>1748.1657090586482</v>
       </c>
       <c r="H233" t="s">
         <v>8</v>
@@ -9964,22 +9961,22 @@
         <v>0.16180555555555556</v>
       </c>
       <c r="B234">
-        <v>709.58862887709768</v>
+        <v>1402.5609051730394</v>
       </c>
       <c r="C234">
-        <v>710.02580891923685</v>
+        <v>1403.062456905034</v>
       </c>
       <c r="D234">
-        <v>709.65860961584042</v>
+        <v>1402.5836935099176</v>
       </c>
       <c r="E234">
-        <v>710.62577447558658</v>
+        <v>1400.6810255050286</v>
       </c>
       <c r="F234">
-        <v>710.21346701726452</v>
+        <v>1400.8129485982138</v>
       </c>
       <c r="G234">
-        <v>709.67273362909577</v>
+        <v>1400.3761904798469</v>
       </c>
       <c r="H234" t="s">
         <v>8</v>
@@ -10005,22 +10002,22 @@
         <v>0.16250000000000001</v>
       </c>
       <c r="B235">
-        <v>709.9425039545406</v>
+        <v>1171.7825454807946</v>
       </c>
       <c r="C235">
-        <v>710.37928878533091</v>
+        <v>1172.5417992975547</v>
       </c>
       <c r="D235">
-        <v>710.01169466170745</v>
+        <v>1172.3204903368814</v>
       </c>
       <c r="E235">
-        <v>710.97846522537986</v>
+        <v>1170.6750470956413</v>
       </c>
       <c r="F235">
-        <v>710.56576382524077</v>
+        <v>1171.0638249369383</v>
       </c>
       <c r="G235">
-        <v>710.02463692743208</v>
+        <v>1170.8836579682611</v>
       </c>
       <c r="H235" t="s">
         <v>8</v>
@@ -10046,22 +10043,22 @@
         <v>0.16319444444444445</v>
       </c>
       <c r="B236">
-        <v>710.17601295138002</v>
+        <v>1019.5004179720351</v>
       </c>
       <c r="C236">
-        <v>710.6125369969061</v>
+        <v>1020.4297195666547</v>
       </c>
       <c r="D236">
-        <v>710.24468234610504</v>
+        <v>1020.3782949736878</v>
       </c>
       <c r="E236">
-        <v>711.2111927284692</v>
+        <v>1018.90258455484</v>
       </c>
       <c r="F236">
-        <v>710.79823138078268</v>
+        <v>1019.4608510577718</v>
       </c>
       <c r="G236">
-        <v>710.2568448206041</v>
+        <v>1019.4499988160385</v>
       </c>
       <c r="H236" t="s">
         <v>8</v>
@@ -10087,22 +10084,22 @@
         <v>0.16388888888888889</v>
       </c>
       <c r="B237">
-        <v>710.33009685013678</v>
+        <v>919.01503193613541</v>
       </c>
       <c r="C237">
-        <v>710.76644881316997</v>
+        <v>920.05654180358079</v>
       </c>
       <c r="D237">
-        <v>710.3984222501781</v>
+        <v>920.11721765531865</v>
       </c>
       <c r="E237">
-        <v>711.36476094857755</v>
+        <v>918.75350768227247</v>
       </c>
       <c r="F237">
-        <v>710.95162807117651</v>
+        <v>919.4236135181859</v>
       </c>
       <c r="G237">
-        <v>710.41007016946105</v>
+        <v>919.52448583650641</v>
       </c>
       <c r="H237" t="s">
         <v>8</v>
@@ -10128,22 +10125,22 @@
         <v>0.16458333333333333</v>
       </c>
       <c r="B238">
-        <v>710.43177108186842</v>
+        <v>852.70841310903108</v>
       </c>
       <c r="C238">
-        <v>710.86800949406756</v>
+        <v>853.8239650975014</v>
       </c>
       <c r="D238">
-        <v>710.49986949261734</v>
+        <v>853.95861191845643</v>
       </c>
       <c r="E238">
-        <v>711.46609490315643</v>
+        <v>852.66880692903442</v>
       </c>
       <c r="F238">
-        <v>711.05284883967852</v>
+        <v>853.41271143612732</v>
       </c>
       <c r="G238">
-        <v>710.5111778760587</v>
+        <v>853.58730669119359</v>
       </c>
       <c r="H238" t="s">
         <v>8</v>
@@ -10169,22 +10166,22 @@
         <v>0.16527777777777777</v>
       </c>
       <c r="B239">
-        <v>710.49886212435706</v>
+        <v>808.95510848490494</v>
       </c>
       <c r="C239">
-        <v>710.93502560858565</v>
+        <v>810.11951815201473</v>
       </c>
       <c r="D239">
-        <v>710.56681075331733</v>
+        <v>810.30297570114305</v>
       </c>
       <c r="E239">
-        <v>711.53296140941234</v>
+        <v>809.06193789842371</v>
       </c>
       <c r="F239">
-        <v>711.11964065865425</v>
+        <v>809.85453944053802</v>
       </c>
       <c r="G239">
-        <v>710.57789508968995</v>
+        <v>810.07778175625185</v>
       </c>
       <c r="H239" t="s">
         <v>8</v>
@@ -10210,22 +10207,22 @@
         <v>0.16597222222222222</v>
       </c>
       <c r="B240">
-        <v>710.54313300701369</v>
+        <v>780.0839083007337</v>
       </c>
       <c r="C240">
-        <v>710.979247049062</v>
+        <v>781.28055735713326</v>
       </c>
       <c r="D240">
-        <v>710.61098280054443</v>
+        <v>781.49622331466105</v>
       </c>
       <c r="E240">
-        <v>711.57708412896352</v>
+        <v>780.28736518892265</v>
       </c>
       <c r="F240">
-        <v>711.16371409484782</v>
+        <v>781.11210011749779</v>
       </c>
       <c r="G240">
-        <v>710.62191929659275</v>
+        <v>781.36744284341694</v>
       </c>
       <c r="H240" t="s">
         <v>8</v>
@@ -10251,22 +10248,22 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="B241">
-        <v>710.57234571527533</v>
+        <v>761.03286273422543</v>
       </c>
       <c r="C241">
-        <v>711.00842713226882</v>
+        <v>762.25078538058563</v>
       </c>
       <c r="D241">
-        <v>710.64013029098373</v>
+        <v>762.48770448492155</v>
       </c>
       <c r="E241">
-        <v>711.60619906990462</v>
+        <v>761.30008054718257</v>
       </c>
       <c r="F241">
-        <v>711.19279651553506</v>
+        <v>762.1460191183412</v>
       </c>
       <c r="G241">
-        <v>710.65096923270289</v>
+        <v>762.42254372702337</v>
       </c>
       <c r="H241" t="s">
         <v>8</v>
